--- a/ICSA.xlsx
+++ b/ICSA.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rainy\Documents\GitHub\Economics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{0C4239F1-B6A9-4F2D-BBB6-3CECEF5CA50C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BB773F2-72CB-4EFE-8403-66DF8AC07E95}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FRED Graph" sheetId="1" r:id="rId1"/>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
@@ -296,13 +296,35 @@
               </c:ext>
             </c:extLst>
           </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:marker>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="FFFF00"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000006-B4B4-49F9-88A6-AD61E14B1813}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:dLbls>
             <c:dLbl>
               <c:idx val="5"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-1.774786020276041E-2"/>
-                  <c:y val="-5.7686854470147292E-2"/>
+                  <c:x val="-1.3803891268813625E-2"/>
+                  <c:y val="-0.12773517775532597"/>
                 </c:manualLayout>
               </c:layout>
               <c:spPr>
@@ -342,7 +364,7 @@
               <c:layout>
                 <c:manualLayout>
                   <c:x val="3.1551751471573998E-2"/>
-                  <c:y val="-4.5325385655115742E-2"/>
+                  <c:y val="-9.8891750520252369E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:spPr>
@@ -378,6 +400,12 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="7"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.183190680184025E-2"/>
+                  <c:y val="-5.7686854470147216E-2"/>
+                </c:manualLayout>
+              </c:layout>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
@@ -388,6 +416,27 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000008-56E9-43F7-B39A-E50EC1519892}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.1691829136707124E-2"/>
+                  <c:y val="-2.0602448025052726E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-B4B4-49F9-88A6-AD61E14B1813}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -488,6 +537,9 @@
                 <c:pt idx="7">
                   <c:v>2123000</c:v>
                 </c:pt>
+                <c:pt idx="8">
+                  <c:v>1877000</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -516,6 +568,11 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:trendline>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>'FRED Graph'!$A$2790:$A$2802</c:f>
@@ -1190,6 +1247,10 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:legendEntry>
+        <c:idx val="4"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1594,11 +1655,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H2815"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A2764" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="H2781" sqref="H2781"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -23908,7 +23969,7 @@
         <v>0</v>
       </c>
       <c r="D2790" s="2">
-        <f t="shared" ref="D2790:D2797" si="0">B2790</f>
+        <f t="shared" ref="D2790:D2798" si="0">B2790</f>
         <v>6615000</v>
       </c>
       <c r="E2790" s="2">
@@ -24143,9 +24204,16 @@
         <f t="shared" si="4"/>
         <v>43981</v>
       </c>
+      <c r="B2798" s="2">
+        <v>1877000</v>
+      </c>
       <c r="C2798">
         <f>C2797+1</f>
         <v>8</v>
+      </c>
+      <c r="D2798" s="2">
+        <f t="shared" si="0"/>
+        <v>1877000</v>
       </c>
       <c r="E2798" s="2">
         <f t="shared" si="1"/>

--- a/ICSA.xlsx
+++ b/ICSA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rainy\Documents\GitHub\Economics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BB773F2-72CB-4EFE-8403-66DF8AC07E95}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0670C9D3-0357-41B0-A418-8FFBC25E2918}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -318,6 +318,28 @@
               </c:ext>
             </c:extLst>
           </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:marker>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="FFFF00"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000008-A5CB-4AB6-BD38-9E83578F397A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:dLbls>
             <c:dLbl>
               <c:idx val="5"/>
@@ -440,6 +462,21 @@
                 </c:ext>
               </c:extLst>
             </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-A5CB-4AB6-BD38-9E83578F397A}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -539,6 +576,9 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>1877000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1542000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1658,8 +1698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H2815"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2764" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H2781" sqref="H2781"/>
+    <sheetView tabSelected="1" topLeftCell="B2762" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G2764" sqref="G2764"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -23969,7 +24009,7 @@
         <v>0</v>
       </c>
       <c r="D2790" s="2">
-        <f t="shared" ref="D2790:D2798" si="0">B2790</f>
+        <f t="shared" ref="D2790:D2799" si="0">B2790</f>
         <v>6615000</v>
       </c>
       <c r="E2790" s="2">
@@ -24235,9 +24275,16 @@
         <f t="shared" si="4"/>
         <v>43988</v>
       </c>
+      <c r="B2799" s="2">
+        <v>1542000</v>
+      </c>
       <c r="C2799">
         <f>C2798+1</f>
         <v>9</v>
+      </c>
+      <c r="D2799" s="2">
+        <f t="shared" si="0"/>
+        <v>1542000</v>
       </c>
       <c r="E2799" s="2">
         <f t="shared" si="1"/>

--- a/ICSA.xlsx
+++ b/ICSA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rainy\Documents\GitHub\Economics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0670C9D3-0357-41B0-A418-8FFBC25E2918}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CD176AA-A5B3-4D38-A795-D21414835114}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -340,162 +340,28 @@
               </c:ext>
             </c:extLst>
           </c:dPt>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="5"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-1.3803891268813625E-2"/>
-                  <c:y val="-0.12773517775532597"/>
-                </c:manualLayout>
-              </c:layout>
+          <c:dPt>
+            <c:idx val="10"/>
+            <c:marker>
               <c:spPr>
-                <a:noFill/>
-                <a:ln w="25400">
-                  <a:noFill/>
+                <a:solidFill>
+                  <a:srgbClr val="FFFF00"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
                 </a:ln>
+                <a:effectLst/>
               </c:spPr>
-              <c:txPr>
-                <a:bodyPr wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr">
-                  <a:spAutoFit/>
-                </a:bodyPr>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr/>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000001-56E9-43F7-B39A-E50EC1519892}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="6"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="3.1551751471573998E-2"/>
-                  <c:y val="-9.8891750520252369E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln w="25400">
-                  <a:noFill/>
-                </a:ln>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr">
-                  <a:spAutoFit/>
-                </a:bodyPr>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr/>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-56E9-43F7-B39A-E50EC1519892}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="7"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="1.183190680184025E-2"/>
-                  <c:y val="-5.7686854470147216E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000008-56E9-43F7-B39A-E50EC1519892}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="8"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="2.1691829136707124E-2"/>
-                  <c:y val="-2.0602448025052726E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000006-B4B4-49F9-88A6-AD61E14B1813}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="9"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000008-A5CB-4AB6-BD38-9E83578F397A}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
+            </c:marker>
+            <c:bubble3D val="0"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-52C0-4AD5-9C4F-84C6A8D6C45A}"/>
               </c:ext>
             </c:extLst>
-          </c:dLbls>
+          </c:dPt>
           <c:xVal>
             <c:numRef>
               <c:f>'FRED Graph'!$A$2790:$A$2802</c:f>
@@ -579,6 +445,9 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>1542000</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>1508000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1698,8 +1567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H2815"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2762" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G2764" sqref="G2764"/>
+    <sheetView tabSelected="1" topLeftCell="B2774" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E2788" sqref="E2788"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -24309,6 +24178,9 @@
       <c r="C2800">
         <f>C2799+1</f>
         <v>10</v>
+      </c>
+      <c r="D2800">
+        <v>1508000</v>
       </c>
       <c r="E2800" s="2">
         <f t="shared" si="1"/>

--- a/ICSA.xlsx
+++ b/ICSA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rainy\Documents\GitHub\Economics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CD176AA-A5B3-4D38-A795-D21414835114}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5FD3580-FF7C-4488-A0AF-E2ED1E64481C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>FRED Graph Observations</t>
   </si>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t>2008 peak</t>
+  </si>
+  <si>
+    <t>Linear Fit</t>
   </si>
 </sst>
 </file>
@@ -446,8 +449,8 @@
                 <c:pt idx="9">
                   <c:v>1542000</c:v>
                 </c:pt>
-                <c:pt idx="10" formatCode="General">
-                  <c:v>1508000</c:v>
+                <c:pt idx="10">
+                  <c:v>1480000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -561,19 +564,19 @@
                   <c:v>1966651.2664357503</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1653750</c:v>
+                  <c:v>1831500</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1390632.4467258304</c:v>
+                  <c:v>1633000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1169377.8393872532</c:v>
+                  <c:v>1434500</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>983325.63321787491</c:v>
+                  <c:v>1236000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>826875.00000000023</c:v>
+                  <c:v>1037500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1565,10 +1568,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H2815"/>
+  <dimension ref="A1:J2815"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2774" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E2788" sqref="E2788"/>
+    <sheetView tabSelected="1" topLeftCell="C2770" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="I2794" sqref="I2794"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -23812,7 +23815,7 @@
         <v>220000</v>
       </c>
     </row>
-    <row r="2785" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2785" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2785" s="1">
         <v>43890</v>
       </c>
@@ -23820,7 +23823,7 @@
         <v>217000</v>
       </c>
     </row>
-    <row r="2786" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2786" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2786" s="1">
         <v>43897</v>
       </c>
@@ -23828,7 +23831,7 @@
         <v>211000</v>
       </c>
     </row>
-    <row r="2787" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2787" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2787" s="1">
         <v>43904</v>
       </c>
@@ -23839,7 +23842,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2788" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2788" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2788" s="1">
         <v>43911</v>
       </c>
@@ -23847,7 +23850,7 @@
         <v>3307000</v>
       </c>
     </row>
-    <row r="2789" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2789" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2789" s="1">
         <v>43918</v>
       </c>
@@ -23866,8 +23869,11 @@
       <c r="F2789" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2790" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I2789" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2790" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2790" s="1">
         <v>43925</v>
       </c>
@@ -23878,7 +23884,7 @@
         <v>0</v>
       </c>
       <c r="D2790" s="2">
-        <f t="shared" ref="D2790:D2799" si="0">B2790</f>
+        <f t="shared" ref="D2790:D2800" si="0">B2790</f>
         <v>6615000</v>
       </c>
       <c r="E2790" s="2">
@@ -23895,7 +23901,7 @@
         <v>665000</v>
       </c>
     </row>
-    <row r="2791" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2791" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2791" s="1">
         <v>43932</v>
       </c>
@@ -23925,7 +23931,7 @@
         <v>653000</v>
       </c>
     </row>
-    <row r="2792" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2792" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2792" s="1">
         <v>43939</v>
       </c>
@@ -23955,7 +23961,7 @@
         <v>599000</v>
       </c>
     </row>
-    <row r="2793" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2793" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2793" s="1">
         <v>43946</v>
       </c>
@@ -23985,7 +23991,7 @@
         <v>639000</v>
       </c>
     </row>
-    <row r="2794" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2794" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2794" s="1">
         <v>43953</v>
       </c>
@@ -24014,8 +24020,15 @@
       <c r="H2794" s="2">
         <v>620000</v>
       </c>
-    </row>
-    <row r="2795" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I2794">
+        <f t="array" ref="I2794:J2795">LINEST(B2798:B2800,C2798:C2800)</f>
+        <v>-198500</v>
+      </c>
+      <c r="J2794">
+        <v>3419500</v>
+      </c>
+    </row>
+    <row r="2795" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2795" s="1">
         <f t="shared" ref="A2795:A2815" si="4">A2794+7</f>
         <v>43960</v>
@@ -24045,8 +24058,14 @@
       <c r="H2795" s="2">
         <v>602000</v>
       </c>
-    </row>
-    <row r="2796" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I2795">
+        <v>-198500</v>
+      </c>
+      <c r="J2795">
+        <v>3419500</v>
+      </c>
+    </row>
+    <row r="2796" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2796" s="1">
         <f t="shared" si="4"/>
         <v>43967</v>
@@ -24077,7 +24096,7 @@
         <v>625000</v>
       </c>
     </row>
-    <row r="2797" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2797" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2797" s="1">
         <f t="shared" si="4"/>
         <v>43974</v>
@@ -24108,7 +24127,7 @@
         <v>620000</v>
       </c>
     </row>
-    <row r="2798" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2798" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2798" s="1">
         <f t="shared" si="4"/>
         <v>43981</v>
@@ -24125,8 +24144,8 @@
         <v>1877000</v>
       </c>
       <c r="E2798" s="2">
-        <f t="shared" si="1"/>
-        <v>1653750</v>
+        <f>$J$2794+C2798*$I$2794</f>
+        <v>1831500</v>
       </c>
       <c r="F2798">
         <f t="shared" si="3"/>
@@ -24139,7 +24158,7 @@
         <v>606000</v>
       </c>
     </row>
-    <row r="2799" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2799" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2799" s="1">
         <f t="shared" si="4"/>
         <v>43988</v>
@@ -24156,8 +24175,8 @@
         <v>1542000</v>
       </c>
       <c r="E2799" s="2">
-        <f t="shared" si="1"/>
-        <v>1390632.4467258304</v>
+        <f>$J$2794+C2799*$I$2794</f>
+        <v>1633000</v>
       </c>
       <c r="F2799">
         <f t="shared" si="3"/>
@@ -24170,21 +24189,25 @@
         <v>607000</v>
       </c>
     </row>
-    <row r="2800" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2800" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2800" s="1">
         <f t="shared" si="4"/>
         <v>43995</v>
       </c>
+      <c r="B2800" s="2">
+        <v>1480000</v>
+      </c>
       <c r="C2800">
         <f>C2799+1</f>
         <v>10</v>
       </c>
-      <c r="D2800">
-        <v>1508000</v>
+      <c r="D2800" s="2">
+        <f t="shared" si="0"/>
+        <v>1480000</v>
       </c>
       <c r="E2800" s="2">
-        <f t="shared" si="1"/>
-        <v>1169377.8393872532</v>
+        <f>$J$2794+C2800*$I$2794</f>
+        <v>1434500</v>
       </c>
       <c r="F2800">
         <f t="shared" si="3"/>
@@ -24207,8 +24230,8 @@
         <v>11</v>
       </c>
       <c r="E2801" s="2">
-        <f t="shared" si="1"/>
-        <v>983325.63321787491</v>
+        <f t="shared" ref="E2801:E2815" si="5">$J$2794+C2801*$I$2794</f>
+        <v>1236000</v>
       </c>
       <c r="F2801">
         <f t="shared" si="3"/>
@@ -24231,8 +24254,8 @@
         <v>12</v>
       </c>
       <c r="E2802" s="2">
-        <f t="shared" si="1"/>
-        <v>826875.00000000023</v>
+        <f t="shared" si="5"/>
+        <v>1037500</v>
       </c>
       <c r="F2802">
         <f t="shared" si="3"/>
@@ -24251,12 +24274,12 @@
         <v>44016</v>
       </c>
       <c r="C2803">
-        <f t="shared" ref="C2803:C2815" si="5">C2802+1</f>
+        <f t="shared" ref="C2803:C2815" si="6">C2802+1</f>
         <v>13</v>
       </c>
       <c r="E2803" s="2">
-        <f t="shared" si="1"/>
-        <v>695316.22336291533</v>
+        <f t="shared" si="5"/>
+        <v>839000</v>
       </c>
       <c r="G2803" s="1">
         <v>39991</v>
@@ -24271,12 +24294,12 @@
         <v>44023</v>
       </c>
       <c r="C2804">
+        <f t="shared" si="6"/>
+        <v>14</v>
+      </c>
+      <c r="E2804" s="2">
         <f t="shared" si="5"/>
-        <v>14</v>
-      </c>
-      <c r="E2804" s="2">
-        <f t="shared" si="1"/>
-        <v>584688.91969362658</v>
+        <v>640500</v>
       </c>
       <c r="G2804" s="1">
         <v>39998</v>
@@ -24291,12 +24314,12 @@
         <v>44030</v>
       </c>
       <c r="C2805">
+        <f t="shared" si="6"/>
+        <v>15</v>
+      </c>
+      <c r="E2805" s="2">
         <f t="shared" si="5"/>
-        <v>15</v>
-      </c>
-      <c r="E2805" s="2">
-        <f t="shared" si="1"/>
-        <v>491662.81660893757</v>
+        <v>442000</v>
       </c>
       <c r="G2805" s="1">
         <v>40005</v>
@@ -24311,12 +24334,12 @@
         <v>44037</v>
       </c>
       <c r="C2806">
+        <f t="shared" si="6"/>
+        <v>16</v>
+      </c>
+      <c r="E2806" s="2">
         <f t="shared" si="5"/>
-        <v>16</v>
-      </c>
-      <c r="E2806" s="2">
-        <f t="shared" si="1"/>
-        <v>413437.5</v>
+        <v>243500</v>
       </c>
       <c r="G2806" s="1">
         <v>40012</v>
@@ -24331,12 +24354,12 @@
         <v>44044</v>
       </c>
       <c r="C2807">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+      <c r="E2807" s="2">
         <f t="shared" si="5"/>
-        <v>17</v>
-      </c>
-      <c r="E2807" s="2">
-        <f t="shared" si="1"/>
-        <v>347658.11168145761</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="2808" spans="1:8" x14ac:dyDescent="0.2">
@@ -24345,12 +24368,12 @@
         <v>44051</v>
       </c>
       <c r="C2808">
+        <f t="shared" si="6"/>
+        <v>18</v>
+      </c>
+      <c r="E2808" s="2">
         <f t="shared" si="5"/>
-        <v>18</v>
-      </c>
-      <c r="E2808" s="2">
-        <f t="shared" si="1"/>
-        <v>292344.45984681329</v>
+        <v>-153500</v>
       </c>
     </row>
     <row r="2809" spans="1:8" x14ac:dyDescent="0.2">
@@ -24359,12 +24382,12 @@
         <v>44058</v>
       </c>
       <c r="C2809">
+        <f t="shared" si="6"/>
+        <v>19</v>
+      </c>
+      <c r="E2809" s="2">
         <f t="shared" si="5"/>
-        <v>19</v>
-      </c>
-      <c r="E2809" s="2">
-        <f t="shared" si="1"/>
-        <v>245831.40830446873</v>
+        <v>-352000</v>
       </c>
     </row>
     <row r="2810" spans="1:8" x14ac:dyDescent="0.2">
@@ -24373,12 +24396,12 @@
         <v>44065</v>
       </c>
       <c r="C2810">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="E2810" s="2">
         <f t="shared" si="5"/>
-        <v>20</v>
-      </c>
-      <c r="E2810" s="2">
-        <f t="shared" si="1"/>
-        <v>206718.75</v>
+        <v>-550500</v>
       </c>
     </row>
     <row r="2811" spans="1:8" x14ac:dyDescent="0.2">
@@ -24387,12 +24410,12 @@
         <v>44072</v>
       </c>
       <c r="C2811">
+        <f t="shared" si="6"/>
+        <v>21</v>
+      </c>
+      <c r="E2811" s="2">
         <f t="shared" si="5"/>
-        <v>21</v>
-      </c>
-      <c r="E2811" s="2">
-        <f t="shared" si="1"/>
-        <v>173829.0558407288</v>
+        <v>-749000</v>
       </c>
     </row>
     <row r="2812" spans="1:8" x14ac:dyDescent="0.2">
@@ -24401,12 +24424,12 @@
         <v>44079</v>
       </c>
       <c r="C2812">
+        <f t="shared" si="6"/>
+        <v>22</v>
+      </c>
+      <c r="E2812" s="2">
         <f t="shared" si="5"/>
-        <v>22</v>
-      </c>
-      <c r="E2812" s="2">
-        <f t="shared" si="1"/>
-        <v>146172.22992340662</v>
+        <v>-947500</v>
       </c>
     </row>
     <row r="2813" spans="1:8" x14ac:dyDescent="0.2">
@@ -24415,12 +24438,12 @@
         <v>44086</v>
       </c>
       <c r="C2813">
+        <f t="shared" si="6"/>
+        <v>23</v>
+      </c>
+      <c r="E2813" s="2">
         <f t="shared" si="5"/>
-        <v>23</v>
-      </c>
-      <c r="E2813" s="2">
-        <f t="shared" si="1"/>
-        <v>122915.70415223436</v>
+        <v>-1146000</v>
       </c>
     </row>
     <row r="2814" spans="1:8" x14ac:dyDescent="0.2">
@@ -24429,12 +24452,12 @@
         <v>44093</v>
       </c>
       <c r="C2814">
+        <f t="shared" si="6"/>
+        <v>24</v>
+      </c>
+      <c r="E2814" s="2">
         <f t="shared" si="5"/>
-        <v>24</v>
-      </c>
-      <c r="E2814" s="2">
-        <f t="shared" si="1"/>
-        <v>103359.37500000004</v>
+        <v>-1344500</v>
       </c>
     </row>
     <row r="2815" spans="1:8" x14ac:dyDescent="0.2">
@@ -24443,12 +24466,12 @@
         <v>44100</v>
       </c>
       <c r="C2815">
+        <f t="shared" si="6"/>
+        <v>25</v>
+      </c>
+      <c r="E2815" s="2">
         <f t="shared" si="5"/>
-        <v>25</v>
-      </c>
-      <c r="E2815" s="2">
-        <f t="shared" si="1"/>
-        <v>86914.527920364402</v>
+        <v>-1543000</v>
       </c>
     </row>
   </sheetData>

--- a/ICSA.xlsx
+++ b/ICSA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rainy\Documents\GitHub\Economics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5FD3580-FF7C-4488-A0AF-E2ED1E64481C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA9F3320-B4E7-4A70-A30B-A8DCD0D0FC74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -451,6 +451,9 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>1480000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1427000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1570,8 +1573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J2815"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C2770" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I2794" sqref="I2794"/>
+    <sheetView tabSelected="1" topLeftCell="C2773" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="I2794" sqref="I2794:J2795"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -23884,7 +23887,7 @@
         <v>0</v>
       </c>
       <c r="D2790" s="2">
-        <f t="shared" ref="D2790:D2800" si="0">B2790</f>
+        <f t="shared" ref="D2790:D2801" si="0">B2790</f>
         <v>6615000</v>
       </c>
       <c r="E2790" s="2">
@@ -23917,7 +23920,7 @@
         <v>5237000</v>
       </c>
       <c r="E2791" s="2">
-        <f t="shared" ref="E2791:E2815" si="1">$D$2790*EXP(-C2791*LN(2)/$E$2787)</f>
+        <f t="shared" ref="E2791:E2797" si="1">$D$2790*EXP(-C2791*LN(2)/$E$2787)</f>
         <v>5562529.7869033217</v>
       </c>
       <c r="F2791">
@@ -24225,9 +24228,16 @@
         <f t="shared" si="4"/>
         <v>44002</v>
       </c>
+      <c r="B2801" s="2">
+        <v>1427000</v>
+      </c>
       <c r="C2801">
         <f>C2800+1</f>
         <v>11</v>
+      </c>
+      <c r="D2801" s="2">
+        <f t="shared" si="0"/>
+        <v>1427000</v>
       </c>
       <c r="E2801" s="2">
         <f t="shared" ref="E2801:E2815" si="5">$J$2794+C2801*$I$2794</f>

--- a/ICSA.xlsx
+++ b/ICSA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rainy\Documents\GitHub\Economics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA9F3320-B4E7-4A70-A30B-A8DCD0D0FC74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35731D48-BFF9-4576-AFA8-B965FDD066F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>FRED Graph Observations</t>
   </si>
@@ -66,13 +66,16 @@
     <t>ICSA Data</t>
   </si>
   <si>
-    <t>Estimate</t>
-  </si>
-  <si>
     <t>2008 peak</t>
   </si>
   <si>
     <t>Linear Fit</t>
+  </si>
+  <si>
+    <t>Estimate, exp</t>
+  </si>
+  <si>
+    <t>Estimate, linear</t>
   </si>
 </sst>
 </file>
@@ -365,6 +368,69 @@
               </c:ext>
             </c:extLst>
           </c:dPt>
+          <c:dPt>
+            <c:idx val="11"/>
+            <c:marker>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="FFFF00"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000A-C50B-48F4-A2F4-54F811AB10FD}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="11"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.9719844669733678E-2"/>
+                  <c:y val="-0.13185566736033658"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000A-C50B-48F4-A2F4-54F811AB10FD}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>'FRED Graph'!$A$2790:$A$2802</c:f>
@@ -567,19 +633,19 @@
                   <c:v>1966651.2664357503</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1831500</c:v>
+                  <c:v>1653750</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1633000</c:v>
+                  <c:v>1390632.4467258304</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1434500</c:v>
+                  <c:v>1169377.8393872532</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1236000</c:v>
+                  <c:v>983325.63321787491</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1037500</c:v>
+                  <c:v>826875.00000000023</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -658,7 +724,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'FRED Graph'!$F$2790:$F$2802</c:f>
+              <c:f>'FRED Graph'!$G$2790:$G$2802</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -751,6 +817,67 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-7.8879378678934995E-3"/>
+                  <c:y val="-9.0650771310231332E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{0D50BB80-047C-4CDD-8951-B204DD96703E}" type="YVALUE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[Y VALUE]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t> (2009 Peak)</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-C50B-48F4-A2F4-54F811AB10FD}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>'FRED Graph'!$A$2790:$A$2802</c:f>
@@ -801,7 +928,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'FRED Graph'!$H$2790:$H$2802</c:f>
+              <c:f>'FRED Graph'!$I$2790:$I$2802</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="13"/>
@@ -1571,10 +1698,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J2815"/>
+  <dimension ref="A1:K2815"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C2773" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I2794" sqref="I2794:J2795"/>
+    <sheetView tabSelected="1" topLeftCell="B2762" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C2779" sqref="C2779"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -23818,7 +23945,7 @@
         <v>220000</v>
       </c>
     </row>
-    <row r="2785" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2785" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2785" s="1">
         <v>43890</v>
       </c>
@@ -23826,7 +23953,7 @@
         <v>217000</v>
       </c>
     </row>
-    <row r="2786" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2786" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2786" s="1">
         <v>43897</v>
       </c>
@@ -23834,7 +23961,7 @@
         <v>211000</v>
       </c>
     </row>
-    <row r="2787" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2787" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2787" s="1">
         <v>43904</v>
       </c>
@@ -23845,7 +23972,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2788" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2788" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2788" s="1">
         <v>43911</v>
       </c>
@@ -23853,7 +23980,7 @@
         <v>3307000</v>
       </c>
     </row>
-    <row r="2789" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2789" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2789" s="1">
         <v>43918</v>
       </c>
@@ -23867,16 +23994,19 @@
         <v>11</v>
       </c>
       <c r="E2789" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2789" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2789" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F2789" s="3" t="s">
+      <c r="J2789" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I2789" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2790" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2790" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2790" s="1">
         <v>43925</v>
       </c>
@@ -23894,17 +24024,18 @@
         <f>$D$2790*EXP(-C2790*LN(2)/$E$2787)</f>
         <v>6615000</v>
       </c>
-      <c r="F2790">
+      <c r="F2790" s="2"/>
+      <c r="G2790">
         <v>700000</v>
       </c>
-      <c r="G2790" s="1">
+      <c r="H2790" s="1">
         <v>39900</v>
       </c>
-      <c r="H2790" s="2">
+      <c r="I2790" s="2">
         <v>665000</v>
       </c>
     </row>
-    <row r="2791" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2791" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2791" s="1">
         <v>43932</v>
       </c>
@@ -23920,21 +24051,22 @@
         <v>5237000</v>
       </c>
       <c r="E2791" s="2">
-        <f t="shared" ref="E2791:E2797" si="1">$D$2790*EXP(-C2791*LN(2)/$E$2787)</f>
+        <f t="shared" ref="E2791:E2809" si="1">$D$2790*EXP(-C2791*LN(2)/$E$2787)</f>
         <v>5562529.7869033217</v>
       </c>
-      <c r="F2791">
-        <f>F2790</f>
+      <c r="F2791" s="2"/>
+      <c r="G2791">
+        <f>G2790</f>
         <v>700000</v>
       </c>
-      <c r="G2791" s="1">
+      <c r="H2791" s="1">
         <v>39907</v>
       </c>
-      <c r="H2791" s="2">
+      <c r="I2791" s="2">
         <v>653000</v>
       </c>
     </row>
-    <row r="2792" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2792" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2792" s="1">
         <v>43939</v>
       </c>
@@ -23953,18 +24085,19 @@
         <f t="shared" si="1"/>
         <v>4677511.3575490126</v>
       </c>
-      <c r="F2792">
-        <f t="shared" ref="F2792:F2802" si="3">F2791</f>
+      <c r="F2792" s="2"/>
+      <c r="G2792">
+        <f t="shared" ref="G2792:G2802" si="3">G2791</f>
         <v>700000</v>
       </c>
-      <c r="G2792" s="1">
+      <c r="H2792" s="1">
         <v>39914</v>
       </c>
-      <c r="H2792" s="2">
+      <c r="I2792" s="2">
         <v>599000</v>
       </c>
     </row>
-    <row r="2793" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2793" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2793" s="1">
         <v>43946</v>
       </c>
@@ -23983,18 +24116,19 @@
         <f t="shared" si="1"/>
         <v>3933302.5328714997</v>
       </c>
-      <c r="F2793">
+      <c r="F2793" s="2"/>
+      <c r="G2793">
         <f t="shared" si="3"/>
         <v>700000</v>
       </c>
-      <c r="G2793" s="1">
+      <c r="H2793" s="1">
         <v>39921</v>
       </c>
-      <c r="H2793" s="2">
+      <c r="I2793" s="2">
         <v>639000</v>
       </c>
     </row>
-    <row r="2794" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2794" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2794" s="1">
         <v>43953</v>
       </c>
@@ -24013,25 +24147,26 @@
         <f t="shared" si="1"/>
         <v>3307500</v>
       </c>
-      <c r="F2794">
+      <c r="F2794" s="2"/>
+      <c r="G2794">
         <f t="shared" si="3"/>
         <v>700000</v>
       </c>
-      <c r="G2794" s="1">
+      <c r="H2794" s="1">
         <v>39928</v>
       </c>
-      <c r="H2794" s="2">
+      <c r="I2794" s="2">
         <v>620000</v>
       </c>
-      <c r="I2794">
-        <f t="array" ref="I2794:J2795">LINEST(B2798:B2800,C2798:C2800)</f>
-        <v>-198500</v>
-      </c>
       <c r="J2794">
-        <v>3419500</v>
-      </c>
-    </row>
-    <row r="2795" spans="1:10" x14ac:dyDescent="0.2">
+        <f t="array" ref="J2794:K2795">LINEST(B2798:B2801,C2798:C2801)</f>
+        <v>-141200</v>
+      </c>
+      <c r="K2794">
+        <v>2922900</v>
+      </c>
+    </row>
+    <row r="2795" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2795" s="1">
         <f t="shared" ref="A2795:A2815" si="4">A2794+7</f>
         <v>43960</v>
@@ -24051,24 +24186,25 @@
         <f t="shared" si="1"/>
         <v>2781264.8934516609</v>
       </c>
-      <c r="F2795">
+      <c r="F2795" s="2"/>
+      <c r="G2795">
         <f t="shared" si="3"/>
         <v>700000</v>
       </c>
-      <c r="G2795" s="1">
+      <c r="H2795" s="1">
         <v>39935</v>
       </c>
-      <c r="H2795" s="2">
+      <c r="I2795" s="2">
         <v>602000</v>
       </c>
-      <c r="I2795">
-        <v>-198500</v>
-      </c>
       <c r="J2795">
-        <v>3419500</v>
-      </c>
-    </row>
-    <row r="2796" spans="1:10" x14ac:dyDescent="0.2">
+        <v>-141200</v>
+      </c>
+      <c r="K2795">
+        <v>2922900</v>
+      </c>
+    </row>
+    <row r="2796" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2796" s="1">
         <f t="shared" si="4"/>
         <v>43967</v>
@@ -24088,18 +24224,19 @@
         <f t="shared" si="1"/>
         <v>2338755.6787745063</v>
       </c>
-      <c r="F2796">
+      <c r="F2796" s="2"/>
+      <c r="G2796">
         <f t="shared" si="3"/>
         <v>700000</v>
       </c>
-      <c r="G2796" s="1">
+      <c r="H2796" s="1">
         <v>39942</v>
       </c>
-      <c r="H2796" s="2">
+      <c r="I2796" s="2">
         <v>625000</v>
       </c>
     </row>
-    <row r="2797" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2797" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2797" s="1">
         <f t="shared" si="4"/>
         <v>43974</v>
@@ -24119,18 +24256,22 @@
         <f t="shared" si="1"/>
         <v>1966651.2664357503</v>
       </c>
-      <c r="F2797">
+      <c r="F2797" s="2">
+        <f>$K$2794+C2797*$J$2794</f>
+        <v>1934500</v>
+      </c>
+      <c r="G2797">
         <f t="shared" si="3"/>
         <v>700000</v>
       </c>
-      <c r="G2797" s="1">
+      <c r="H2797" s="1">
         <v>39949</v>
       </c>
-      <c r="H2797" s="2">
+      <c r="I2797" s="2">
         <v>620000</v>
       </c>
     </row>
-    <row r="2798" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2798" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2798" s="1">
         <f t="shared" si="4"/>
         <v>43981</v>
@@ -24147,21 +24288,25 @@
         <v>1877000</v>
       </c>
       <c r="E2798" s="2">
-        <f>$J$2794+C2798*$I$2794</f>
-        <v>1831500</v>
-      </c>
-      <c r="F2798">
+        <f t="shared" si="1"/>
+        <v>1653750</v>
+      </c>
+      <c r="F2798" s="2">
+        <f t="shared" ref="F2798:F2809" si="5">$K$2794+C2798*$J$2794</f>
+        <v>1793300</v>
+      </c>
+      <c r="G2798">
         <f t="shared" si="3"/>
         <v>700000</v>
       </c>
-      <c r="G2798" s="1">
+      <c r="H2798" s="1">
         <v>39956</v>
       </c>
-      <c r="H2798" s="2">
+      <c r="I2798" s="2">
         <v>606000</v>
       </c>
     </row>
-    <row r="2799" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2799" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2799" s="1">
         <f t="shared" si="4"/>
         <v>43988</v>
@@ -24178,21 +24323,25 @@
         <v>1542000</v>
       </c>
       <c r="E2799" s="2">
-        <f>$J$2794+C2799*$I$2794</f>
-        <v>1633000</v>
-      </c>
-      <c r="F2799">
+        <f t="shared" si="1"/>
+        <v>1390632.4467258304</v>
+      </c>
+      <c r="F2799" s="2">
+        <f t="shared" si="5"/>
+        <v>1652100</v>
+      </c>
+      <c r="G2799">
         <f t="shared" si="3"/>
         <v>700000</v>
       </c>
-      <c r="G2799" s="1">
+      <c r="H2799" s="1">
         <v>39963</v>
       </c>
-      <c r="H2799" s="2">
+      <c r="I2799" s="2">
         <v>607000</v>
       </c>
     </row>
-    <row r="2800" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2800" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2800" s="1">
         <f t="shared" si="4"/>
         <v>43995</v>
@@ -24209,21 +24358,25 @@
         <v>1480000</v>
       </c>
       <c r="E2800" s="2">
-        <f>$J$2794+C2800*$I$2794</f>
-        <v>1434500</v>
-      </c>
-      <c r="F2800">
+        <f t="shared" si="1"/>
+        <v>1169377.8393872532</v>
+      </c>
+      <c r="F2800" s="2">
+        <f t="shared" si="5"/>
+        <v>1510900</v>
+      </c>
+      <c r="G2800">
         <f t="shared" si="3"/>
         <v>700000</v>
       </c>
-      <c r="G2800" s="1">
+      <c r="H2800" s="1">
         <v>39970</v>
       </c>
-      <c r="H2800" s="2">
+      <c r="I2800" s="2">
         <v>596000</v>
       </c>
     </row>
-    <row r="2801" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2801" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2801" s="1">
         <f t="shared" si="4"/>
         <v>44002</v>
@@ -24240,21 +24393,25 @@
         <v>1427000</v>
       </c>
       <c r="E2801" s="2">
-        <f t="shared" ref="E2801:E2815" si="5">$J$2794+C2801*$I$2794</f>
-        <v>1236000</v>
-      </c>
-      <c r="F2801">
+        <f t="shared" si="1"/>
+        <v>983325.63321787491</v>
+      </c>
+      <c r="F2801" s="2">
+        <f t="shared" si="5"/>
+        <v>1369700</v>
+      </c>
+      <c r="G2801">
         <f t="shared" si="3"/>
         <v>700000</v>
       </c>
-      <c r="G2801" s="1">
+      <c r="H2801" s="1">
         <v>39977</v>
       </c>
-      <c r="H2801" s="2">
+      <c r="I2801" s="2">
         <v>595000</v>
       </c>
     </row>
-    <row r="2802" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2802" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2802" s="1">
         <f t="shared" si="4"/>
         <v>44009</v>
@@ -24264,21 +24421,25 @@
         <v>12</v>
       </c>
       <c r="E2802" s="2">
+        <f t="shared" si="1"/>
+        <v>826875.00000000023</v>
+      </c>
+      <c r="F2802" s="2">
         <f t="shared" si="5"/>
-        <v>1037500</v>
-      </c>
-      <c r="F2802">
+        <v>1228500</v>
+      </c>
+      <c r="G2802">
         <f t="shared" si="3"/>
         <v>700000</v>
       </c>
-      <c r="G2802" s="1">
+      <c r="H2802" s="1">
         <v>39984</v>
       </c>
-      <c r="H2802" s="2">
+      <c r="I2802" s="2">
         <v>608000</v>
       </c>
     </row>
-    <row r="2803" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2803" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2803" s="1">
         <f t="shared" si="4"/>
         <v>44016</v>
@@ -24288,17 +24449,21 @@
         <v>13</v>
       </c>
       <c r="E2803" s="2">
+        <f t="shared" si="1"/>
+        <v>695316.22336291533</v>
+      </c>
+      <c r="F2803" s="2">
         <f t="shared" si="5"/>
-        <v>839000</v>
-      </c>
-      <c r="G2803" s="1">
+        <v>1087300</v>
+      </c>
+      <c r="H2803" s="1">
         <v>39991</v>
       </c>
-      <c r="H2803" s="2">
+      <c r="I2803" s="2">
         <v>594000</v>
       </c>
     </row>
-    <row r="2804" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2804" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2804" s="1">
         <f t="shared" si="4"/>
         <v>44023</v>
@@ -24308,17 +24473,21 @@
         <v>14</v>
       </c>
       <c r="E2804" s="2">
+        <f t="shared" si="1"/>
+        <v>584688.91969362658</v>
+      </c>
+      <c r="F2804" s="2">
         <f t="shared" si="5"/>
-        <v>640500</v>
-      </c>
-      <c r="G2804" s="1">
+        <v>946100</v>
+      </c>
+      <c r="H2804" s="1">
         <v>39998</v>
       </c>
-      <c r="H2804" s="2">
+      <c r="I2804" s="2">
         <v>573000</v>
       </c>
     </row>
-    <row r="2805" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2805" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2805" s="1">
         <f t="shared" si="4"/>
         <v>44030</v>
@@ -24328,17 +24497,21 @@
         <v>15</v>
       </c>
       <c r="E2805" s="2">
+        <f t="shared" si="1"/>
+        <v>491662.81660893757</v>
+      </c>
+      <c r="F2805" s="2">
         <f t="shared" si="5"/>
-        <v>442000</v>
-      </c>
-      <c r="G2805" s="1">
+        <v>804900</v>
+      </c>
+      <c r="H2805" s="1">
         <v>40005</v>
       </c>
-      <c r="H2805" s="2">
+      <c r="I2805" s="2">
         <v>546000</v>
       </c>
     </row>
-    <row r="2806" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2806" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2806" s="1">
         <f t="shared" si="4"/>
         <v>44037</v>
@@ -24348,17 +24521,21 @@
         <v>16</v>
       </c>
       <c r="E2806" s="2">
+        <f t="shared" si="1"/>
+        <v>413437.5</v>
+      </c>
+      <c r="F2806" s="2">
         <f t="shared" si="5"/>
-        <v>243500</v>
-      </c>
-      <c r="G2806" s="1">
+        <v>663700</v>
+      </c>
+      <c r="H2806" s="1">
         <v>40012</v>
       </c>
-      <c r="H2806" s="2">
+      <c r="I2806" s="2">
         <v>560000</v>
       </c>
     </row>
-    <row r="2807" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2807" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2807" s="1">
         <f t="shared" si="4"/>
         <v>44044</v>
@@ -24368,11 +24545,15 @@
         <v>17</v>
       </c>
       <c r="E2807" s="2">
+        <f t="shared" si="1"/>
+        <v>347658.11168145761</v>
+      </c>
+      <c r="F2807" s="2">
         <f t="shared" si="5"/>
-        <v>45000</v>
-      </c>
-    </row>
-    <row r="2808" spans="1:8" x14ac:dyDescent="0.2">
+        <v>522500</v>
+      </c>
+    </row>
+    <row r="2808" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2808" s="1">
         <f t="shared" si="4"/>
         <v>44051</v>
@@ -24382,11 +24563,15 @@
         <v>18</v>
       </c>
       <c r="E2808" s="2">
+        <f t="shared" si="1"/>
+        <v>292344.45984681329</v>
+      </c>
+      <c r="F2808" s="2">
         <f t="shared" si="5"/>
-        <v>-153500</v>
-      </c>
-    </row>
-    <row r="2809" spans="1:8" x14ac:dyDescent="0.2">
+        <v>381300</v>
+      </c>
+    </row>
+    <row r="2809" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2809" s="1">
         <f t="shared" si="4"/>
         <v>44058</v>
@@ -24396,11 +24581,15 @@
         <v>19</v>
       </c>
       <c r="E2809" s="2">
+        <f t="shared" si="1"/>
+        <v>245831.40830446873</v>
+      </c>
+      <c r="F2809" s="2">
         <f t="shared" si="5"/>
-        <v>-352000</v>
-      </c>
-    </row>
-    <row r="2810" spans="1:8" x14ac:dyDescent="0.2">
+        <v>240100</v>
+      </c>
+    </row>
+    <row r="2810" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2810" s="1">
         <f t="shared" si="4"/>
         <v>44065</v>
@@ -24409,12 +24598,10 @@
         <f t="shared" si="6"/>
         <v>20</v>
       </c>
-      <c r="E2810" s="2">
-        <f t="shared" si="5"/>
-        <v>-550500</v>
-      </c>
-    </row>
-    <row r="2811" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E2810" s="2"/>
+      <c r="F2810" s="2"/>
+    </row>
+    <row r="2811" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2811" s="1">
         <f t="shared" si="4"/>
         <v>44072</v>
@@ -24423,12 +24610,10 @@
         <f t="shared" si="6"/>
         <v>21</v>
       </c>
-      <c r="E2811" s="2">
-        <f t="shared" si="5"/>
-        <v>-749000</v>
-      </c>
-    </row>
-    <row r="2812" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E2811" s="2"/>
+      <c r="F2811" s="2"/>
+    </row>
+    <row r="2812" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2812" s="1">
         <f t="shared" si="4"/>
         <v>44079</v>
@@ -24437,12 +24622,10 @@
         <f t="shared" si="6"/>
         <v>22</v>
       </c>
-      <c r="E2812" s="2">
-        <f t="shared" si="5"/>
-        <v>-947500</v>
-      </c>
-    </row>
-    <row r="2813" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E2812" s="2"/>
+      <c r="F2812" s="2"/>
+    </row>
+    <row r="2813" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2813" s="1">
         <f t="shared" si="4"/>
         <v>44086</v>
@@ -24451,12 +24634,10 @@
         <f t="shared" si="6"/>
         <v>23</v>
       </c>
-      <c r="E2813" s="2">
-        <f t="shared" si="5"/>
-        <v>-1146000</v>
-      </c>
-    </row>
-    <row r="2814" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E2813" s="2"/>
+      <c r="F2813" s="2"/>
+    </row>
+    <row r="2814" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2814" s="1">
         <f t="shared" si="4"/>
         <v>44093</v>
@@ -24465,12 +24646,10 @@
         <f t="shared" si="6"/>
         <v>24</v>
       </c>
-      <c r="E2814" s="2">
-        <f t="shared" si="5"/>
-        <v>-1344500</v>
-      </c>
-    </row>
-    <row r="2815" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E2814" s="2"/>
+      <c r="F2814" s="2"/>
+    </row>
+    <row r="2815" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2815" s="1">
         <f t="shared" si="4"/>
         <v>44100</v>
@@ -24479,10 +24658,8 @@
         <f t="shared" si="6"/>
         <v>25</v>
       </c>
-      <c r="E2815" s="2">
-        <f t="shared" si="5"/>
-        <v>-1543000</v>
-      </c>
+      <c r="E2815" s="2"/>
+      <c r="F2815" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/ICSA.xlsx
+++ b/ICSA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rainy\Documents\GitHub\Economics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35731D48-BFF9-4576-AFA8-B965FDD066F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD690CAC-6E7A-4DCB-9DFE-06129FDF0E92}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -390,13 +390,67 @@
               </c:ext>
             </c:extLst>
           </c:dPt>
+          <c:dPt>
+            <c:idx val="12"/>
+            <c:marker>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="FFFF00"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-3D9A-412C-BCFC-649B06B1B8B3}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="13"/>
+            <c:marker>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="FFFF00"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000C-3D9A-412C-BCFC-649B06B1B8B3}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:dLbls>
             <c:dLbl>
               <c:idx val="11"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000A-C50B-48F4-A2F4-54F811AB10FD}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="13"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-1.9719844669733678E-2"/>
-                  <c:y val="-0.13185566736033658"/>
+                  <c:x val="-2.1691829136707124E-2"/>
+                  <c:y val="-7.8289302495199789E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:showLegendKey val="0"/>
@@ -408,7 +462,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000A-C50B-48F4-A2F4-54F811AB10FD}"/>
+                  <c16:uniqueId val="{0000000C-3D9A-412C-BCFC-649B06B1B8B3}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -433,10 +487,10 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>'FRED Graph'!$A$2790:$A$2802</c:f>
+              <c:f>'FRED Graph'!$A$2790:$A$2805</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>43925</c:v>
                 </c:pt>
@@ -476,15 +530,24 @@
                 <c:pt idx="12">
                   <c:v>44009</c:v>
                 </c:pt>
+                <c:pt idx="13">
+                  <c:v>44016</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44023</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44030</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'FRED Graph'!$D$2790:$D$2802</c:f>
+              <c:f>'FRED Graph'!$D$2790:$D$2805</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>6615000</c:v>
                 </c:pt>
@@ -520,6 +583,12 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>1427000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1413000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1314000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -676,10 +745,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'FRED Graph'!$A$2790:$A$2802</c:f>
+              <c:f>'FRED Graph'!$A$2790:$A$2805</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>43925</c:v>
                 </c:pt>
@@ -719,15 +788,24 @@
                 <c:pt idx="12">
                   <c:v>44009</c:v>
                 </c:pt>
+                <c:pt idx="13">
+                  <c:v>44016</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44023</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44030</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'FRED Graph'!$G$2790:$G$2802</c:f>
+              <c:f>'FRED Graph'!$G$2790:$G$2805</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>700000</c:v>
                 </c:pt>
@@ -765,6 +843,15 @@
                   <c:v>700000</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>700000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>700000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>700000</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>700000</c:v>
                 </c:pt>
               </c:numCache>
@@ -880,10 +967,10 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>'FRED Graph'!$A$2790:$A$2802</c:f>
+              <c:f>'FRED Graph'!$A$2790:$A$2805</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>43925</c:v>
                 </c:pt>
@@ -923,15 +1010,24 @@
                 <c:pt idx="12">
                   <c:v>44009</c:v>
                 </c:pt>
+                <c:pt idx="13">
+                  <c:v>44016</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44023</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44030</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'FRED Graph'!$I$2790:$I$2802</c:f>
+              <c:f>'FRED Graph'!$I$2790:$I$2805</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>665000</c:v>
                 </c:pt>
@@ -971,6 +1067,15 @@
                 <c:pt idx="12">
                   <c:v>608000</c:v>
                 </c:pt>
+                <c:pt idx="13">
+                  <c:v>594000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>573000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>546000</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -996,6 +1101,7 @@
         <c:axId val="319767456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="43920"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1084,6 +1190,7 @@
         <c:crossAx val="1"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="30"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="1"/>
@@ -1700,8 +1807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K2815"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2762" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C2779" sqref="C2779"/>
+    <sheetView tabSelected="1" topLeftCell="C2764" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="H2786" sqref="H2786"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -24017,7 +24124,7 @@
         <v>0</v>
       </c>
       <c r="D2790" s="2">
-        <f t="shared" ref="D2790:D2801" si="0">B2790</f>
+        <f t="shared" ref="D2790:D2803" si="0">B2790</f>
         <v>6615000</v>
       </c>
       <c r="E2790" s="2">
@@ -24029,9 +24136,11 @@
         <v>700000</v>
       </c>
       <c r="H2790" s="1">
+        <f>A2215</f>
         <v>39900</v>
       </c>
       <c r="I2790" s="2">
+        <f>B2215</f>
         <v>665000</v>
       </c>
     </row>
@@ -24060,9 +24169,11 @@
         <v>700000</v>
       </c>
       <c r="H2791" s="1">
+        <f t="shared" ref="H2791:I2791" si="2">A2216</f>
         <v>39907</v>
       </c>
       <c r="I2791" s="2">
+        <f t="shared" si="2"/>
         <v>653000</v>
       </c>
     </row>
@@ -24074,7 +24185,7 @@
         <v>4442000</v>
       </c>
       <c r="C2792">
-        <f t="shared" ref="C2792:C2797" si="2">C2791+1</f>
+        <f t="shared" ref="C2792:C2797" si="3">C2791+1</f>
         <v>2</v>
       </c>
       <c r="D2792" s="2">
@@ -24087,13 +24198,15 @@
       </c>
       <c r="F2792" s="2"/>
       <c r="G2792">
-        <f t="shared" ref="G2792:G2802" si="3">G2791</f>
+        <f t="shared" ref="G2792:G2809" si="4">G2791</f>
         <v>700000</v>
       </c>
       <c r="H2792" s="1">
+        <f t="shared" ref="H2792:I2792" si="5">A2217</f>
         <v>39914</v>
       </c>
       <c r="I2792" s="2">
+        <f t="shared" si="5"/>
         <v>599000</v>
       </c>
     </row>
@@ -24105,7 +24218,7 @@
         <v>3846000</v>
       </c>
       <c r="C2793">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="D2793" s="2">
@@ -24118,13 +24231,15 @@
       </c>
       <c r="F2793" s="2"/>
       <c r="G2793">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>700000</v>
       </c>
       <c r="H2793" s="1">
+        <f t="shared" ref="H2793:I2793" si="6">A2218</f>
         <v>39921</v>
       </c>
       <c r="I2793" s="2">
+        <f t="shared" si="6"/>
         <v>639000</v>
       </c>
     </row>
@@ -24136,7 +24251,7 @@
         <v>3169000</v>
       </c>
       <c r="C2794">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="D2794" s="2">
@@ -24149,13 +24264,15 @@
       </c>
       <c r="F2794" s="2"/>
       <c r="G2794">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>700000</v>
       </c>
       <c r="H2794" s="1">
+        <f t="shared" ref="H2794:I2794" si="7">A2219</f>
         <v>39928</v>
       </c>
       <c r="I2794" s="2">
+        <f t="shared" si="7"/>
         <v>620000</v>
       </c>
       <c r="J2794">
@@ -24168,14 +24285,14 @@
     </row>
     <row r="2795" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2795" s="1">
-        <f t="shared" ref="A2795:A2815" si="4">A2794+7</f>
+        <f t="shared" ref="A2795:A2815" si="8">A2794+7</f>
         <v>43960</v>
       </c>
       <c r="B2795">
         <v>2981000</v>
       </c>
       <c r="C2795">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="D2795" s="2">
@@ -24188,13 +24305,15 @@
       </c>
       <c r="F2795" s="2"/>
       <c r="G2795">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>700000</v>
       </c>
       <c r="H2795" s="1">
+        <f t="shared" ref="H2795:I2795" si="9">A2220</f>
         <v>39935</v>
       </c>
       <c r="I2795" s="2">
+        <f t="shared" si="9"/>
         <v>602000</v>
       </c>
       <c r="J2795">
@@ -24206,14 +24325,14 @@
     </row>
     <row r="2796" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2796" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>43967</v>
       </c>
       <c r="B2796" s="2">
         <v>2438000</v>
       </c>
       <c r="C2796">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="D2796" s="2">
@@ -24226,26 +24345,28 @@
       </c>
       <c r="F2796" s="2"/>
       <c r="G2796">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>700000</v>
       </c>
       <c r="H2796" s="1">
+        <f t="shared" ref="H2796:I2796" si="10">A2221</f>
         <v>39942</v>
       </c>
       <c r="I2796" s="2">
+        <f t="shared" si="10"/>
         <v>625000</v>
       </c>
     </row>
     <row r="2797" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2797" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>43974</v>
       </c>
       <c r="B2797" s="2">
         <v>2123000</v>
       </c>
       <c r="C2797">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="D2797" s="2">
@@ -24261,19 +24382,21 @@
         <v>1934500</v>
       </c>
       <c r="G2797">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>700000</v>
       </c>
       <c r="H2797" s="1">
+        <f t="shared" ref="H2797:I2797" si="11">A2222</f>
         <v>39949</v>
       </c>
       <c r="I2797" s="2">
+        <f t="shared" si="11"/>
         <v>620000</v>
       </c>
     </row>
     <row r="2798" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2798" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>43981</v>
       </c>
       <c r="B2798" s="2">
@@ -24292,23 +24415,25 @@
         <v>1653750</v>
       </c>
       <c r="F2798" s="2">
-        <f t="shared" ref="F2798:F2809" si="5">$K$2794+C2798*$J$2794</f>
+        <f t="shared" ref="F2798:F2809" si="12">$K$2794+C2798*$J$2794</f>
         <v>1793300</v>
       </c>
       <c r="G2798">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>700000</v>
       </c>
       <c r="H2798" s="1">
+        <f t="shared" ref="H2798:I2798" si="13">A2223</f>
         <v>39956</v>
       </c>
       <c r="I2798" s="2">
+        <f t="shared" si="13"/>
         <v>606000</v>
       </c>
     </row>
     <row r="2799" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2799" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>43988</v>
       </c>
       <c r="B2799" s="2">
@@ -24327,23 +24452,25 @@
         <v>1390632.4467258304</v>
       </c>
       <c r="F2799" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>1652100</v>
       </c>
       <c r="G2799">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>700000</v>
       </c>
       <c r="H2799" s="1">
+        <f t="shared" ref="H2799:I2799" si="14">A2224</f>
         <v>39963</v>
       </c>
       <c r="I2799" s="2">
+        <f t="shared" si="14"/>
         <v>607000</v>
       </c>
     </row>
     <row r="2800" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2800" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>43995</v>
       </c>
       <c r="B2800" s="2">
@@ -24362,23 +24489,25 @@
         <v>1169377.8393872532</v>
       </c>
       <c r="F2800" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>1510900</v>
       </c>
       <c r="G2800">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>700000</v>
       </c>
       <c r="H2800" s="1">
+        <f t="shared" ref="H2800:I2800" si="15">A2225</f>
         <v>39970</v>
       </c>
       <c r="I2800" s="2">
+        <f t="shared" si="15"/>
         <v>596000</v>
       </c>
     </row>
     <row r="2801" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2801" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>44002</v>
       </c>
       <c r="B2801" s="2">
@@ -24397,79 +24526,103 @@
         <v>983325.63321787491</v>
       </c>
       <c r="F2801" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>1369700</v>
       </c>
       <c r="G2801">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>700000</v>
       </c>
       <c r="H2801" s="1">
+        <f t="shared" ref="H2801:I2801" si="16">A2226</f>
         <v>39977</v>
       </c>
       <c r="I2801" s="2">
+        <f t="shared" si="16"/>
         <v>595000</v>
       </c>
     </row>
     <row r="2802" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2802" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>44009</v>
+      </c>
+      <c r="B2802" s="2">
+        <v>1413000</v>
       </c>
       <c r="C2802">
         <f>C2801+1</f>
         <v>12</v>
       </c>
+      <c r="D2802" s="2">
+        <f t="shared" si="0"/>
+        <v>1413000</v>
+      </c>
       <c r="E2802" s="2">
         <f t="shared" si="1"/>
         <v>826875.00000000023</v>
       </c>
       <c r="F2802" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>1228500</v>
       </c>
       <c r="G2802">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>700000</v>
       </c>
       <c r="H2802" s="1">
+        <f t="shared" ref="H2802:I2802" si="17">A2227</f>
         <v>39984</v>
       </c>
       <c r="I2802" s="2">
+        <f t="shared" si="17"/>
         <v>608000</v>
       </c>
     </row>
     <row r="2803" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2803" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>44016</v>
       </c>
+      <c r="B2803" s="2">
+        <v>1314000</v>
+      </c>
       <c r="C2803">
-        <f t="shared" ref="C2803:C2815" si="6">C2802+1</f>
+        <f t="shared" ref="C2803:C2815" si="18">C2802+1</f>
         <v>13</v>
+      </c>
+      <c r="D2803" s="2">
+        <f t="shared" si="0"/>
+        <v>1314000</v>
       </c>
       <c r="E2803" s="2">
         <f t="shared" si="1"/>
         <v>695316.22336291533</v>
       </c>
       <c r="F2803" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>1087300</v>
       </c>
+      <c r="G2803">
+        <f t="shared" si="4"/>
+        <v>700000</v>
+      </c>
       <c r="H2803" s="1">
+        <f t="shared" ref="H2803:I2803" si="19">A2228</f>
         <v>39991</v>
       </c>
       <c r="I2803" s="2">
+        <f t="shared" si="19"/>
         <v>594000</v>
       </c>
     </row>
     <row r="2804" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2804" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>44023</v>
       </c>
       <c r="C2804">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>14</v>
       </c>
       <c r="E2804" s="2">
@@ -24477,23 +24630,29 @@
         <v>584688.91969362658</v>
       </c>
       <c r="F2804" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>946100</v>
       </c>
+      <c r="G2804">
+        <f t="shared" si="4"/>
+        <v>700000</v>
+      </c>
       <c r="H2804" s="1">
+        <f t="shared" ref="H2804:I2804" si="20">A2229</f>
         <v>39998</v>
       </c>
       <c r="I2804" s="2">
+        <f t="shared" si="20"/>
         <v>573000</v>
       </c>
     </row>
     <row r="2805" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2805" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>44030</v>
       </c>
       <c r="C2805">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>15</v>
       </c>
       <c r="E2805" s="2">
@@ -24501,23 +24660,29 @@
         <v>491662.81660893757</v>
       </c>
       <c r="F2805" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>804900</v>
       </c>
+      <c r="G2805">
+        <f t="shared" si="4"/>
+        <v>700000</v>
+      </c>
       <c r="H2805" s="1">
+        <f t="shared" ref="H2805:I2805" si="21">A2230</f>
         <v>40005</v>
       </c>
       <c r="I2805" s="2">
+        <f t="shared" si="21"/>
         <v>546000</v>
       </c>
     </row>
     <row r="2806" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2806" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>44037</v>
       </c>
       <c r="C2806">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>16</v>
       </c>
       <c r="E2806" s="2">
@@ -24525,23 +24690,29 @@
         <v>413437.5</v>
       </c>
       <c r="F2806" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>663700</v>
       </c>
+      <c r="G2806">
+        <f t="shared" si="4"/>
+        <v>700000</v>
+      </c>
       <c r="H2806" s="1">
+        <f t="shared" ref="H2806:I2806" si="22">A2231</f>
         <v>40012</v>
       </c>
       <c r="I2806" s="2">
+        <f t="shared" si="22"/>
         <v>560000</v>
       </c>
     </row>
     <row r="2807" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2807" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>44044</v>
       </c>
       <c r="C2807">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>17</v>
       </c>
       <c r="E2807" s="2">
@@ -24549,17 +24720,29 @@
         <v>347658.11168145761</v>
       </c>
       <c r="F2807" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>522500</v>
+      </c>
+      <c r="G2807">
+        <f t="shared" si="4"/>
+        <v>700000</v>
+      </c>
+      <c r="H2807" s="1">
+        <f t="shared" ref="H2807:I2807" si="23">A2232</f>
+        <v>40019</v>
+      </c>
+      <c r="I2807" s="2">
+        <f t="shared" si="23"/>
+        <v>587000</v>
       </c>
     </row>
     <row r="2808" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2808" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>44051</v>
       </c>
       <c r="C2808">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>18</v>
       </c>
       <c r="E2808" s="2">
@@ -24567,17 +24750,29 @@
         <v>292344.45984681329</v>
       </c>
       <c r="F2808" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>381300</v>
+      </c>
+      <c r="G2808">
+        <f t="shared" si="4"/>
+        <v>700000</v>
+      </c>
+      <c r="H2808" s="1">
+        <f t="shared" ref="H2808:I2808" si="24">A2233</f>
+        <v>40026</v>
+      </c>
+      <c r="I2808" s="2">
+        <f t="shared" si="24"/>
+        <v>555000</v>
       </c>
     </row>
     <row r="2809" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2809" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>44058</v>
       </c>
       <c r="C2809">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>19</v>
       </c>
       <c r="E2809" s="2">
@@ -24585,17 +24780,29 @@
         <v>245831.40830446873</v>
       </c>
       <c r="F2809" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>240100</v>
+      </c>
+      <c r="G2809">
+        <f t="shared" si="4"/>
+        <v>700000</v>
+      </c>
+      <c r="H2809" s="1">
+        <f t="shared" ref="H2809:I2809" si="25">A2234</f>
+        <v>40033</v>
+      </c>
+      <c r="I2809" s="2">
+        <f t="shared" si="25"/>
+        <v>555000</v>
       </c>
     </row>
     <row r="2810" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2810" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>44065</v>
       </c>
       <c r="C2810">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>20</v>
       </c>
       <c r="E2810" s="2"/>
@@ -24603,11 +24810,11 @@
     </row>
     <row r="2811" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2811" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>44072</v>
       </c>
       <c r="C2811">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>21</v>
       </c>
       <c r="E2811" s="2"/>
@@ -24615,11 +24822,11 @@
     </row>
     <row r="2812" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2812" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>44079</v>
       </c>
       <c r="C2812">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>22</v>
       </c>
       <c r="E2812" s="2"/>
@@ -24627,11 +24834,11 @@
     </row>
     <row r="2813" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2813" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>44086</v>
       </c>
       <c r="C2813">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>23</v>
       </c>
       <c r="E2813" s="2"/>
@@ -24639,11 +24846,11 @@
     </row>
     <row r="2814" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2814" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>44093</v>
       </c>
       <c r="C2814">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>24</v>
       </c>
       <c r="E2814" s="2"/>
@@ -24651,11 +24858,11 @@
     </row>
     <row r="2815" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2815" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>44100</v>
       </c>
       <c r="C2815">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>25</v>
       </c>
       <c r="E2815" s="2"/>

--- a/ICSA.xlsx
+++ b/ICSA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rainy\Documents\GitHub\Economics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{980054B7-7A30-4700-989F-006D7A3EFB32}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F6D166E-BA3A-48DF-80C0-14B1387DF45C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -458,16 +458,6 @@
           </c:dPt>
           <c:dLbls>
             <c:dLbl>
-              <c:idx val="13"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000C-3D9A-412C-BCFC-649B06B1B8B3}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
               <c:idx val="14"/>
               <c:layout>
                 <c:manualLayout>
@@ -509,10 +499,10 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>'FRED Graph'!$A$2790:$A$2805</c:f>
+              <c:f>'FRED Graph'!$A$2790:$A$2819</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>43925</c:v>
                 </c:pt>
@@ -561,15 +551,57 @@
                 <c:pt idx="15">
                   <c:v>44030</c:v>
                 </c:pt>
+                <c:pt idx="16">
+                  <c:v>44037</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44044</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44051</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44058</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44065</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44072</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44079</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44086</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44093</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>44100</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44107</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>44114</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>44121</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44128</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'FRED Graph'!$E$2790:$E$2805</c:f>
+              <c:f>'FRED Graph'!$E$2790:$E$2819</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>6615000</c:v>
                 </c:pt>
@@ -580,40 +612,43 @@
                   <c:v>4442000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3846000</c:v>
+                  <c:v>3867000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3169000</c:v>
+                  <c:v>3176000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2981000</c:v>
+                  <c:v>2687000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2438000</c:v>
+                  <c:v>2446000</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>2123000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1877000</c:v>
+                  <c:v>1897000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1542000</c:v>
+                  <c:v>1566000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1480000</c:v>
+                  <c:v>1540000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1427000</c:v>
+                  <c:v>1482000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1413000</c:v>
+                  <c:v>1408000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1314000</c:v>
+                  <c:v>1310000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1300000</c:v>
+                  <c:v>1307000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1416000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -930,10 +965,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'FRED Graph'!$A$2790:$A$2805</c:f>
+              <c:f>'FRED Graph'!$A$2790:$A$2819</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>43925</c:v>
                 </c:pt>
@@ -982,15 +1017,57 @@
                 <c:pt idx="15">
                   <c:v>44030</c:v>
                 </c:pt>
+                <c:pt idx="16">
+                  <c:v>44037</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44044</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44051</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44058</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44065</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44072</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44079</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44086</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44093</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>44100</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44107</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>44114</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>44121</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44128</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'FRED Graph'!$C$2790:$C$2804</c:f>
+              <c:f>'FRED Graph'!$C$2790:$C$2819</c:f>
               <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>6211406</c:v>
                 </c:pt>
@@ -1034,7 +1111,10 @@
                   <c:v>1395081</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1503892</c:v>
+                  <c:v>1512763</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1370947</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1269,6 +1349,7 @@
         <c:axId val="319767456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="44050"/>
           <c:min val="43920"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1514,7 +1595,7 @@
             </a:ln>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1973,10 +2054,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L2817"/>
+  <dimension ref="A1:L2824"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2782" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E2818" sqref="E2818"/>
+    <sheetView tabSelected="1" topLeftCell="E2772" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="K2794" sqref="K2794"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -27023,15 +27104,15 @@
         <v>4</v>
       </c>
       <c r="G2787">
-        <f>LINEST(E2795:E2803,D2795:D2803,TRUE)</f>
-        <v>-192200</v>
+        <f>LINEST(E2795:E2805,D2795:D2805,TRUE)</f>
+        <v>-131018.18181818182</v>
       </c>
     </row>
     <row r="2788" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2788" s="1">
         <v>43911</v>
       </c>
-      <c r="B2788" s="2">
+      <c r="B2788">
         <v>3307000</v>
       </c>
       <c r="C2788" s="2"/>
@@ -27040,7 +27121,7 @@
       <c r="A2789" s="1">
         <v>43918</v>
       </c>
-      <c r="B2789" s="2">
+      <c r="B2789">
         <v>6867000</v>
       </c>
       <c r="C2789" s="2"/>
@@ -27067,17 +27148,17 @@
       <c r="A2790" s="1">
         <v>43925</v>
       </c>
-      <c r="B2790" s="2">
+      <c r="B2790">
         <v>6615000</v>
       </c>
-      <c r="C2790" s="2">
+      <c r="C2790">
         <v>6211406</v>
       </c>
       <c r="D2790">
         <v>0</v>
       </c>
       <c r="E2790" s="2">
-        <f t="shared" ref="E2790:E2804" si="0">B2790</f>
+        <f t="shared" ref="E2790:E2805" si="0">B2790</f>
         <v>6615000</v>
       </c>
       <c r="F2790" s="2">
@@ -27089,11 +27170,11 @@
         <v>700000</v>
       </c>
       <c r="I2790" s="1">
-        <f>A2215</f>
+        <f t="shared" ref="I2790:I2802" si="1">A2215</f>
         <v>39900</v>
       </c>
       <c r="J2790" s="2">
-        <f>B2215</f>
+        <f t="shared" ref="J2790:J2802" si="2">B2215</f>
         <v>665000</v>
       </c>
     </row>
@@ -27101,10 +27182,10 @@
       <c r="A2791" s="1">
         <v>43932</v>
       </c>
-      <c r="B2791" s="2">
+      <c r="B2791">
         <v>5237000</v>
       </c>
-      <c r="C2791" s="2">
+      <c r="C2791">
         <v>4965046</v>
       </c>
       <c r="D2791">
@@ -27116,7 +27197,7 @@
         <v>5237000</v>
       </c>
       <c r="F2791" s="2">
-        <f t="shared" ref="F2791:F2809" si="1">$E$2790*EXP(-D2791*LN(2)/$F$2787)</f>
+        <f t="shared" ref="F2791:F2809" si="3">$E$2790*EXP(-D2791*LN(2)/$F$2787)</f>
         <v>5562529.7869033217</v>
       </c>
       <c r="G2791" s="2"/>
@@ -27125,11 +27206,11 @@
         <v>700000</v>
       </c>
       <c r="I2791" s="1">
-        <f>A2216</f>
+        <f t="shared" si="1"/>
         <v>39907</v>
       </c>
       <c r="J2791" s="2">
-        <f>B2216</f>
+        <f t="shared" si="2"/>
         <v>653000</v>
       </c>
     </row>
@@ -27137,14 +27218,14 @@
       <c r="A2792" s="1">
         <v>43939</v>
       </c>
-      <c r="B2792" s="2">
+      <c r="B2792">
         <v>4442000</v>
       </c>
-      <c r="C2792" s="2">
+      <c r="C2792">
         <v>4281648</v>
       </c>
       <c r="D2792">
-        <f t="shared" ref="D2792:D2797" si="2">D2791+1</f>
+        <f t="shared" ref="D2792:D2797" si="4">D2791+1</f>
         <v>2</v>
       </c>
       <c r="E2792" s="2">
@@ -27152,20 +27233,20 @@
         <v>4442000</v>
       </c>
       <c r="F2792" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4677511.3575490126</v>
       </c>
       <c r="G2792" s="2"/>
       <c r="H2792">
-        <f t="shared" ref="H2792:H2809" si="3">H2791</f>
+        <f t="shared" ref="H2792:H2809" si="5">H2791</f>
         <v>700000</v>
       </c>
       <c r="I2792" s="1">
-        <f>A2217</f>
+        <f t="shared" si="1"/>
         <v>39914</v>
       </c>
       <c r="J2792" s="2">
-        <f>B2217</f>
+        <f t="shared" si="2"/>
         <v>599000</v>
       </c>
     </row>
@@ -27173,35 +27254,35 @@
       <c r="A2793" s="1">
         <v>43946</v>
       </c>
-      <c r="B2793" s="2">
-        <v>3846000</v>
-      </c>
-      <c r="C2793" s="2">
+      <c r="B2793">
+        <v>3867000</v>
+      </c>
+      <c r="C2793">
         <v>3515439</v>
       </c>
       <c r="D2793">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="E2793" s="2">
         <f t="shared" si="0"/>
-        <v>3846000</v>
+        <v>3867000</v>
       </c>
       <c r="F2793" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3933302.5328714997</v>
       </c>
       <c r="G2793" s="2"/>
       <c r="H2793">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>700000</v>
       </c>
       <c r="I2793" s="1">
-        <f>A2218</f>
+        <f t="shared" si="1"/>
         <v>39921</v>
       </c>
       <c r="J2793" s="2">
-        <f>B2218</f>
+        <f t="shared" si="2"/>
         <v>639000</v>
       </c>
     </row>
@@ -27209,138 +27290,138 @@
       <c r="A2794" s="1">
         <v>43953</v>
       </c>
-      <c r="B2794" s="2">
-        <v>3169000</v>
-      </c>
-      <c r="C2794" s="2">
+      <c r="B2794">
+        <v>3176000</v>
+      </c>
+      <c r="C2794">
         <v>2855561</v>
       </c>
       <c r="D2794">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="E2794" s="2">
         <f t="shared" si="0"/>
-        <v>3169000</v>
+        <v>3176000</v>
       </c>
       <c r="F2794" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3307500</v>
       </c>
       <c r="G2794" s="2"/>
       <c r="H2794">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>700000</v>
       </c>
       <c r="I2794" s="1">
-        <f>A2219</f>
+        <f t="shared" si="1"/>
         <v>39928</v>
       </c>
       <c r="J2794" s="2">
-        <f>B2219</f>
+        <f t="shared" si="2"/>
         <v>620000</v>
       </c>
       <c r="K2794">
-        <f t="array" ref="K2794:L2795">LINEST(B2800:B2801,D2800:D2801)</f>
-        <v>-53000.000000000022</v>
+        <f t="array" ref="K2794:L2795">LINEST(B2800:B2805,D2800:D2805)</f>
+        <v>-35514.285714285717</v>
       </c>
       <c r="L2794">
-        <v>2010000.0000000002</v>
+        <v>1854428.5714285714</v>
       </c>
     </row>
     <row r="2795" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2795" s="1">
-        <f t="shared" ref="A2795:A2817" si="4">A2794+7</f>
+        <f t="shared" ref="A2795:A2824" si="6">A2794+7</f>
         <v>43960</v>
       </c>
       <c r="B2795">
-        <v>2981000</v>
-      </c>
-      <c r="C2795" s="2">
+        <v>2687000</v>
+      </c>
+      <c r="C2795">
         <v>2356626</v>
       </c>
       <c r="D2795">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="E2795" s="2">
         <f t="shared" si="0"/>
-        <v>2981000</v>
+        <v>2687000</v>
       </c>
       <c r="F2795" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2781264.8934516609</v>
       </c>
       <c r="G2795" s="2"/>
       <c r="H2795">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>700000</v>
       </c>
       <c r="I2795" s="1">
-        <f>A2220</f>
+        <f t="shared" si="1"/>
         <v>39935</v>
       </c>
       <c r="J2795" s="2">
-        <f>B2220</f>
+        <f t="shared" si="2"/>
         <v>602000</v>
       </c>
       <c r="K2795">
-        <v>-53000.000000000022</v>
+        <v>-35514.285714285717</v>
       </c>
       <c r="L2795">
-        <v>2010000.0000000002</v>
+        <v>1854428.5714285714</v>
       </c>
     </row>
     <row r="2796" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2796" s="1">
+        <f t="shared" si="6"/>
+        <v>43967</v>
+      </c>
+      <c r="B2796">
+        <v>2446000</v>
+      </c>
+      <c r="C2796">
+        <v>2181640</v>
+      </c>
+      <c r="D2796">
         <f t="shared" si="4"/>
-        <v>43967</v>
-      </c>
-      <c r="B2796" s="2">
-        <v>2438000</v>
-      </c>
-      <c r="C2796" s="2">
-        <v>2181640</v>
-      </c>
-      <c r="D2796">
-        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="E2796" s="2">
         <f t="shared" si="0"/>
-        <v>2438000</v>
+        <v>2446000</v>
       </c>
       <c r="F2796" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2338755.6787745063</v>
       </c>
       <c r="G2796" s="2"/>
       <c r="H2796">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>700000</v>
       </c>
       <c r="I2796" s="1">
-        <f>A2221</f>
+        <f t="shared" si="1"/>
         <v>39942</v>
       </c>
       <c r="J2796" s="2">
-        <f>B2221</f>
+        <f t="shared" si="2"/>
         <v>625000</v>
       </c>
     </row>
     <row r="2797" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2797" s="1">
+        <f t="shared" si="6"/>
+        <v>43974</v>
+      </c>
+      <c r="B2797">
+        <v>2123000</v>
+      </c>
+      <c r="C2797">
+        <v>1915138</v>
+      </c>
+      <c r="D2797">
         <f t="shared" si="4"/>
-        <v>43974</v>
-      </c>
-      <c r="B2797" s="2">
-        <v>2123000</v>
-      </c>
-      <c r="C2797" s="2">
-        <v>1915138</v>
-      </c>
-      <c r="D2797">
-        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="E2797" s="2">
@@ -27348,35 +27429,35 @@
         <v>2123000</v>
       </c>
       <c r="F2797" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1966651.2664357503</v>
       </c>
       <c r="G2797" s="2">
         <f>$L$2794+D2797*$K$2794</f>
-        <v>1639000</v>
+        <v>1605828.5714285714</v>
       </c>
       <c r="H2797">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>700000</v>
       </c>
       <c r="I2797" s="1">
-        <f>A2222</f>
+        <f t="shared" si="1"/>
         <v>39949</v>
       </c>
       <c r="J2797" s="2">
-        <f>B2222</f>
+        <f t="shared" si="2"/>
         <v>620000</v>
       </c>
     </row>
     <row r="2798" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2798" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>43981</v>
       </c>
-      <c r="B2798" s="2">
-        <v>1877000</v>
-      </c>
-      <c r="C2798" s="2">
+      <c r="B2798">
+        <v>1897000</v>
+      </c>
+      <c r="C2798">
         <v>1620008</v>
       </c>
       <c r="D2798">
@@ -27385,38 +27466,38 @@
       </c>
       <c r="E2798" s="2">
         <f t="shared" si="0"/>
-        <v>1877000</v>
+        <v>1897000</v>
       </c>
       <c r="F2798" s="2">
+        <f t="shared" si="3"/>
+        <v>1653750</v>
+      </c>
+      <c r="G2798" s="2">
+        <f t="shared" ref="G2798:G2817" si="7">$L$2794+D2798*$K$2794</f>
+        <v>1570314.2857142857</v>
+      </c>
+      <c r="H2798">
+        <f t="shared" si="5"/>
+        <v>700000</v>
+      </c>
+      <c r="I2798" s="1">
         <f t="shared" si="1"/>
-        <v>1653750</v>
-      </c>
-      <c r="G2798" s="2">
-        <f t="shared" ref="G2798:G2817" si="5">$L$2794+D2798*$K$2794</f>
-        <v>1586000</v>
-      </c>
-      <c r="H2798">
-        <f t="shared" si="3"/>
-        <v>700000</v>
-      </c>
-      <c r="I2798" s="1">
-        <f>A2223</f>
         <v>39956</v>
       </c>
       <c r="J2798" s="2">
-        <f>B2223</f>
+        <f t="shared" si="2"/>
         <v>606000</v>
       </c>
     </row>
     <row r="2799" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2799" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>43988</v>
       </c>
-      <c r="B2799" s="2">
-        <v>1542000</v>
-      </c>
-      <c r="C2799" s="2">
+      <c r="B2799">
+        <v>1566000</v>
+      </c>
+      <c r="C2799">
         <v>1561267</v>
       </c>
       <c r="D2799">
@@ -27425,38 +27506,38 @@
       </c>
       <c r="E2799" s="2">
         <f t="shared" si="0"/>
-        <v>1542000</v>
+        <v>1566000</v>
       </c>
       <c r="F2799" s="2">
+        <f t="shared" si="3"/>
+        <v>1390632.4467258304</v>
+      </c>
+      <c r="G2799" s="2">
+        <f t="shared" si="7"/>
+        <v>1534800</v>
+      </c>
+      <c r="H2799">
+        <f t="shared" si="5"/>
+        <v>700000</v>
+      </c>
+      <c r="I2799" s="1">
         <f t="shared" si="1"/>
-        <v>1390632.4467258304</v>
-      </c>
-      <c r="G2799" s="2">
-        <f t="shared" si="5"/>
-        <v>1533000</v>
-      </c>
-      <c r="H2799">
-        <f t="shared" si="3"/>
-        <v>700000</v>
-      </c>
-      <c r="I2799" s="1">
-        <f>A2224</f>
         <v>39963</v>
       </c>
       <c r="J2799" s="2">
-        <f>B2224</f>
+        <f t="shared" si="2"/>
         <v>607000</v>
       </c>
     </row>
     <row r="2800" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2800" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>43995</v>
       </c>
-      <c r="B2800" s="2">
-        <v>1480000</v>
-      </c>
-      <c r="C2800" s="2">
+      <c r="B2800">
+        <v>1540000</v>
+      </c>
+      <c r="C2800">
         <v>1463363</v>
       </c>
       <c r="D2800">
@@ -27465,38 +27546,38 @@
       </c>
       <c r="E2800" s="2">
         <f t="shared" si="0"/>
-        <v>1480000</v>
+        <v>1540000</v>
       </c>
       <c r="F2800" s="2">
+        <f t="shared" si="3"/>
+        <v>1169377.8393872532</v>
+      </c>
+      <c r="G2800" s="2">
+        <f t="shared" si="7"/>
+        <v>1499285.7142857141</v>
+      </c>
+      <c r="H2800">
+        <f t="shared" si="5"/>
+        <v>700000</v>
+      </c>
+      <c r="I2800" s="1">
         <f t="shared" si="1"/>
-        <v>1169377.8393872532</v>
-      </c>
-      <c r="G2800" s="2">
-        <f t="shared" si="5"/>
-        <v>1480000</v>
-      </c>
-      <c r="H2800">
-        <f t="shared" si="3"/>
-        <v>700000</v>
-      </c>
-      <c r="I2800" s="1">
-        <f>A2225</f>
         <v>39970</v>
       </c>
       <c r="J2800" s="2">
-        <f>B2225</f>
+        <f t="shared" si="2"/>
         <v>596000</v>
       </c>
     </row>
     <row r="2801" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2801" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>44002</v>
       </c>
-      <c r="B2801" s="2">
-        <v>1427000</v>
-      </c>
-      <c r="C2801" s="2">
+      <c r="B2801">
+        <v>1482000</v>
+      </c>
+      <c r="C2801">
         <v>1460056</v>
       </c>
       <c r="D2801">
@@ -27505,38 +27586,38 @@
       </c>
       <c r="E2801" s="2">
         <f t="shared" si="0"/>
-        <v>1427000</v>
+        <v>1482000</v>
       </c>
       <c r="F2801" s="2">
+        <f t="shared" si="3"/>
+        <v>983325.63321787491</v>
+      </c>
+      <c r="G2801" s="2">
+        <f t="shared" si="7"/>
+        <v>1463771.4285714284</v>
+      </c>
+      <c r="H2801">
+        <f t="shared" si="5"/>
+        <v>700000</v>
+      </c>
+      <c r="I2801" s="1">
         <f t="shared" si="1"/>
-        <v>983325.63321787491</v>
-      </c>
-      <c r="G2801" s="2">
-        <f t="shared" si="5"/>
-        <v>1427000</v>
-      </c>
-      <c r="H2801">
-        <f t="shared" si="3"/>
-        <v>700000</v>
-      </c>
-      <c r="I2801" s="1">
-        <f>A2226</f>
         <v>39977</v>
       </c>
       <c r="J2801" s="2">
-        <f>B2226</f>
+        <f t="shared" si="2"/>
         <v>595000</v>
       </c>
     </row>
     <row r="2802" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2802" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>44009</v>
       </c>
-      <c r="B2802" s="2">
-        <v>1413000</v>
-      </c>
-      <c r="C2802" s="2">
+      <c r="B2802">
+        <v>1408000</v>
+      </c>
+      <c r="C2802">
         <v>1426618</v>
       </c>
       <c r="D2802">
@@ -27545,375 +27626,483 @@
       </c>
       <c r="E2802" s="2">
         <f t="shared" si="0"/>
-        <v>1413000</v>
+        <v>1408000</v>
       </c>
       <c r="F2802" s="2">
+        <f t="shared" si="3"/>
+        <v>826875.00000000023</v>
+      </c>
+      <c r="G2802" s="2">
+        <f t="shared" si="7"/>
+        <v>1428257.1428571427</v>
+      </c>
+      <c r="H2802">
+        <f t="shared" si="5"/>
+        <v>700000</v>
+      </c>
+      <c r="I2802" s="1">
         <f t="shared" si="1"/>
-        <v>826875.00000000023</v>
-      </c>
-      <c r="G2802" s="2">
-        <f t="shared" si="5"/>
-        <v>1374000</v>
-      </c>
-      <c r="H2802">
-        <f t="shared" si="3"/>
-        <v>700000</v>
-      </c>
-      <c r="I2802" s="1">
-        <f>A2227</f>
         <v>39984</v>
       </c>
       <c r="J2802" s="2">
-        <f>B2227</f>
+        <f t="shared" si="2"/>
         <v>608000</v>
       </c>
     </row>
     <row r="2803" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2803" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>44016</v>
       </c>
-      <c r="B2803" s="2">
-        <v>1314000</v>
-      </c>
-      <c r="C2803" s="2">
+      <c r="B2803">
+        <v>1310000</v>
+      </c>
+      <c r="C2803">
         <v>1395081</v>
       </c>
       <c r="D2803">
-        <f t="shared" ref="D2803:D2817" si="6">D2802+1</f>
+        <f t="shared" ref="D2803:D2824" si="8">D2802+1</f>
         <v>13</v>
       </c>
       <c r="E2803" s="2">
         <f t="shared" si="0"/>
-        <v>1314000</v>
+        <v>1310000</v>
       </c>
       <c r="F2803" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>695316.22336291533</v>
       </c>
       <c r="G2803" s="2">
+        <f t="shared" si="7"/>
+        <v>1392742.857142857</v>
+      </c>
+      <c r="H2803">
         <f t="shared" si="5"/>
-        <v>1321000</v>
-      </c>
-      <c r="H2803">
-        <f t="shared" si="3"/>
         <v>700000</v>
       </c>
       <c r="I2803" s="1">
-        <f t="shared" ref="I2803:J2803" si="7">A2228</f>
+        <f t="shared" ref="I2803:J2803" si="9">A2228</f>
         <v>39991</v>
       </c>
       <c r="J2803" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>594000</v>
       </c>
     </row>
     <row r="2804" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2804" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>44023</v>
       </c>
-      <c r="B2804" s="2">
-        <v>1300000</v>
-      </c>
-      <c r="C2804" s="2">
-        <v>1503892</v>
+      <c r="B2804">
+        <v>1307000</v>
+      </c>
+      <c r="C2804">
+        <v>1512763</v>
       </c>
       <c r="D2804">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>14</v>
       </c>
       <c r="E2804" s="2">
         <f t="shared" si="0"/>
-        <v>1300000</v>
+        <v>1307000</v>
       </c>
       <c r="F2804" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>584688.91969362658</v>
       </c>
       <c r="G2804" s="2">
+        <f t="shared" si="7"/>
+        <v>1357228.5714285714</v>
+      </c>
+      <c r="H2804">
         <f t="shared" si="5"/>
-        <v>1268000</v>
-      </c>
-      <c r="H2804">
-        <f t="shared" si="3"/>
         <v>700000</v>
       </c>
       <c r="I2804" s="1">
-        <f t="shared" ref="I2804:J2804" si="8">A2229</f>
+        <f t="shared" ref="I2804:J2804" si="10">A2229</f>
         <v>39998</v>
       </c>
       <c r="J2804" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>573000</v>
       </c>
     </row>
     <row r="2805" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2805" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>44030</v>
       </c>
+      <c r="B2805">
+        <v>1416000</v>
+      </c>
+      <c r="C2805">
+        <v>1370947</v>
+      </c>
       <c r="D2805">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>15</v>
       </c>
+      <c r="E2805" s="2">
+        <f t="shared" si="0"/>
+        <v>1416000</v>
+      </c>
       <c r="F2805" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>491662.81660893757</v>
       </c>
       <c r="G2805" s="2">
+        <f t="shared" si="7"/>
+        <v>1321714.2857142854</v>
+      </c>
+      <c r="H2805">
         <f t="shared" si="5"/>
-        <v>1215000</v>
-      </c>
-      <c r="H2805">
-        <f t="shared" si="3"/>
         <v>700000</v>
       </c>
       <c r="I2805" s="1">
-        <f t="shared" ref="I2805:J2805" si="9">A2230</f>
+        <f t="shared" ref="I2805:J2805" si="11">A2230</f>
         <v>40005</v>
       </c>
       <c r="J2805" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>546000</v>
       </c>
     </row>
     <row r="2806" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2806" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>44037</v>
       </c>
       <c r="D2806">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>16</v>
       </c>
       <c r="F2806" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>413437.5</v>
       </c>
       <c r="G2806" s="2">
+        <f t="shared" si="7"/>
+        <v>1286200</v>
+      </c>
+      <c r="H2806">
         <f t="shared" si="5"/>
-        <v>1162000</v>
-      </c>
-      <c r="H2806">
-        <f t="shared" si="3"/>
         <v>700000</v>
       </c>
       <c r="I2806" s="1">
-        <f t="shared" ref="I2806:J2806" si="10">A2231</f>
+        <f t="shared" ref="I2806:J2806" si="12">A2231</f>
         <v>40012</v>
       </c>
       <c r="J2806" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>560000</v>
       </c>
     </row>
     <row r="2807" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2807" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>44044</v>
       </c>
       <c r="D2807">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>17</v>
       </c>
       <c r="F2807" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>347658.11168145761</v>
       </c>
       <c r="G2807" s="2">
+        <f t="shared" si="7"/>
+        <v>1250685.7142857141</v>
+      </c>
+      <c r="H2807">
         <f t="shared" si="5"/>
-        <v>1109000</v>
-      </c>
-      <c r="H2807">
-        <f t="shared" si="3"/>
         <v>700000</v>
       </c>
       <c r="I2807" s="1">
-        <f t="shared" ref="I2807:J2807" si="11">A2232</f>
+        <f t="shared" ref="I2807:J2807" si="13">A2232</f>
         <v>40019</v>
       </c>
       <c r="J2807" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>587000</v>
       </c>
     </row>
     <row r="2808" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2808" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>44051</v>
       </c>
       <c r="D2808">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>18</v>
       </c>
       <c r="F2808" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>292344.45984681329</v>
       </c>
       <c r="G2808" s="2">
+        <f t="shared" si="7"/>
+        <v>1215171.4285714284</v>
+      </c>
+      <c r="H2808">
         <f t="shared" si="5"/>
-        <v>1056000</v>
-      </c>
-      <c r="H2808">
-        <f t="shared" si="3"/>
         <v>700000</v>
       </c>
       <c r="I2808" s="1">
-        <f t="shared" ref="I2808:J2808" si="12">A2233</f>
+        <f t="shared" ref="I2808:J2808" si="14">A2233</f>
         <v>40026</v>
       </c>
       <c r="J2808" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>555000</v>
       </c>
     </row>
     <row r="2809" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2809" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>44058</v>
       </c>
       <c r="D2809">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>19</v>
       </c>
       <c r="F2809" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>245831.40830446873</v>
       </c>
       <c r="G2809" s="2">
+        <f t="shared" si="7"/>
+        <v>1179657.1428571427</v>
+      </c>
+      <c r="H2809">
         <f t="shared" si="5"/>
-        <v>1002999.9999999998</v>
-      </c>
-      <c r="H2809">
-        <f t="shared" si="3"/>
         <v>700000</v>
       </c>
       <c r="I2809" s="1">
-        <f t="shared" ref="I2809:J2809" si="13">A2234</f>
+        <f t="shared" ref="I2809:J2809" si="15">A2234</f>
         <v>40033</v>
       </c>
       <c r="J2809" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>555000</v>
       </c>
     </row>
     <row r="2810" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2810" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>44065</v>
       </c>
       <c r="D2810">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
       <c r="F2810" s="2"/>
       <c r="G2810" s="2">
-        <f t="shared" si="5"/>
-        <v>949999.99999999977</v>
+        <f t="shared" si="7"/>
+        <v>1144142.857142857</v>
       </c>
     </row>
     <row r="2811" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2811" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>44072</v>
       </c>
       <c r="D2811">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>21</v>
       </c>
       <c r="F2811" s="2"/>
       <c r="G2811" s="2">
-        <f t="shared" si="5"/>
-        <v>896999.99999999977</v>
+        <f t="shared" si="7"/>
+        <v>1108628.5714285714</v>
       </c>
     </row>
     <row r="2812" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2812" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>44079</v>
       </c>
       <c r="D2812">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>22</v>
       </c>
       <c r="F2812" s="2"/>
       <c r="G2812" s="2">
-        <f t="shared" si="5"/>
-        <v>843999.99999999977</v>
+        <f t="shared" si="7"/>
+        <v>1073114.2857142854</v>
       </c>
     </row>
     <row r="2813" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2813" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>44086</v>
       </c>
       <c r="D2813">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>23</v>
       </c>
       <c r="F2813" s="2"/>
       <c r="G2813" s="2">
-        <f t="shared" si="5"/>
-        <v>790999.99999999977</v>
+        <f t="shared" si="7"/>
+        <v>1037599.9999999999</v>
       </c>
     </row>
     <row r="2814" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2814" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>44093</v>
       </c>
       <c r="D2814">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>24</v>
       </c>
       <c r="F2814" s="2"/>
       <c r="G2814" s="2">
-        <f t="shared" si="5"/>
-        <v>737999.99999999977</v>
+        <f t="shared" si="7"/>
+        <v>1002085.7142857141</v>
       </c>
     </row>
     <row r="2815" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2815" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>44100</v>
       </c>
       <c r="D2815">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>25</v>
       </c>
       <c r="F2815" s="2"/>
       <c r="G2815" s="2">
-        <f t="shared" si="5"/>
-        <v>684999.99999999977</v>
+        <f t="shared" si="7"/>
+        <v>966571.42857142841</v>
       </c>
     </row>
     <row r="2816" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2816" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>44107</v>
       </c>
       <c r="D2816">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>26</v>
       </c>
       <c r="G2816" s="2">
-        <f t="shared" si="5"/>
-        <v>631999.99999999977</v>
+        <f t="shared" si="7"/>
+        <v>931057.14285714272</v>
       </c>
     </row>
     <row r="2817" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2817" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>44114</v>
       </c>
       <c r="D2817">
+        <f t="shared" si="8"/>
+        <v>27</v>
+      </c>
+      <c r="G2817" s="2">
+        <f t="shared" si="7"/>
+        <v>895542.85714285704</v>
+      </c>
+    </row>
+    <row r="2818" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2818" s="1">
         <f t="shared" si="6"/>
-        <v>27</v>
-      </c>
-      <c r="G2817" s="2">
-        <f t="shared" si="5"/>
-        <v>578999.99999999953</v>
+        <v>44121</v>
+      </c>
+      <c r="D2818">
+        <f t="shared" si="8"/>
+        <v>28</v>
+      </c>
+      <c r="G2818" s="2">
+        <f t="shared" ref="G2818:G2824" si="16">$L$2794+D2818*$K$2794</f>
+        <v>860028.57142857125</v>
+      </c>
+    </row>
+    <row r="2819" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2819" s="1">
+        <f t="shared" si="6"/>
+        <v>44128</v>
+      </c>
+      <c r="D2819">
+        <f t="shared" si="8"/>
+        <v>29</v>
+      </c>
+      <c r="G2819" s="2">
+        <f t="shared" si="16"/>
+        <v>824514.28571428556</v>
+      </c>
+    </row>
+    <row r="2820" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2820" s="1">
+        <f t="shared" si="6"/>
+        <v>44135</v>
+      </c>
+      <c r="D2820">
+        <f t="shared" si="8"/>
+        <v>30</v>
+      </c>
+      <c r="G2820" s="2">
+        <f t="shared" si="16"/>
+        <v>788999.99999999977</v>
+      </c>
+    </row>
+    <row r="2821" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2821" s="1">
+        <f t="shared" si="6"/>
+        <v>44142</v>
+      </c>
+      <c r="D2821">
+        <f t="shared" si="8"/>
+        <v>31</v>
+      </c>
+      <c r="G2821" s="2">
+        <f t="shared" si="16"/>
+        <v>753485.71428571409</v>
+      </c>
+    </row>
+    <row r="2822" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2822" s="1">
+        <f t="shared" si="6"/>
+        <v>44149</v>
+      </c>
+      <c r="D2822">
+        <f t="shared" si="8"/>
+        <v>32</v>
+      </c>
+      <c r="G2822" s="2">
+        <f t="shared" si="16"/>
+        <v>717971.42857142841</v>
+      </c>
+    </row>
+    <row r="2823" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2823" s="1">
+        <f t="shared" si="6"/>
+        <v>44156</v>
+      </c>
+      <c r="D2823">
+        <f t="shared" si="8"/>
+        <v>33</v>
+      </c>
+      <c r="G2823" s="2">
+        <f t="shared" si="16"/>
+        <v>682457.14285714272</v>
+      </c>
+    </row>
+    <row r="2824" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2824" s="1">
+        <f t="shared" si="6"/>
+        <v>44163</v>
+      </c>
+      <c r="D2824">
+        <f t="shared" si="8"/>
+        <v>34</v>
+      </c>
+      <c r="G2824" s="2">
+        <f t="shared" si="16"/>
+        <v>646942.85714285704</v>
       </c>
     </row>
   </sheetData>

--- a/ICSA.xlsx
+++ b/ICSA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rainy\Documents\GitHub\Economics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F6D166E-BA3A-48DF-80C0-14B1387DF45C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF445CA3-6E3C-4961-9E9B-2DA0FE170218}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -456,13 +456,45 @@
               </c:ext>
             </c:extLst>
           </c:dPt>
+          <c:dPt>
+            <c:idx val="16"/>
+            <c:marker>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="FFFF00"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-DB56-479E-B280-6E91F9186CE7}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:dLbls>
             <c:dLbl>
               <c:idx val="14"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000E-B570-48EF-B292-39A76C873821}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="16"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-2.5635798070653873E-2"/>
-                  <c:y val="-8.6530281705220827E-2"/>
+                  <c:x val="-7.8879366430991277E-3"/>
+                  <c:y val="-0.1648195842004207"/>
                 </c:manualLayout>
               </c:layout>
               <c:showLegendKey val="0"/>
@@ -474,7 +506,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000E-B570-48EF-B292-39A76C873821}"/>
+                  <c16:uniqueId val="{0000000F-DB56-479E-B280-6E91F9186CE7}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -645,10 +677,13 @@
                   <c:v>1310000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1307000</c:v>
+                  <c:v>1308000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1416000</c:v>
+                  <c:v>1422000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1434000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1111,10 +1146,13 @@
                   <c:v>1395081</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1512763</c:v>
+                  <c:v>1512816</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1370947</c:v>
+                  <c:v>1376925</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1205871</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1130,7 +1168,7 @@
           <c:idx val="3"/>
           <c:order val="4"/>
           <c:tx>
-            <c:v>2008 ICSA Data From Peak</c:v>
+            <c:v>2009 After Peak</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050">
@@ -1157,8 +1195,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-7.8879378678934995E-3"/>
-                  <c:y val="-9.0650771310231332E-2"/>
+                  <c:x val="-2.1691825768522618E-2"/>
+                  <c:y val="-7.0048323285178682E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -1349,7 +1387,7 @@
         <c:axId val="319767456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="44050"/>
+          <c:max val="44080"/>
           <c:min val="43920"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -2056,8 +2094,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L2824"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E2772" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="K2794" sqref="K2794"/>
+    <sheetView tabSelected="1" topLeftCell="A2766" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D2780" sqref="D2780"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -27105,7 +27143,7 @@
       </c>
       <c r="G2787">
         <f>LINEST(E2795:E2805,D2795:D2805,TRUE)</f>
-        <v>-131018.18181818182</v>
+        <v>-130709.09090909091</v>
       </c>
     </row>
     <row r="2788" spans="1:12" x14ac:dyDescent="0.2">
@@ -27158,7 +27196,7 @@
         <v>0</v>
       </c>
       <c r="E2790" s="2">
-        <f t="shared" ref="E2790:E2805" si="0">B2790</f>
+        <f t="shared" ref="E2790:E2806" si="0">B2790</f>
         <v>6615000</v>
       </c>
       <c r="F2790" s="2">
@@ -27323,10 +27361,10 @@
       </c>
       <c r="K2794">
         <f t="array" ref="K2794:L2795">LINEST(B2800:B2805,D2800:D2805)</f>
-        <v>-35514.285714285717</v>
+        <v>-34571.42857142858</v>
       </c>
       <c r="L2794">
-        <v>1854428.5714285714</v>
+        <v>1843809.523809524</v>
       </c>
     </row>
     <row r="2795" spans="1:12" x14ac:dyDescent="0.2">
@@ -27366,10 +27404,10 @@
         <v>602000</v>
       </c>
       <c r="K2795">
-        <v>-35514.285714285717</v>
+        <v>-34571.42857142858</v>
       </c>
       <c r="L2795">
-        <v>1854428.5714285714</v>
+        <v>1843809.523809524</v>
       </c>
     </row>
     <row r="2796" spans="1:12" x14ac:dyDescent="0.2">
@@ -27434,7 +27472,7 @@
       </c>
       <c r="G2797" s="2">
         <f>$L$2794+D2797*$K$2794</f>
-        <v>1605828.5714285714</v>
+        <v>1601809.523809524</v>
       </c>
       <c r="H2797">
         <f t="shared" si="5"/>
@@ -27474,7 +27512,7 @@
       </c>
       <c r="G2798" s="2">
         <f t="shared" ref="G2798:G2817" si="7">$L$2794+D2798*$K$2794</f>
-        <v>1570314.2857142857</v>
+        <v>1567238.0952380954</v>
       </c>
       <c r="H2798">
         <f t="shared" si="5"/>
@@ -27514,7 +27552,7 @@
       </c>
       <c r="G2799" s="2">
         <f t="shared" si="7"/>
-        <v>1534800</v>
+        <v>1532666.6666666667</v>
       </c>
       <c r="H2799">
         <f t="shared" si="5"/>
@@ -27554,7 +27592,7 @@
       </c>
       <c r="G2800" s="2">
         <f t="shared" si="7"/>
-        <v>1499285.7142857141</v>
+        <v>1498095.2380952383</v>
       </c>
       <c r="H2800">
         <f t="shared" si="5"/>
@@ -27594,7 +27632,7 @@
       </c>
       <c r="G2801" s="2">
         <f t="shared" si="7"/>
-        <v>1463771.4285714284</v>
+        <v>1463523.8095238097</v>
       </c>
       <c r="H2801">
         <f t="shared" si="5"/>
@@ -27634,7 +27672,7 @@
       </c>
       <c r="G2802" s="2">
         <f t="shared" si="7"/>
-        <v>1428257.1428571427</v>
+        <v>1428952.3809523811</v>
       </c>
       <c r="H2802">
         <f t="shared" si="5"/>
@@ -27674,7 +27712,7 @@
       </c>
       <c r="G2803" s="2">
         <f t="shared" si="7"/>
-        <v>1392742.857142857</v>
+        <v>1394380.9523809524</v>
       </c>
       <c r="H2803">
         <f t="shared" si="5"/>
@@ -27695,10 +27733,10 @@
         <v>44023</v>
       </c>
       <c r="B2804">
-        <v>1307000</v>
+        <v>1308000</v>
       </c>
       <c r="C2804">
-        <v>1512763</v>
+        <v>1512816</v>
       </c>
       <c r="D2804">
         <f t="shared" si="8"/>
@@ -27706,7 +27744,7 @@
       </c>
       <c r="E2804" s="2">
         <f t="shared" si="0"/>
-        <v>1307000</v>
+        <v>1308000</v>
       </c>
       <c r="F2804" s="2">
         <f t="shared" si="3"/>
@@ -27714,7 +27752,7 @@
       </c>
       <c r="G2804" s="2">
         <f t="shared" si="7"/>
-        <v>1357228.5714285714</v>
+        <v>1359809.5238095238</v>
       </c>
       <c r="H2804">
         <f t="shared" si="5"/>
@@ -27735,10 +27773,10 @@
         <v>44030</v>
       </c>
       <c r="B2805">
-        <v>1416000</v>
+        <v>1422000</v>
       </c>
       <c r="C2805">
-        <v>1370947</v>
+        <v>1376925</v>
       </c>
       <c r="D2805">
         <f t="shared" si="8"/>
@@ -27746,7 +27784,7 @@
       </c>
       <c r="E2805" s="2">
         <f t="shared" si="0"/>
-        <v>1416000</v>
+        <v>1422000</v>
       </c>
       <c r="F2805" s="2">
         <f t="shared" si="3"/>
@@ -27754,7 +27792,7 @@
       </c>
       <c r="G2805" s="2">
         <f t="shared" si="7"/>
-        <v>1321714.2857142854</v>
+        <v>1325238.0952380954</v>
       </c>
       <c r="H2805">
         <f t="shared" si="5"/>
@@ -27774,17 +27812,27 @@
         <f t="shared" si="6"/>
         <v>44037</v>
       </c>
+      <c r="B2806">
+        <v>1434000</v>
+      </c>
+      <c r="C2806">
+        <v>1205871</v>
+      </c>
       <c r="D2806">
         <f t="shared" si="8"/>
         <v>16</v>
       </c>
+      <c r="E2806" s="2">
+        <f t="shared" si="0"/>
+        <v>1434000</v>
+      </c>
       <c r="F2806" s="2">
         <f t="shared" si="3"/>
         <v>413437.5</v>
       </c>
       <c r="G2806" s="2">
         <f t="shared" si="7"/>
-        <v>1286200</v>
+        <v>1290666.6666666667</v>
       </c>
       <c r="H2806">
         <f t="shared" si="5"/>
@@ -27814,7 +27862,7 @@
       </c>
       <c r="G2807" s="2">
         <f t="shared" si="7"/>
-        <v>1250685.7142857141</v>
+        <v>1256095.2380952381</v>
       </c>
       <c r="H2807">
         <f t="shared" si="5"/>
@@ -27844,7 +27892,7 @@
       </c>
       <c r="G2808" s="2">
         <f t="shared" si="7"/>
-        <v>1215171.4285714284</v>
+        <v>1221523.8095238097</v>
       </c>
       <c r="H2808">
         <f t="shared" si="5"/>
@@ -27874,7 +27922,7 @@
       </c>
       <c r="G2809" s="2">
         <f t="shared" si="7"/>
-        <v>1179657.1428571427</v>
+        <v>1186952.3809523811</v>
       </c>
       <c r="H2809">
         <f t="shared" si="5"/>
@@ -27901,7 +27949,7 @@
       <c r="F2810" s="2"/>
       <c r="G2810" s="2">
         <f t="shared" si="7"/>
-        <v>1144142.857142857</v>
+        <v>1152380.9523809524</v>
       </c>
     </row>
     <row r="2811" spans="1:10" x14ac:dyDescent="0.2">
@@ -27916,7 +27964,7 @@
       <c r="F2811" s="2"/>
       <c r="G2811" s="2">
         <f t="shared" si="7"/>
-        <v>1108628.5714285714</v>
+        <v>1117809.5238095238</v>
       </c>
     </row>
     <row r="2812" spans="1:10" x14ac:dyDescent="0.2">
@@ -27931,7 +27979,7 @@
       <c r="F2812" s="2"/>
       <c r="G2812" s="2">
         <f t="shared" si="7"/>
-        <v>1073114.2857142854</v>
+        <v>1083238.0952380951</v>
       </c>
     </row>
     <row r="2813" spans="1:10" x14ac:dyDescent="0.2">
@@ -27946,7 +27994,7 @@
       <c r="F2813" s="2"/>
       <c r="G2813" s="2">
         <f t="shared" si="7"/>
-        <v>1037599.9999999999</v>
+        <v>1048666.6666666667</v>
       </c>
     </row>
     <row r="2814" spans="1:10" x14ac:dyDescent="0.2">
@@ -27961,7 +28009,7 @@
       <c r="F2814" s="2"/>
       <c r="G2814" s="2">
         <f t="shared" si="7"/>
-        <v>1002085.7142857141</v>
+        <v>1014095.2380952381</v>
       </c>
     </row>
     <row r="2815" spans="1:10" x14ac:dyDescent="0.2">
@@ -27976,7 +28024,7 @@
       <c r="F2815" s="2"/>
       <c r="G2815" s="2">
         <f t="shared" si="7"/>
-        <v>966571.42857142841</v>
+        <v>979523.80952380947</v>
       </c>
     </row>
     <row r="2816" spans="1:10" x14ac:dyDescent="0.2">
@@ -27990,7 +28038,7 @@
       </c>
       <c r="G2816" s="2">
         <f t="shared" si="7"/>
-        <v>931057.14285714272</v>
+        <v>944952.38095238095</v>
       </c>
     </row>
     <row r="2817" spans="1:7" x14ac:dyDescent="0.2">
@@ -28004,7 +28052,7 @@
       </c>
       <c r="G2817" s="2">
         <f t="shared" si="7"/>
-        <v>895542.85714285704</v>
+        <v>910380.95238095243</v>
       </c>
     </row>
     <row r="2818" spans="1:7" x14ac:dyDescent="0.2">
@@ -28018,7 +28066,7 @@
       </c>
       <c r="G2818" s="2">
         <f t="shared" ref="G2818:G2824" si="16">$L$2794+D2818*$K$2794</f>
-        <v>860028.57142857125</v>
+        <v>875809.52380952379</v>
       </c>
     </row>
     <row r="2819" spans="1:7" x14ac:dyDescent="0.2">
@@ -28032,7 +28080,7 @@
       </c>
       <c r="G2819" s="2">
         <f t="shared" si="16"/>
-        <v>824514.28571428556</v>
+        <v>841238.09523809515</v>
       </c>
     </row>
     <row r="2820" spans="1:7" x14ac:dyDescent="0.2">
@@ -28046,7 +28094,7 @@
       </c>
       <c r="G2820" s="2">
         <f t="shared" si="16"/>
-        <v>788999.99999999977</v>
+        <v>806666.66666666663</v>
       </c>
     </row>
     <row r="2821" spans="1:7" x14ac:dyDescent="0.2">
@@ -28060,7 +28108,7 @@
       </c>
       <c r="G2821" s="2">
         <f t="shared" si="16"/>
-        <v>753485.71428571409</v>
+        <v>772095.23809523811</v>
       </c>
     </row>
     <row r="2822" spans="1:7" x14ac:dyDescent="0.2">
@@ -28074,7 +28122,7 @@
       </c>
       <c r="G2822" s="2">
         <f t="shared" si="16"/>
-        <v>717971.42857142841</v>
+        <v>737523.80952380947</v>
       </c>
     </row>
     <row r="2823" spans="1:7" x14ac:dyDescent="0.2">
@@ -28088,7 +28136,7 @@
       </c>
       <c r="G2823" s="2">
         <f t="shared" si="16"/>
-        <v>682457.14285714272</v>
+        <v>702952.38095238083</v>
       </c>
     </row>
     <row r="2824" spans="1:7" x14ac:dyDescent="0.2">
@@ -28102,7 +28150,7 @@
       </c>
       <c r="G2824" s="2">
         <f t="shared" si="16"/>
-        <v>646942.85714285704</v>
+        <v>668380.95238095219</v>
       </c>
     </row>
   </sheetData>

--- a/ICSA.xlsx
+++ b/ICSA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rainy\Documents\GitHub\Economics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF445CA3-6E3C-4961-9E9B-2DA0FE170218}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C99F264-572C-42F9-AAC9-163687C39165}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,6 @@
     <sheet name="FRED Graph" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -478,23 +470,35 @@
               </c:ext>
             </c:extLst>
           </c:dPt>
+          <c:dPt>
+            <c:idx val="17"/>
+            <c:marker>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="FFFF00"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000010-97BA-4B6F-856E-560FC725EC0D}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:dLbls>
             <c:dLbl>
-              <c:idx val="14"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000E-B570-48EF-B292-39A76C873821}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="16"/>
+              <c:idx val="17"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-7.8879366430991277E-3"/>
-                  <c:y val="-0.1648195842004207"/>
+                  <c:x val="-1.3803889125423545E-2"/>
+                  <c:y val="-0.11949419854530502"/>
                 </c:manualLayout>
               </c:layout>
               <c:showLegendKey val="0"/>
@@ -506,7 +510,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000F-DB56-479E-B280-6E91F9186CE7}"/>
+                  <c16:uniqueId val="{00000010-97BA-4B6F-856E-560FC725EC0D}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -531,10 +535,10 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>'FRED Graph'!$A$2790:$A$2819</c:f>
+              <c:f>'FRED Graph'!$A$2790:$A$2820</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43925</c:v>
                 </c:pt>
@@ -625,15 +629,18 @@
                 <c:pt idx="29">
                   <c:v>44128</c:v>
                 </c:pt>
+                <c:pt idx="30">
+                  <c:v>44135</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'FRED Graph'!$E$2790:$E$2819</c:f>
+              <c:f>'FRED Graph'!$E$2790:$E$2820</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>6615000</c:v>
                 </c:pt>
@@ -683,7 +690,10 @@
                   <c:v>1422000</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1434000</c:v>
+                  <c:v>1435000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1186000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1152,7 +1162,10 @@
                   <c:v>1376925</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1205871</c:v>
+                  <c:v>1207044</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>984192</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2094,8 +2107,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L2824"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2766" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D2780" sqref="D2780"/>
+    <sheetView tabSelected="1" topLeftCell="A2763" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G2765" sqref="G2765"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -27196,7 +27209,7 @@
         <v>0</v>
       </c>
       <c r="E2790" s="2">
-        <f t="shared" ref="E2790:E2806" si="0">B2790</f>
+        <f t="shared" ref="E2790:E2807" si="0">B2790</f>
         <v>6615000</v>
       </c>
       <c r="F2790" s="2">
@@ -27813,10 +27826,10 @@
         <v>44037</v>
       </c>
       <c r="B2806">
-        <v>1434000</v>
+        <v>1435000</v>
       </c>
       <c r="C2806">
-        <v>1205871</v>
+        <v>1207044</v>
       </c>
       <c r="D2806">
         <f t="shared" si="8"/>
@@ -27824,7 +27837,7 @@
       </c>
       <c r="E2806" s="2">
         <f t="shared" si="0"/>
-        <v>1434000</v>
+        <v>1435000</v>
       </c>
       <c r="F2806" s="2">
         <f t="shared" si="3"/>
@@ -27852,9 +27865,19 @@
         <f t="shared" si="6"/>
         <v>44044</v>
       </c>
+      <c r="B2807">
+        <v>1186000</v>
+      </c>
+      <c r="C2807">
+        <v>984192</v>
+      </c>
       <c r="D2807">
         <f t="shared" si="8"/>
         <v>17</v>
+      </c>
+      <c r="E2807" s="2">
+        <f t="shared" si="0"/>
+        <v>1186000</v>
       </c>
       <c r="F2807" s="2">
         <f t="shared" si="3"/>

--- a/ICSA.xlsx
+++ b/ICSA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rainy\Documents\GitHub\Economics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C99F264-572C-42F9-AAC9-163687C39165}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0ED8806-169E-418F-B667-A70AAAEE2BA2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -492,13 +492,35 @@
               </c:ext>
             </c:extLst>
           </c:dPt>
+          <c:dPt>
+            <c:idx val="18"/>
+            <c:marker>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="FFFF00"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000011-E24E-4EE8-BD0E-05E3087D45DD}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:dLbls>
             <c:dLbl>
-              <c:idx val="17"/>
+              <c:idx val="18"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-1.3803889125423545E-2"/>
-                  <c:y val="-0.11949419854530502"/>
+                  <c:x val="9.8369864182974772E-3"/>
+                  <c:y val="-6.6311439245407069E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:showLegendKey val="0"/>
@@ -510,7 +532,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000010-97BA-4B6F-856E-560FC725EC0D}"/>
+                  <c16:uniqueId val="{00000011-E24E-4EE8-BD0E-05E3087D45DD}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -693,7 +715,10 @@
                   <c:v>1435000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1186000</c:v>
+                  <c:v>1191000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>963000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1162,10 +1187,13 @@
                   <c:v>1376925</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1207044</c:v>
+                  <c:v>1207045</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>984192</c:v>
+                  <c:v>988309</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>831856</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2107,8 +2135,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L2824"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2763" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G2765" sqref="G2765"/>
+    <sheetView tabSelected="1" topLeftCell="A2769" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="G2818" sqref="G2818"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -27154,10 +27182,6 @@
       <c r="F2787">
         <v>4</v>
       </c>
-      <c r="G2787">
-        <f>LINEST(E2795:E2805,D2795:D2805,TRUE)</f>
-        <v>-130709.09090909091</v>
-      </c>
     </row>
     <row r="2788" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2788" s="1">
@@ -27209,7 +27233,7 @@
         <v>0</v>
       </c>
       <c r="E2790" s="2">
-        <f t="shared" ref="E2790:E2807" si="0">B2790</f>
+        <f t="shared" ref="E2790:E2808" si="0">B2790</f>
         <v>6615000</v>
       </c>
       <c r="F2790" s="2">
@@ -27373,11 +27397,11 @@
         <v>620000</v>
       </c>
       <c r="K2794">
-        <f t="array" ref="K2794:L2795">LINEST(B2800:B2805,D2800:D2805)</f>
-        <v>-34571.42857142858</v>
+        <f t="array" ref="K2794:L2795">LINEST(B2800:B2808,D2800:D2808)</f>
+        <v>-50249.999999999985</v>
       </c>
       <c r="L2794">
-        <v>1843809.523809524</v>
+        <v>2043388.8888888888</v>
       </c>
     </row>
     <row r="2795" spans="1:12" x14ac:dyDescent="0.2">
@@ -27417,10 +27441,10 @@
         <v>602000</v>
       </c>
       <c r="K2795">
-        <v>-34571.42857142858</v>
+        <v>-50249.999999999985</v>
       </c>
       <c r="L2795">
-        <v>1843809.523809524</v>
+        <v>2043388.8888888888</v>
       </c>
     </row>
     <row r="2796" spans="1:12" x14ac:dyDescent="0.2">
@@ -27485,7 +27509,7 @@
       </c>
       <c r="G2797" s="2">
         <f>$L$2794+D2797*$K$2794</f>
-        <v>1601809.523809524</v>
+        <v>1691638.888888889</v>
       </c>
       <c r="H2797">
         <f t="shared" si="5"/>
@@ -27525,7 +27549,7 @@
       </c>
       <c r="G2798" s="2">
         <f t="shared" ref="G2798:G2817" si="7">$L$2794+D2798*$K$2794</f>
-        <v>1567238.0952380954</v>
+        <v>1641388.888888889</v>
       </c>
       <c r="H2798">
         <f t="shared" si="5"/>
@@ -27565,7 +27589,7 @@
       </c>
       <c r="G2799" s="2">
         <f t="shared" si="7"/>
-        <v>1532666.6666666667</v>
+        <v>1591138.888888889</v>
       </c>
       <c r="H2799">
         <f t="shared" si="5"/>
@@ -27605,7 +27629,7 @@
       </c>
       <c r="G2800" s="2">
         <f t="shared" si="7"/>
-        <v>1498095.2380952383</v>
+        <v>1540888.888888889</v>
       </c>
       <c r="H2800">
         <f t="shared" si="5"/>
@@ -27645,7 +27669,7 @@
       </c>
       <c r="G2801" s="2">
         <f t="shared" si="7"/>
-        <v>1463523.8095238097</v>
+        <v>1490638.888888889</v>
       </c>
       <c r="H2801">
         <f t="shared" si="5"/>
@@ -27685,7 +27709,7 @@
       </c>
       <c r="G2802" s="2">
         <f t="shared" si="7"/>
-        <v>1428952.3809523811</v>
+        <v>1440388.888888889</v>
       </c>
       <c r="H2802">
         <f t="shared" si="5"/>
@@ -27725,7 +27749,7 @@
       </c>
       <c r="G2803" s="2">
         <f t="shared" si="7"/>
-        <v>1394380.9523809524</v>
+        <v>1390138.888888889</v>
       </c>
       <c r="H2803">
         <f t="shared" si="5"/>
@@ -27765,7 +27789,7 @@
       </c>
       <c r="G2804" s="2">
         <f t="shared" si="7"/>
-        <v>1359809.5238095238</v>
+        <v>1339888.888888889</v>
       </c>
       <c r="H2804">
         <f t="shared" si="5"/>
@@ -27805,7 +27829,7 @@
       </c>
       <c r="G2805" s="2">
         <f t="shared" si="7"/>
-        <v>1325238.0952380954</v>
+        <v>1289638.888888889</v>
       </c>
       <c r="H2805">
         <f t="shared" si="5"/>
@@ -27829,7 +27853,7 @@
         <v>1435000</v>
       </c>
       <c r="C2806">
-        <v>1207044</v>
+        <v>1207045</v>
       </c>
       <c r="D2806">
         <f t="shared" si="8"/>
@@ -27845,7 +27869,7 @@
       </c>
       <c r="G2806" s="2">
         <f t="shared" si="7"/>
-        <v>1290666.6666666667</v>
+        <v>1239388.888888889</v>
       </c>
       <c r="H2806">
         <f t="shared" si="5"/>
@@ -27866,10 +27890,10 @@
         <v>44044</v>
       </c>
       <c r="B2807">
-        <v>1186000</v>
+        <v>1191000</v>
       </c>
       <c r="C2807">
-        <v>984192</v>
+        <v>988309</v>
       </c>
       <c r="D2807">
         <f t="shared" si="8"/>
@@ -27877,7 +27901,7 @@
       </c>
       <c r="E2807" s="2">
         <f t="shared" si="0"/>
-        <v>1186000</v>
+        <v>1191000</v>
       </c>
       <c r="F2807" s="2">
         <f t="shared" si="3"/>
@@ -27885,7 +27909,7 @@
       </c>
       <c r="G2807" s="2">
         <f t="shared" si="7"/>
-        <v>1256095.2380952381</v>
+        <v>1189138.888888889</v>
       </c>
       <c r="H2807">
         <f t="shared" si="5"/>
@@ -27905,17 +27929,27 @@
         <f t="shared" si="6"/>
         <v>44051</v>
       </c>
+      <c r="B2808">
+        <v>963000</v>
+      </c>
+      <c r="C2808">
+        <v>831856</v>
+      </c>
       <c r="D2808">
         <f t="shared" si="8"/>
         <v>18</v>
       </c>
+      <c r="E2808" s="2">
+        <f t="shared" si="0"/>
+        <v>963000</v>
+      </c>
       <c r="F2808" s="2">
         <f t="shared" si="3"/>
         <v>292344.45984681329</v>
       </c>
       <c r="G2808" s="2">
         <f t="shared" si="7"/>
-        <v>1221523.8095238097</v>
+        <v>1138888.888888889</v>
       </c>
       <c r="H2808">
         <f t="shared" si="5"/>
@@ -27945,7 +27979,7 @@
       </c>
       <c r="G2809" s="2">
         <f t="shared" si="7"/>
-        <v>1186952.3809523811</v>
+        <v>1088638.888888889</v>
       </c>
       <c r="H2809">
         <f t="shared" si="5"/>
@@ -27972,7 +28006,7 @@
       <c r="F2810" s="2"/>
       <c r="G2810" s="2">
         <f t="shared" si="7"/>
-        <v>1152380.9523809524</v>
+        <v>1038388.888888889</v>
       </c>
     </row>
     <row r="2811" spans="1:10" x14ac:dyDescent="0.2">
@@ -27987,7 +28021,7 @@
       <c r="F2811" s="2"/>
       <c r="G2811" s="2">
         <f t="shared" si="7"/>
-        <v>1117809.5238095238</v>
+        <v>988138.88888888899</v>
       </c>
     </row>
     <row r="2812" spans="1:10" x14ac:dyDescent="0.2">
@@ -28002,7 +28036,7 @@
       <c r="F2812" s="2"/>
       <c r="G2812" s="2">
         <f t="shared" si="7"/>
-        <v>1083238.0952380951</v>
+        <v>937888.88888888899</v>
       </c>
     </row>
     <row r="2813" spans="1:10" x14ac:dyDescent="0.2">
@@ -28017,7 +28051,7 @@
       <c r="F2813" s="2"/>
       <c r="G2813" s="2">
         <f t="shared" si="7"/>
-        <v>1048666.6666666667</v>
+        <v>887638.88888888899</v>
       </c>
     </row>
     <row r="2814" spans="1:10" x14ac:dyDescent="0.2">
@@ -28032,7 +28066,7 @@
       <c r="F2814" s="2"/>
       <c r="G2814" s="2">
         <f t="shared" si="7"/>
-        <v>1014095.2380952381</v>
+        <v>837388.88888888923</v>
       </c>
     </row>
     <row r="2815" spans="1:10" x14ac:dyDescent="0.2">
@@ -28047,7 +28081,7 @@
       <c r="F2815" s="2"/>
       <c r="G2815" s="2">
         <f t="shared" si="7"/>
-        <v>979523.80952380947</v>
+        <v>787138.88888888923</v>
       </c>
     </row>
     <row r="2816" spans="1:10" x14ac:dyDescent="0.2">
@@ -28061,7 +28095,7 @@
       </c>
       <c r="G2816" s="2">
         <f t="shared" si="7"/>
-        <v>944952.38095238095</v>
+        <v>736888.88888888923</v>
       </c>
     </row>
     <row r="2817" spans="1:7" x14ac:dyDescent="0.2">
@@ -28075,7 +28109,7 @@
       </c>
       <c r="G2817" s="2">
         <f t="shared" si="7"/>
-        <v>910380.95238095243</v>
+        <v>686638.88888888923</v>
       </c>
     </row>
     <row r="2818" spans="1:7" x14ac:dyDescent="0.2">
@@ -28089,7 +28123,7 @@
       </c>
       <c r="G2818" s="2">
         <f t="shared" ref="G2818:G2824" si="16">$L$2794+D2818*$K$2794</f>
-        <v>875809.52380952379</v>
+        <v>636388.88888888923</v>
       </c>
     </row>
     <row r="2819" spans="1:7" x14ac:dyDescent="0.2">
@@ -28103,7 +28137,7 @@
       </c>
       <c r="G2819" s="2">
         <f t="shared" si="16"/>
-        <v>841238.09523809515</v>
+        <v>586138.88888888923</v>
       </c>
     </row>
     <row r="2820" spans="1:7" x14ac:dyDescent="0.2">
@@ -28117,7 +28151,7 @@
       </c>
       <c r="G2820" s="2">
         <f t="shared" si="16"/>
-        <v>806666.66666666663</v>
+        <v>535888.88888888923</v>
       </c>
     </row>
     <row r="2821" spans="1:7" x14ac:dyDescent="0.2">
@@ -28131,7 +28165,7 @@
       </c>
       <c r="G2821" s="2">
         <f t="shared" si="16"/>
-        <v>772095.23809523811</v>
+        <v>485638.88888888923</v>
       </c>
     </row>
     <row r="2822" spans="1:7" x14ac:dyDescent="0.2">
@@ -28145,7 +28179,7 @@
       </c>
       <c r="G2822" s="2">
         <f t="shared" si="16"/>
-        <v>737523.80952380947</v>
+        <v>435388.88888888923</v>
       </c>
     </row>
     <row r="2823" spans="1:7" x14ac:dyDescent="0.2">
@@ -28159,7 +28193,7 @@
       </c>
       <c r="G2823" s="2">
         <f t="shared" si="16"/>
-        <v>702952.38095238083</v>
+        <v>385138.88888888923</v>
       </c>
     </row>
     <row r="2824" spans="1:7" x14ac:dyDescent="0.2">
@@ -28173,7 +28207,7 @@
       </c>
       <c r="G2824" s="2">
         <f t="shared" si="16"/>
-        <v>668380.95238095219</v>
+        <v>334888.88888888923</v>
       </c>
     </row>
   </sheetData>

--- a/ICSA.xlsx
+++ b/ICSA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rainy\Documents\GitHub\Economics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0ED8806-169E-418F-B667-A70AAAEE2BA2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F8DFCFA-13D9-4487-B241-928205C3EC24}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>FRED Graph Observations</t>
   </si>
@@ -69,6 +69,9 @@
   <si>
     <t>Estimate, linear</t>
   </si>
+  <si>
+    <t>ICNSA</t>
+  </si>
 </sst>
 </file>
 
@@ -109,11 +112,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -514,13 +520,45 @@
               </c:ext>
             </c:extLst>
           </c:dPt>
+          <c:dPt>
+            <c:idx val="19"/>
+            <c:marker>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="FFFF00"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000012-8F2D-476D-A204-FDD45BBF8E81}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:dLbls>
             <c:dLbl>
               <c:idx val="18"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000011-E24E-4EE8-BD0E-05E3087D45DD}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="19"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="9.8369864182974772E-3"/>
-                  <c:y val="-6.6311439245407069E-2"/>
+                  <c:x val="-5.9021918509785578E-3"/>
+                  <c:y val="-0.10361162382094867"/>
                 </c:manualLayout>
               </c:layout>
               <c:showLegendKey val="0"/>
@@ -532,7 +570,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000011-E24E-4EE8-BD0E-05E3087D45DD}"/>
+                  <c16:uniqueId val="{00000012-8F2D-476D-A204-FDD45BBF8E81}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -718,7 +756,10 @@
                   <c:v>1191000</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>963000</c:v>
+                  <c:v>971000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1106000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1193,7 +1234,10 @@
                   <c:v>988309</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>831856</c:v>
+                  <c:v>838734</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>891510</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2135,8 +2179,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L2824"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2769" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="G2818" sqref="G2818"/>
+    <sheetView tabSelected="1" topLeftCell="C2766" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="G2787" sqref="G2787"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -27199,7 +27243,9 @@
       <c r="B2789">
         <v>6867000</v>
       </c>
-      <c r="C2789" s="2"/>
+      <c r="C2789" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="D2789" s="3" t="s">
         <v>10</v>
       </c>
@@ -27233,7 +27279,7 @@
         <v>0</v>
       </c>
       <c r="E2790" s="2">
-        <f t="shared" ref="E2790:E2808" si="0">B2790</f>
+        <f t="shared" ref="E2790:E2809" si="0">B2790</f>
         <v>6615000</v>
       </c>
       <c r="F2790" s="2">
@@ -27398,10 +27444,10 @@
       </c>
       <c r="K2794">
         <f t="array" ref="K2794:L2795">LINEST(B2800:B2808,D2800:D2808)</f>
-        <v>-50249.999999999985</v>
+        <v>-49716.666666666657</v>
       </c>
       <c r="L2794">
-        <v>2043388.8888888888</v>
+        <v>2036811.111111111</v>
       </c>
     </row>
     <row r="2795" spans="1:12" x14ac:dyDescent="0.2">
@@ -27441,10 +27487,10 @@
         <v>602000</v>
       </c>
       <c r="K2795">
-        <v>-50249.999999999985</v>
+        <v>-49716.666666666657</v>
       </c>
       <c r="L2795">
-        <v>2043388.8888888888</v>
+        <v>2036811.111111111</v>
       </c>
     </row>
     <row r="2796" spans="1:12" x14ac:dyDescent="0.2">
@@ -27509,7 +27555,7 @@
       </c>
       <c r="G2797" s="2">
         <f>$L$2794+D2797*$K$2794</f>
-        <v>1691638.888888889</v>
+        <v>1688794.4444444445</v>
       </c>
       <c r="H2797">
         <f t="shared" si="5"/>
@@ -27549,7 +27595,7 @@
       </c>
       <c r="G2798" s="2">
         <f t="shared" ref="G2798:G2817" si="7">$L$2794+D2798*$K$2794</f>
-        <v>1641388.888888889</v>
+        <v>1639077.7777777778</v>
       </c>
       <c r="H2798">
         <f t="shared" si="5"/>
@@ -27589,7 +27635,7 @@
       </c>
       <c r="G2799" s="2">
         <f t="shared" si="7"/>
-        <v>1591138.888888889</v>
+        <v>1589361.111111111</v>
       </c>
       <c r="H2799">
         <f t="shared" si="5"/>
@@ -27629,7 +27675,7 @@
       </c>
       <c r="G2800" s="2">
         <f t="shared" si="7"/>
-        <v>1540888.888888889</v>
+        <v>1539644.4444444445</v>
       </c>
       <c r="H2800">
         <f t="shared" si="5"/>
@@ -27669,7 +27715,7 @@
       </c>
       <c r="G2801" s="2">
         <f t="shared" si="7"/>
-        <v>1490638.888888889</v>
+        <v>1489927.7777777778</v>
       </c>
       <c r="H2801">
         <f t="shared" si="5"/>
@@ -27709,7 +27755,7 @@
       </c>
       <c r="G2802" s="2">
         <f t="shared" si="7"/>
-        <v>1440388.888888889</v>
+        <v>1440211.111111111</v>
       </c>
       <c r="H2802">
         <f t="shared" si="5"/>
@@ -27749,7 +27795,7 @@
       </c>
       <c r="G2803" s="2">
         <f t="shared" si="7"/>
-        <v>1390138.888888889</v>
+        <v>1390494.4444444445</v>
       </c>
       <c r="H2803">
         <f t="shared" si="5"/>
@@ -27789,7 +27835,7 @@
       </c>
       <c r="G2804" s="2">
         <f t="shared" si="7"/>
-        <v>1339888.888888889</v>
+        <v>1340777.7777777778</v>
       </c>
       <c r="H2804">
         <f t="shared" si="5"/>
@@ -27829,7 +27875,7 @@
       </c>
       <c r="G2805" s="2">
         <f t="shared" si="7"/>
-        <v>1289638.888888889</v>
+        <v>1291061.111111111</v>
       </c>
       <c r="H2805">
         <f t="shared" si="5"/>
@@ -27869,7 +27915,7 @@
       </c>
       <c r="G2806" s="2">
         <f t="shared" si="7"/>
-        <v>1239388.888888889</v>
+        <v>1241344.4444444445</v>
       </c>
       <c r="H2806">
         <f t="shared" si="5"/>
@@ -27909,7 +27955,7 @@
       </c>
       <c r="G2807" s="2">
         <f t="shared" si="7"/>
-        <v>1189138.888888889</v>
+        <v>1191627.777777778</v>
       </c>
       <c r="H2807">
         <f t="shared" si="5"/>
@@ -27930,10 +27976,10 @@
         <v>44051</v>
       </c>
       <c r="B2808">
-        <v>963000</v>
+        <v>971000</v>
       </c>
       <c r="C2808">
-        <v>831856</v>
+        <v>838734</v>
       </c>
       <c r="D2808">
         <f t="shared" si="8"/>
@@ -27941,7 +27987,7 @@
       </c>
       <c r="E2808" s="2">
         <f t="shared" si="0"/>
-        <v>963000</v>
+        <v>971000</v>
       </c>
       <c r="F2808" s="2">
         <f t="shared" si="3"/>
@@ -27949,7 +27995,7 @@
       </c>
       <c r="G2808" s="2">
         <f t="shared" si="7"/>
-        <v>1138888.888888889</v>
+        <v>1141911.1111111112</v>
       </c>
       <c r="H2808">
         <f t="shared" si="5"/>
@@ -27969,17 +28015,27 @@
         <f t="shared" si="6"/>
         <v>44058</v>
       </c>
+      <c r="B2809">
+        <v>1106000</v>
+      </c>
+      <c r="C2809">
+        <v>891510</v>
+      </c>
       <c r="D2809">
         <f t="shared" si="8"/>
         <v>19</v>
       </c>
+      <c r="E2809" s="2">
+        <f t="shared" si="0"/>
+        <v>1106000</v>
+      </c>
       <c r="F2809" s="2">
         <f t="shared" si="3"/>
         <v>245831.40830446873</v>
       </c>
       <c r="G2809" s="2">
         <f t="shared" si="7"/>
-        <v>1088638.888888889</v>
+        <v>1092194.4444444445</v>
       </c>
       <c r="H2809">
         <f t="shared" si="5"/>
@@ -28006,7 +28062,7 @@
       <c r="F2810" s="2"/>
       <c r="G2810" s="2">
         <f t="shared" si="7"/>
-        <v>1038388.888888889</v>
+        <v>1042477.7777777779</v>
       </c>
     </row>
     <row r="2811" spans="1:10" x14ac:dyDescent="0.2">
@@ -28021,7 +28077,7 @@
       <c r="F2811" s="2"/>
       <c r="G2811" s="2">
         <f t="shared" si="7"/>
-        <v>988138.88888888899</v>
+        <v>992761.11111111124</v>
       </c>
     </row>
     <row r="2812" spans="1:10" x14ac:dyDescent="0.2">
@@ -28036,7 +28092,7 @@
       <c r="F2812" s="2"/>
       <c r="G2812" s="2">
         <f t="shared" si="7"/>
-        <v>937888.88888888899</v>
+        <v>943044.4444444445</v>
       </c>
     </row>
     <row r="2813" spans="1:10" x14ac:dyDescent="0.2">
@@ -28051,7 +28107,7 @@
       <c r="F2813" s="2"/>
       <c r="G2813" s="2">
         <f t="shared" si="7"/>
-        <v>887638.88888888899</v>
+        <v>893327.77777777798</v>
       </c>
     </row>
     <row r="2814" spans="1:10" x14ac:dyDescent="0.2">
@@ -28066,7 +28122,7 @@
       <c r="F2814" s="2"/>
       <c r="G2814" s="2">
         <f t="shared" si="7"/>
-        <v>837388.88888888923</v>
+        <v>843611.11111111124</v>
       </c>
     </row>
     <row r="2815" spans="1:10" x14ac:dyDescent="0.2">
@@ -28081,7 +28137,7 @@
       <c r="F2815" s="2"/>
       <c r="G2815" s="2">
         <f t="shared" si="7"/>
-        <v>787138.88888888923</v>
+        <v>793894.4444444445</v>
       </c>
     </row>
     <row r="2816" spans="1:10" x14ac:dyDescent="0.2">
@@ -28095,7 +28151,7 @@
       </c>
       <c r="G2816" s="2">
         <f t="shared" si="7"/>
-        <v>736888.88888888923</v>
+        <v>744177.77777777798</v>
       </c>
     </row>
     <row r="2817" spans="1:7" x14ac:dyDescent="0.2">
@@ -28109,7 +28165,7 @@
       </c>
       <c r="G2817" s="2">
         <f t="shared" si="7"/>
-        <v>686638.88888888923</v>
+        <v>694461.11111111124</v>
       </c>
     </row>
     <row r="2818" spans="1:7" x14ac:dyDescent="0.2">
@@ -28123,7 +28179,7 @@
       </c>
       <c r="G2818" s="2">
         <f t="shared" ref="G2818:G2824" si="16">$L$2794+D2818*$K$2794</f>
-        <v>636388.88888888923</v>
+        <v>644744.4444444445</v>
       </c>
     </row>
     <row r="2819" spans="1:7" x14ac:dyDescent="0.2">
@@ -28137,7 +28193,7 @@
       </c>
       <c r="G2819" s="2">
         <f t="shared" si="16"/>
-        <v>586138.88888888923</v>
+        <v>595027.77777777798</v>
       </c>
     </row>
     <row r="2820" spans="1:7" x14ac:dyDescent="0.2">
@@ -28151,7 +28207,7 @@
       </c>
       <c r="G2820" s="2">
         <f t="shared" si="16"/>
-        <v>535888.88888888923</v>
+        <v>545311.11111111124</v>
       </c>
     </row>
     <row r="2821" spans="1:7" x14ac:dyDescent="0.2">
@@ -28165,7 +28221,7 @@
       </c>
       <c r="G2821" s="2">
         <f t="shared" si="16"/>
-        <v>485638.88888888923</v>
+        <v>495594.44444444473</v>
       </c>
     </row>
     <row r="2822" spans="1:7" x14ac:dyDescent="0.2">
@@ -28179,7 +28235,7 @@
       </c>
       <c r="G2822" s="2">
         <f t="shared" si="16"/>
-        <v>435388.88888888923</v>
+        <v>445877.77777777798</v>
       </c>
     </row>
     <row r="2823" spans="1:7" x14ac:dyDescent="0.2">
@@ -28193,7 +28249,7 @@
       </c>
       <c r="G2823" s="2">
         <f t="shared" si="16"/>
-        <v>385138.88888888923</v>
+        <v>396161.11111111124</v>
       </c>
     </row>
     <row r="2824" spans="1:7" x14ac:dyDescent="0.2">
@@ -28207,7 +28263,7 @@
       </c>
       <c r="G2824" s="2">
         <f t="shared" si="16"/>
-        <v>334888.88888888923</v>
+        <v>346444.44444444473</v>
       </c>
     </row>
   </sheetData>

--- a/ICSA.xlsx
+++ b/ICSA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rainy\Documents\GitHub\Economics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F8DFCFA-13D9-4487-B241-928205C3EC24}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E526F44B-2DCF-46E4-8E30-396A48D0C309}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -112,7 +112,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -122,6 +122,7 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -542,23 +543,45 @@
               </c:ext>
             </c:extLst>
           </c:dPt>
+          <c:dPt>
+            <c:idx val="20"/>
+            <c:marker>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="FFFF00"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000013-4987-4962-8598-9154E7189D26}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:dLbls>
             <c:dLbl>
-              <c:idx val="18"/>
+              <c:idx val="19"/>
               <c:delete val="1"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000011-E24E-4EE8-BD0E-05E3087D45DD}"/>
+                  <c16:uniqueId val="{00000012-8F2D-476D-A204-FDD45BBF8E81}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="19"/>
+              <c:idx val="20"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-5.9021918509785578E-3"/>
-                  <c:y val="-0.10361162382094867"/>
+                  <c:x val="-5.3119726658806446E-2"/>
+                  <c:y val="-0.11604501867946251"/>
                 </c:manualLayout>
               </c:layout>
               <c:showLegendKey val="0"/>
@@ -570,7 +593,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000012-8F2D-476D-A204-FDD45BBF8E81}"/>
+                  <c16:uniqueId val="{00000013-4987-4962-8598-9154E7189D26}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -759,7 +782,10 @@
                   <c:v>971000</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1106000</c:v>
+                  <c:v>1104000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1006000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1237,7 +1263,10 @@
                   <c:v>838734</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>891510</c:v>
+                  <c:v>889549</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>821591</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2179,8 +2208,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L2824"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C2766" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="G2787" sqref="G2787"/>
+    <sheetView tabSelected="1" topLeftCell="A2791" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="H2787" sqref="H2787"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -27226,6 +27255,13 @@
       <c r="F2787">
         <v>4</v>
       </c>
+      <c r="G2787" s="5">
+        <v>44110</v>
+      </c>
+      <c r="H2787">
+        <f>10/6.6</f>
+        <v>1.5151515151515151</v>
+      </c>
     </row>
     <row r="2788" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2788" s="1">
@@ -27279,7 +27315,7 @@
         <v>0</v>
       </c>
       <c r="E2790" s="2">
-        <f t="shared" ref="E2790:E2809" si="0">B2790</f>
+        <f t="shared" ref="E2790:E2810" si="0">B2790</f>
         <v>6615000</v>
       </c>
       <c r="F2790" s="2">
@@ -27443,11 +27479,11 @@
         <v>620000</v>
       </c>
       <c r="K2794">
-        <f t="array" ref="K2794:L2795">LINEST(B2800:B2808,D2800:D2808)</f>
-        <v>-49716.666666666657</v>
+        <f t="array" ref="K2794:L2795">LINEST(B2800:B2810,D2800:D2810)</f>
+        <v>-50945.454545454551</v>
       </c>
       <c r="L2794">
-        <v>2036811.111111111</v>
+        <v>2053000</v>
       </c>
     </row>
     <row r="2795" spans="1:12" x14ac:dyDescent="0.2">
@@ -27487,10 +27523,10 @@
         <v>602000</v>
       </c>
       <c r="K2795">
-        <v>-49716.666666666657</v>
+        <v>-50945.454545454551</v>
       </c>
       <c r="L2795">
-        <v>2036811.111111111</v>
+        <v>2053000</v>
       </c>
     </row>
     <row r="2796" spans="1:12" x14ac:dyDescent="0.2">
@@ -27555,7 +27591,7 @@
       </c>
       <c r="G2797" s="2">
         <f>$L$2794+D2797*$K$2794</f>
-        <v>1688794.4444444445</v>
+        <v>1696381.8181818181</v>
       </c>
       <c r="H2797">
         <f t="shared" si="5"/>
@@ -27595,7 +27631,7 @@
       </c>
       <c r="G2798" s="2">
         <f t="shared" ref="G2798:G2817" si="7">$L$2794+D2798*$K$2794</f>
-        <v>1639077.7777777778</v>
+        <v>1645436.3636363635</v>
       </c>
       <c r="H2798">
         <f t="shared" si="5"/>
@@ -27635,7 +27671,7 @@
       </c>
       <c r="G2799" s="2">
         <f t="shared" si="7"/>
-        <v>1589361.111111111</v>
+        <v>1594490.9090909092</v>
       </c>
       <c r="H2799">
         <f t="shared" si="5"/>
@@ -27675,7 +27711,7 @@
       </c>
       <c r="G2800" s="2">
         <f t="shared" si="7"/>
-        <v>1539644.4444444445</v>
+        <v>1543545.4545454546</v>
       </c>
       <c r="H2800">
         <f t="shared" si="5"/>
@@ -27715,7 +27751,7 @@
       </c>
       <c r="G2801" s="2">
         <f t="shared" si="7"/>
-        <v>1489927.7777777778</v>
+        <v>1492600</v>
       </c>
       <c r="H2801">
         <f t="shared" si="5"/>
@@ -27755,7 +27791,7 @@
       </c>
       <c r="G2802" s="2">
         <f t="shared" si="7"/>
-        <v>1440211.111111111</v>
+        <v>1441654.5454545454</v>
       </c>
       <c r="H2802">
         <f t="shared" si="5"/>
@@ -27795,7 +27831,7 @@
       </c>
       <c r="G2803" s="2">
         <f t="shared" si="7"/>
-        <v>1390494.4444444445</v>
+        <v>1390709.0909090908</v>
       </c>
       <c r="H2803">
         <f t="shared" si="5"/>
@@ -27835,7 +27871,7 @@
       </c>
       <c r="G2804" s="2">
         <f t="shared" si="7"/>
-        <v>1340777.7777777778</v>
+        <v>1339763.6363636362</v>
       </c>
       <c r="H2804">
         <f t="shared" si="5"/>
@@ -27875,7 +27911,7 @@
       </c>
       <c r="G2805" s="2">
         <f t="shared" si="7"/>
-        <v>1291061.111111111</v>
+        <v>1288818.1818181816</v>
       </c>
       <c r="H2805">
         <f t="shared" si="5"/>
@@ -27915,7 +27951,7 @@
       </c>
       <c r="G2806" s="2">
         <f t="shared" si="7"/>
-        <v>1241344.4444444445</v>
+        <v>1237872.7272727271</v>
       </c>
       <c r="H2806">
         <f t="shared" si="5"/>
@@ -27955,7 +27991,7 @@
       </c>
       <c r="G2807" s="2">
         <f t="shared" si="7"/>
-        <v>1191627.777777778</v>
+        <v>1186927.2727272725</v>
       </c>
       <c r="H2807">
         <f t="shared" si="5"/>
@@ -27995,7 +28031,7 @@
       </c>
       <c r="G2808" s="2">
         <f t="shared" si="7"/>
-        <v>1141911.1111111112</v>
+        <v>1135981.8181818181</v>
       </c>
       <c r="H2808">
         <f t="shared" si="5"/>
@@ -28016,10 +28052,10 @@
         <v>44058</v>
       </c>
       <c r="B2809">
-        <v>1106000</v>
+        <v>1104000</v>
       </c>
       <c r="C2809">
-        <v>891510</v>
+        <v>889549</v>
       </c>
       <c r="D2809">
         <f t="shared" si="8"/>
@@ -28027,7 +28063,7 @@
       </c>
       <c r="E2809" s="2">
         <f t="shared" si="0"/>
-        <v>1106000</v>
+        <v>1104000</v>
       </c>
       <c r="F2809" s="2">
         <f t="shared" si="3"/>
@@ -28035,7 +28071,7 @@
       </c>
       <c r="G2809" s="2">
         <f t="shared" si="7"/>
-        <v>1092194.4444444445</v>
+        <v>1085036.3636363635</v>
       </c>
       <c r="H2809">
         <f t="shared" si="5"/>
@@ -28055,14 +28091,24 @@
         <f t="shared" si="6"/>
         <v>44065</v>
       </c>
+      <c r="B2810">
+        <v>1006000</v>
+      </c>
+      <c r="C2810">
+        <v>821591</v>
+      </c>
       <c r="D2810">
         <f t="shared" si="8"/>
         <v>20</v>
       </c>
+      <c r="E2810" s="2">
+        <f t="shared" si="0"/>
+        <v>1006000</v>
+      </c>
       <c r="F2810" s="2"/>
       <c r="G2810" s="2">
         <f t="shared" si="7"/>
-        <v>1042477.7777777779</v>
+        <v>1034090.9090909089</v>
       </c>
     </row>
     <row r="2811" spans="1:10" x14ac:dyDescent="0.2">
@@ -28077,7 +28123,7 @@
       <c r="F2811" s="2"/>
       <c r="G2811" s="2">
         <f t="shared" si="7"/>
-        <v>992761.11111111124</v>
+        <v>983145.45454545435</v>
       </c>
     </row>
     <row r="2812" spans="1:10" x14ac:dyDescent="0.2">
@@ -28092,7 +28138,7 @@
       <c r="F2812" s="2"/>
       <c r="G2812" s="2">
         <f t="shared" si="7"/>
-        <v>943044.4444444445</v>
+        <v>932199.99999999977</v>
       </c>
     </row>
     <row r="2813" spans="1:10" x14ac:dyDescent="0.2">
@@ -28107,7 +28153,7 @@
       <c r="F2813" s="2"/>
       <c r="G2813" s="2">
         <f t="shared" si="7"/>
-        <v>893327.77777777798</v>
+        <v>881254.54545454541</v>
       </c>
     </row>
     <row r="2814" spans="1:10" x14ac:dyDescent="0.2">
@@ -28122,7 +28168,7 @@
       <c r="F2814" s="2"/>
       <c r="G2814" s="2">
         <f t="shared" si="7"/>
-        <v>843611.11111111124</v>
+        <v>830309.09090909082</v>
       </c>
     </row>
     <row r="2815" spans="1:10" x14ac:dyDescent="0.2">
@@ -28137,7 +28183,7 @@
       <c r="F2815" s="2"/>
       <c r="G2815" s="2">
         <f t="shared" si="7"/>
-        <v>793894.4444444445</v>
+        <v>779363.63636363624</v>
       </c>
     </row>
     <row r="2816" spans="1:10" x14ac:dyDescent="0.2">
@@ -28151,7 +28197,7 @@
       </c>
       <c r="G2816" s="2">
         <f t="shared" si="7"/>
-        <v>744177.77777777798</v>
+        <v>728418.18181818165</v>
       </c>
     </row>
     <row r="2817" spans="1:7" x14ac:dyDescent="0.2">
@@ -28165,7 +28211,7 @@
       </c>
       <c r="G2817" s="2">
         <f t="shared" si="7"/>
-        <v>694461.11111111124</v>
+        <v>677472.72727272706</v>
       </c>
     </row>
     <row r="2818" spans="1:7" x14ac:dyDescent="0.2">
@@ -28179,7 +28225,7 @@
       </c>
       <c r="G2818" s="2">
         <f t="shared" ref="G2818:G2824" si="16">$L$2794+D2818*$K$2794</f>
-        <v>644744.4444444445</v>
+        <v>626527.27272727247</v>
       </c>
     </row>
     <row r="2819" spans="1:7" x14ac:dyDescent="0.2">
@@ -28193,7 +28239,7 @@
       </c>
       <c r="G2819" s="2">
         <f t="shared" si="16"/>
-        <v>595027.77777777798</v>
+        <v>575581.81818181812</v>
       </c>
     </row>
     <row r="2820" spans="1:7" x14ac:dyDescent="0.2">
@@ -28207,7 +28253,7 @@
       </c>
       <c r="G2820" s="2">
         <f t="shared" si="16"/>
-        <v>545311.11111111124</v>
+        <v>524636.36363636353</v>
       </c>
     </row>
     <row r="2821" spans="1:7" x14ac:dyDescent="0.2">
@@ -28221,7 +28267,7 @@
       </c>
       <c r="G2821" s="2">
         <f t="shared" si="16"/>
-        <v>495594.44444444473</v>
+        <v>473690.90909090894</v>
       </c>
     </row>
     <row r="2822" spans="1:7" x14ac:dyDescent="0.2">
@@ -28235,7 +28281,7 @@
       </c>
       <c r="G2822" s="2">
         <f t="shared" si="16"/>
-        <v>445877.77777777798</v>
+        <v>422745.45454545435</v>
       </c>
     </row>
     <row r="2823" spans="1:7" x14ac:dyDescent="0.2">
@@ -28249,7 +28295,7 @@
       </c>
       <c r="G2823" s="2">
         <f t="shared" si="16"/>
-        <v>396161.11111111124</v>
+        <v>371799.99999999977</v>
       </c>
     </row>
     <row r="2824" spans="1:7" x14ac:dyDescent="0.2">
@@ -28263,7 +28309,7 @@
       </c>
       <c r="G2824" s="2">
         <f t="shared" si="16"/>
-        <v>346444.44444444473</v>
+        <v>320854.54545454518</v>
       </c>
     </row>
   </sheetData>

--- a/ICSA.xlsx
+++ b/ICSA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rainy\Documents\GitHub\Economics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E526F44B-2DCF-46E4-8E30-396A48D0C309}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80EEFE15-10FC-49F5-83D2-1C99617B4797}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -565,23 +565,45 @@
               </c:ext>
             </c:extLst>
           </c:dPt>
+          <c:dPt>
+            <c:idx val="21"/>
+            <c:marker>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="FFFF00"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000014-675D-481F-8D94-9D15092DBBBF}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:dLbls>
             <c:dLbl>
-              <c:idx val="19"/>
+              <c:idx val="20"/>
               <c:delete val="1"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000012-8F2D-476D-A204-FDD45BBF8E81}"/>
+                  <c16:uniqueId val="{00000013-4987-4962-8598-9154E7189D26}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="20"/>
+              <c:idx val="21"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-5.3119726658806446E-2"/>
-                  <c:y val="-0.11604501867946251"/>
+                  <c:x val="-6.6927276957254811E-2"/>
+                  <c:y val="-0.24385617186861164"/>
                 </c:manualLayout>
               </c:layout>
               <c:showLegendKey val="0"/>
@@ -593,7 +615,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000013-4987-4962-8598-9154E7189D26}"/>
+                  <c16:uniqueId val="{00000014-675D-481F-8D94-9D15092DBBBF}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -785,7 +807,10 @@
                   <c:v>1104000</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1006000</c:v>
+                  <c:v>1011000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>881000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1263,10 +1288,13 @@
                   <c:v>838734</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>889549</c:v>
+                  <c:v>889738</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>821591</c:v>
+                  <c:v>825761</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>833352</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1501,7 +1529,7 @@
         <c:axId val="319767456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="44080"/>
+          <c:max val="44087"/>
           <c:min val="43920"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -2208,8 +2236,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L2824"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2791" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="H2787" sqref="H2787"/>
+    <sheetView tabSelected="1" topLeftCell="D2765" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="I2777" sqref="I2777"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -27315,7 +27343,7 @@
         <v>0</v>
       </c>
       <c r="E2790" s="2">
-        <f t="shared" ref="E2790:E2810" si="0">B2790</f>
+        <f t="shared" ref="E2790:E2811" si="0">B2790</f>
         <v>6615000</v>
       </c>
       <c r="F2790" s="2">
@@ -27480,10 +27508,10 @@
       </c>
       <c r="K2794">
         <f t="array" ref="K2794:L2795">LINEST(B2800:B2810,D2800:D2810)</f>
-        <v>-50945.454545454551</v>
+        <v>-50718.181818181816</v>
       </c>
       <c r="L2794">
-        <v>2053000</v>
+        <v>2050045.4545454546</v>
       </c>
     </row>
     <row r="2795" spans="1:12" x14ac:dyDescent="0.2">
@@ -27523,10 +27551,10 @@
         <v>602000</v>
       </c>
       <c r="K2795">
-        <v>-50945.454545454551</v>
+        <v>-50718.181818181816</v>
       </c>
       <c r="L2795">
-        <v>2053000</v>
+        <v>2050045.4545454546</v>
       </c>
     </row>
     <row r="2796" spans="1:12" x14ac:dyDescent="0.2">
@@ -27591,7 +27619,7 @@
       </c>
       <c r="G2797" s="2">
         <f>$L$2794+D2797*$K$2794</f>
-        <v>1696381.8181818181</v>
+        <v>1695018.1818181819</v>
       </c>
       <c r="H2797">
         <f t="shared" si="5"/>
@@ -27631,7 +27659,7 @@
       </c>
       <c r="G2798" s="2">
         <f t="shared" ref="G2798:G2817" si="7">$L$2794+D2798*$K$2794</f>
-        <v>1645436.3636363635</v>
+        <v>1644300</v>
       </c>
       <c r="H2798">
         <f t="shared" si="5"/>
@@ -27671,7 +27699,7 @@
       </c>
       <c r="G2799" s="2">
         <f t="shared" si="7"/>
-        <v>1594490.9090909092</v>
+        <v>1593581.8181818184</v>
       </c>
       <c r="H2799">
         <f t="shared" si="5"/>
@@ -27711,7 +27739,7 @@
       </c>
       <c r="G2800" s="2">
         <f t="shared" si="7"/>
-        <v>1543545.4545454546</v>
+        <v>1542863.6363636365</v>
       </c>
       <c r="H2800">
         <f t="shared" si="5"/>
@@ -27751,7 +27779,7 @@
       </c>
       <c r="G2801" s="2">
         <f t="shared" si="7"/>
-        <v>1492600</v>
+        <v>1492145.4545454546</v>
       </c>
       <c r="H2801">
         <f t="shared" si="5"/>
@@ -27791,7 +27819,7 @@
       </c>
       <c r="G2802" s="2">
         <f t="shared" si="7"/>
-        <v>1441654.5454545454</v>
+        <v>1441427.2727272729</v>
       </c>
       <c r="H2802">
         <f t="shared" si="5"/>
@@ -27871,7 +27899,7 @@
       </c>
       <c r="G2804" s="2">
         <f t="shared" si="7"/>
-        <v>1339763.6363636362</v>
+        <v>1339990.9090909092</v>
       </c>
       <c r="H2804">
         <f t="shared" si="5"/>
@@ -27911,7 +27939,7 @@
       </c>
       <c r="G2805" s="2">
         <f t="shared" si="7"/>
-        <v>1288818.1818181816</v>
+        <v>1289272.7272727273</v>
       </c>
       <c r="H2805">
         <f t="shared" si="5"/>
@@ -27951,7 +27979,7 @@
       </c>
       <c r="G2806" s="2">
         <f t="shared" si="7"/>
-        <v>1237872.7272727271</v>
+        <v>1238554.5454545454</v>
       </c>
       <c r="H2806">
         <f t="shared" si="5"/>
@@ -27991,7 +28019,7 @@
       </c>
       <c r="G2807" s="2">
         <f t="shared" si="7"/>
-        <v>1186927.2727272725</v>
+        <v>1187836.3636363638</v>
       </c>
       <c r="H2807">
         <f t="shared" si="5"/>
@@ -28031,7 +28059,7 @@
       </c>
       <c r="G2808" s="2">
         <f t="shared" si="7"/>
-        <v>1135981.8181818181</v>
+        <v>1137118.1818181819</v>
       </c>
       <c r="H2808">
         <f t="shared" si="5"/>
@@ -28055,7 +28083,7 @@
         <v>1104000</v>
       </c>
       <c r="C2809">
-        <v>889549</v>
+        <v>889738</v>
       </c>
       <c r="D2809">
         <f t="shared" si="8"/>
@@ -28071,7 +28099,7 @@
       </c>
       <c r="G2809" s="2">
         <f t="shared" si="7"/>
-        <v>1085036.3636363635</v>
+        <v>1086400</v>
       </c>
       <c r="H2809">
         <f t="shared" si="5"/>
@@ -28092,10 +28120,10 @@
         <v>44065</v>
       </c>
       <c r="B2810">
-        <v>1006000</v>
+        <v>1011000</v>
       </c>
       <c r="C2810">
-        <v>821591</v>
+        <v>825761</v>
       </c>
       <c r="D2810">
         <f t="shared" si="8"/>
@@ -28103,12 +28131,12 @@
       </c>
       <c r="E2810" s="2">
         <f t="shared" si="0"/>
-        <v>1006000</v>
+        <v>1011000</v>
       </c>
       <c r="F2810" s="2"/>
       <c r="G2810" s="2">
         <f t="shared" si="7"/>
-        <v>1034090.9090909089</v>
+        <v>1035681.8181818182</v>
       </c>
     </row>
     <row r="2811" spans="1:10" x14ac:dyDescent="0.2">
@@ -28116,14 +28144,24 @@
         <f t="shared" si="6"/>
         <v>44072</v>
       </c>
+      <c r="B2811">
+        <v>881000</v>
+      </c>
+      <c r="C2811">
+        <v>833352</v>
+      </c>
       <c r="D2811">
         <f t="shared" si="8"/>
         <v>21</v>
       </c>
+      <c r="E2811" s="2">
+        <f t="shared" si="0"/>
+        <v>881000</v>
+      </c>
       <c r="F2811" s="2"/>
       <c r="G2811" s="2">
         <f t="shared" si="7"/>
-        <v>983145.45454545435</v>
+        <v>984963.63636363647</v>
       </c>
     </row>
     <row r="2812" spans="1:10" x14ac:dyDescent="0.2">
@@ -28138,7 +28176,7 @@
       <c r="F2812" s="2"/>
       <c r="G2812" s="2">
         <f t="shared" si="7"/>
-        <v>932199.99999999977</v>
+        <v>934245.45454545459</v>
       </c>
     </row>
     <row r="2813" spans="1:10" x14ac:dyDescent="0.2">
@@ -28153,7 +28191,7 @@
       <c r="F2813" s="2"/>
       <c r="G2813" s="2">
         <f t="shared" si="7"/>
-        <v>881254.54545454541</v>
+        <v>883527.27272727271</v>
       </c>
     </row>
     <row r="2814" spans="1:10" x14ac:dyDescent="0.2">
@@ -28168,7 +28206,7 @@
       <c r="F2814" s="2"/>
       <c r="G2814" s="2">
         <f t="shared" si="7"/>
-        <v>830309.09090909082</v>
+        <v>832809.09090909106</v>
       </c>
     </row>
     <row r="2815" spans="1:10" x14ac:dyDescent="0.2">
@@ -28183,7 +28221,7 @@
       <c r="F2815" s="2"/>
       <c r="G2815" s="2">
         <f t="shared" si="7"/>
-        <v>779363.63636363624</v>
+        <v>782090.90909090918</v>
       </c>
     </row>
     <row r="2816" spans="1:10" x14ac:dyDescent="0.2">
@@ -28197,7 +28235,7 @@
       </c>
       <c r="G2816" s="2">
         <f t="shared" si="7"/>
-        <v>728418.18181818165</v>
+        <v>731372.72727272729</v>
       </c>
     </row>
     <row r="2817" spans="1:7" x14ac:dyDescent="0.2">
@@ -28211,7 +28249,7 @@
       </c>
       <c r="G2817" s="2">
         <f t="shared" si="7"/>
-        <v>677472.72727272706</v>
+        <v>680654.54545454565</v>
       </c>
     </row>
     <row r="2818" spans="1:7" x14ac:dyDescent="0.2">
@@ -28225,7 +28263,7 @@
       </c>
       <c r="G2818" s="2">
         <f t="shared" ref="G2818:G2824" si="16">$L$2794+D2818*$K$2794</f>
-        <v>626527.27272727247</v>
+        <v>629936.36363636376</v>
       </c>
     </row>
     <row r="2819" spans="1:7" x14ac:dyDescent="0.2">
@@ -28239,7 +28277,7 @@
       </c>
       <c r="G2819" s="2">
         <f t="shared" si="16"/>
-        <v>575581.81818181812</v>
+        <v>579218.18181818188</v>
       </c>
     </row>
     <row r="2820" spans="1:7" x14ac:dyDescent="0.2">
@@ -28253,7 +28291,7 @@
       </c>
       <c r="G2820" s="2">
         <f t="shared" si="16"/>
-        <v>524636.36363636353</v>
+        <v>528500</v>
       </c>
     </row>
     <row r="2821" spans="1:7" x14ac:dyDescent="0.2">
@@ -28267,7 +28305,7 @@
       </c>
       <c r="G2821" s="2">
         <f t="shared" si="16"/>
-        <v>473690.90909090894</v>
+        <v>477781.81818181835</v>
       </c>
     </row>
     <row r="2822" spans="1:7" x14ac:dyDescent="0.2">
@@ -28281,7 +28319,7 @@
       </c>
       <c r="G2822" s="2">
         <f t="shared" si="16"/>
-        <v>422745.45454545435</v>
+        <v>427063.63636363647</v>
       </c>
     </row>
     <row r="2823" spans="1:7" x14ac:dyDescent="0.2">
@@ -28295,7 +28333,7 @@
       </c>
       <c r="G2823" s="2">
         <f t="shared" si="16"/>
-        <v>371799.99999999977</v>
+        <v>376345.45454545459</v>
       </c>
     </row>
     <row r="2824" spans="1:7" x14ac:dyDescent="0.2">
@@ -28309,7 +28347,7 @@
       </c>
       <c r="G2824" s="2">
         <f t="shared" si="16"/>
-        <v>320854.54545454518</v>
+        <v>325627.27272727294</v>
       </c>
     </row>
   </sheetData>

--- a/ICSA.xlsx
+++ b/ICSA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rainy\Documents\GitHub\Economics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80EEFE15-10FC-49F5-83D2-1C99617B4797}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8159CD3B-FEA7-43A6-83DE-FC4180A7A37A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -587,57 +587,6 @@
               </c:ext>
             </c:extLst>
           </c:dPt>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="20"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000013-4987-4962-8598-9154E7189D26}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="21"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-6.6927276957254811E-2"/>
-                  <c:y val="-0.24385617186861164"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000014-675D-481F-8D94-9D15092DBBBF}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>'FRED Graph'!$A$2790:$A$2820</c:f>
@@ -810,7 +759,10 @@
                   <c:v>1011000</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>881000</c:v>
+                  <c:v>884000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>884000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1125,6 +1077,47 @@
               </a:ln>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="22"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-9.4534711964549559E-2"/>
+                  <c:y val="-0.14317673971509884"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000015-ED5D-4B8D-BD7E-056F3273CFE6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>'FRED Graph'!$A$2790:$A$2819</c:f>
@@ -1294,7 +1287,10 @@
                   <c:v>825761</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>833352</c:v>
+                  <c:v>837008</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>857148</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2236,8 +2232,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L2824"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D2765" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="I2777" sqref="I2777"/>
+    <sheetView tabSelected="1" topLeftCell="A2768" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D2777" sqref="D2777"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -27343,7 +27339,7 @@
         <v>0</v>
       </c>
       <c r="E2790" s="2">
-        <f t="shared" ref="E2790:E2811" si="0">B2790</f>
+        <f t="shared" ref="E2790:E2812" si="0">B2790</f>
         <v>6615000</v>
       </c>
       <c r="F2790" s="2">
@@ -28145,10 +28141,10 @@
         <v>44072</v>
       </c>
       <c r="B2811">
-        <v>881000</v>
+        <v>884000</v>
       </c>
       <c r="C2811">
-        <v>833352</v>
+        <v>837008</v>
       </c>
       <c r="D2811">
         <f t="shared" si="8"/>
@@ -28156,7 +28152,7 @@
       </c>
       <c r="E2811" s="2">
         <f t="shared" si="0"/>
-        <v>881000</v>
+        <v>884000</v>
       </c>
       <c r="F2811" s="2"/>
       <c r="G2811" s="2">
@@ -28169,9 +28165,19 @@
         <f t="shared" si="6"/>
         <v>44079</v>
       </c>
+      <c r="B2812">
+        <v>884000</v>
+      </c>
+      <c r="C2812">
+        <v>857148</v>
+      </c>
       <c r="D2812">
         <f t="shared" si="8"/>
         <v>22</v>
+      </c>
+      <c r="E2812" s="2">
+        <f t="shared" si="0"/>
+        <v>884000</v>
       </c>
       <c r="F2812" s="2"/>
       <c r="G2812" s="2">

--- a/ICSA.xlsx
+++ b/ICSA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rainy\Documents\GitHub\Economics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8159CD3B-FEA7-43A6-83DE-FC4180A7A37A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57826A06-CC51-4204-A32A-0264E1D05A0F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -587,6 +587,69 @@
               </c:ext>
             </c:extLst>
           </c:dPt>
+          <c:dPt>
+            <c:idx val="23"/>
+            <c:marker>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="FFFF00"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000015-6AB2-4F29-92B3-FA31E2EB6469}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="23"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.12013786312161504"/>
+                  <c:y val="-0.1305434979755313"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000015-6AB2-4F29-92B3-FA31E2EB6469}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>'FRED Graph'!$A$2790:$A$2820</c:f>
@@ -762,7 +825,10 @@
                   <c:v>884000</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>884000</c:v>
+                  <c:v>893000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>860000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1077,47 +1143,6 @@
               </a:ln>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="22"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-9.4534711964549559E-2"/>
-                  <c:y val="-0.14317673971509884"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000015-ED5D-4B8D-BD7E-056F3273CFE6}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>'FRED Graph'!$A$2790:$A$2819</c:f>
@@ -1290,7 +1315,10 @@
                   <c:v>837008</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>857148</c:v>
+                  <c:v>865995</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>790021</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2232,8 +2260,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L2824"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2768" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D2777" sqref="D2777"/>
+    <sheetView tabSelected="1" topLeftCell="D2786" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G2797" sqref="G2797"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -27339,7 +27367,7 @@
         <v>0</v>
       </c>
       <c r="E2790" s="2">
-        <f t="shared" ref="E2790:E2812" si="0">B2790</f>
+        <f t="shared" ref="E2790:E2813" si="0">B2790</f>
         <v>6615000</v>
       </c>
       <c r="F2790" s="2">
@@ -27503,11 +27531,11 @@
         <v>620000</v>
       </c>
       <c r="K2794">
-        <f t="array" ref="K2794:L2795">LINEST(B2800:B2810,D2800:D2810)</f>
-        <v>-50718.181818181816</v>
+        <f t="array" ref="K2794:L2795">LINEST(B2806:B2813,D2806:D2813)</f>
+        <v>-69869.047619047604</v>
       </c>
       <c r="L2794">
-        <v>2050045.4545454546</v>
+        <v>2406071.4285714282</v>
       </c>
     </row>
     <row r="2795" spans="1:12" x14ac:dyDescent="0.2">
@@ -27547,10 +27575,10 @@
         <v>602000</v>
       </c>
       <c r="K2795">
-        <v>-50718.181818181816</v>
+        <v>-69869.047619047604</v>
       </c>
       <c r="L2795">
-        <v>2050045.4545454546</v>
+        <v>2406071.4285714282</v>
       </c>
     </row>
     <row r="2796" spans="1:12" x14ac:dyDescent="0.2">
@@ -27615,7 +27643,7 @@
       </c>
       <c r="G2797" s="2">
         <f>$L$2794+D2797*$K$2794</f>
-        <v>1695018.1818181819</v>
+        <v>1916988.0952380949</v>
       </c>
       <c r="H2797">
         <f t="shared" si="5"/>
@@ -27655,7 +27683,7 @@
       </c>
       <c r="G2798" s="2">
         <f t="shared" ref="G2798:G2817" si="7">$L$2794+D2798*$K$2794</f>
-        <v>1644300</v>
+        <v>1847119.0476190473</v>
       </c>
       <c r="H2798">
         <f t="shared" si="5"/>
@@ -27695,7 +27723,7 @@
       </c>
       <c r="G2799" s="2">
         <f t="shared" si="7"/>
-        <v>1593581.8181818184</v>
+        <v>1777249.9999999998</v>
       </c>
       <c r="H2799">
         <f t="shared" si="5"/>
@@ -27735,7 +27763,7 @@
       </c>
       <c r="G2800" s="2">
         <f t="shared" si="7"/>
-        <v>1542863.6363636365</v>
+        <v>1707380.9523809522</v>
       </c>
       <c r="H2800">
         <f t="shared" si="5"/>
@@ -27775,7 +27803,7 @@
       </c>
       <c r="G2801" s="2">
         <f t="shared" si="7"/>
-        <v>1492145.4545454546</v>
+        <v>1637511.9047619044</v>
       </c>
       <c r="H2801">
         <f t="shared" si="5"/>
@@ -27815,7 +27843,7 @@
       </c>
       <c r="G2802" s="2">
         <f t="shared" si="7"/>
-        <v>1441427.2727272729</v>
+        <v>1567642.8571428568</v>
       </c>
       <c r="H2802">
         <f t="shared" si="5"/>
@@ -27855,7 +27883,7 @@
       </c>
       <c r="G2803" s="2">
         <f t="shared" si="7"/>
-        <v>1390709.0909090908</v>
+        <v>1497773.8095238092</v>
       </c>
       <c r="H2803">
         <f t="shared" si="5"/>
@@ -27895,7 +27923,7 @@
       </c>
       <c r="G2804" s="2">
         <f t="shared" si="7"/>
-        <v>1339990.9090909092</v>
+        <v>1427904.7619047617</v>
       </c>
       <c r="H2804">
         <f t="shared" si="5"/>
@@ -27935,7 +27963,7 @@
       </c>
       <c r="G2805" s="2">
         <f t="shared" si="7"/>
-        <v>1289272.7272727273</v>
+        <v>1358035.7142857141</v>
       </c>
       <c r="H2805">
         <f t="shared" si="5"/>
@@ -27975,7 +28003,7 @@
       </c>
       <c r="G2806" s="2">
         <f t="shared" si="7"/>
-        <v>1238554.5454545454</v>
+        <v>1288166.6666666665</v>
       </c>
       <c r="H2806">
         <f t="shared" si="5"/>
@@ -28015,7 +28043,7 @@
       </c>
       <c r="G2807" s="2">
         <f t="shared" si="7"/>
-        <v>1187836.3636363638</v>
+        <v>1218297.6190476189</v>
       </c>
       <c r="H2807">
         <f t="shared" si="5"/>
@@ -28055,7 +28083,7 @@
       </c>
       <c r="G2808" s="2">
         <f t="shared" si="7"/>
-        <v>1137118.1818181819</v>
+        <v>1148428.5714285714</v>
       </c>
       <c r="H2808">
         <f t="shared" si="5"/>
@@ -28095,7 +28123,7 @@
       </c>
       <c r="G2809" s="2">
         <f t="shared" si="7"/>
-        <v>1086400</v>
+        <v>1078559.5238095238</v>
       </c>
       <c r="H2809">
         <f t="shared" si="5"/>
@@ -28132,7 +28160,7 @@
       <c r="F2810" s="2"/>
       <c r="G2810" s="2">
         <f t="shared" si="7"/>
-        <v>1035681.8181818182</v>
+        <v>1008690.4761904762</v>
       </c>
     </row>
     <row r="2811" spans="1:10" x14ac:dyDescent="0.2">
@@ -28157,7 +28185,7 @@
       <c r="F2811" s="2"/>
       <c r="G2811" s="2">
         <f t="shared" si="7"/>
-        <v>984963.63636363647</v>
+        <v>938821.42857142841</v>
       </c>
     </row>
     <row r="2812" spans="1:10" x14ac:dyDescent="0.2">
@@ -28166,10 +28194,10 @@
         <v>44079</v>
       </c>
       <c r="B2812">
-        <v>884000</v>
+        <v>893000</v>
       </c>
       <c r="C2812">
-        <v>857148</v>
+        <v>865995</v>
       </c>
       <c r="D2812">
         <f t="shared" si="8"/>
@@ -28177,12 +28205,12 @@
       </c>
       <c r="E2812" s="2">
         <f t="shared" si="0"/>
-        <v>884000</v>
+        <v>893000</v>
       </c>
       <c r="F2812" s="2"/>
       <c r="G2812" s="2">
         <f t="shared" si="7"/>
-        <v>934245.45454545459</v>
+        <v>868952.38095238083</v>
       </c>
     </row>
     <row r="2813" spans="1:10" x14ac:dyDescent="0.2">
@@ -28190,14 +28218,24 @@
         <f t="shared" si="6"/>
         <v>44086</v>
       </c>
+      <c r="B2813">
+        <v>860000</v>
+      </c>
+      <c r="C2813">
+        <v>790021</v>
+      </c>
       <c r="D2813">
         <f t="shared" si="8"/>
         <v>23</v>
       </c>
+      <c r="E2813" s="2">
+        <f t="shared" si="0"/>
+        <v>860000</v>
+      </c>
       <c r="F2813" s="2"/>
       <c r="G2813" s="2">
         <f t="shared" si="7"/>
-        <v>883527.27272727271</v>
+        <v>799083.33333333326</v>
       </c>
     </row>
     <row r="2814" spans="1:10" x14ac:dyDescent="0.2">
@@ -28212,7 +28250,7 @@
       <c r="F2814" s="2"/>
       <c r="G2814" s="2">
         <f t="shared" si="7"/>
-        <v>832809.09090909106</v>
+        <v>729214.28571428568</v>
       </c>
     </row>
     <row r="2815" spans="1:10" x14ac:dyDescent="0.2">
@@ -28227,7 +28265,7 @@
       <c r="F2815" s="2"/>
       <c r="G2815" s="2">
         <f t="shared" si="7"/>
-        <v>782090.90909090918</v>
+        <v>659345.23809523811</v>
       </c>
     </row>
     <row r="2816" spans="1:10" x14ac:dyDescent="0.2">
@@ -28241,7 +28279,7 @@
       </c>
       <c r="G2816" s="2">
         <f t="shared" si="7"/>
-        <v>731372.72727272729</v>
+        <v>589476.19047619053</v>
       </c>
     </row>
     <row r="2817" spans="1:7" x14ac:dyDescent="0.2">
@@ -28255,7 +28293,7 @@
       </c>
       <c r="G2817" s="2">
         <f t="shared" si="7"/>
-        <v>680654.54545454565</v>
+        <v>519607.14285714296</v>
       </c>
     </row>
     <row r="2818" spans="1:7" x14ac:dyDescent="0.2">
@@ -28269,7 +28307,7 @@
       </c>
       <c r="G2818" s="2">
         <f t="shared" ref="G2818:G2824" si="16">$L$2794+D2818*$K$2794</f>
-        <v>629936.36363636376</v>
+        <v>449738.09523809515</v>
       </c>
     </row>
     <row r="2819" spans="1:7" x14ac:dyDescent="0.2">
@@ -28283,7 +28321,7 @@
       </c>
       <c r="G2819" s="2">
         <f t="shared" si="16"/>
-        <v>579218.18181818188</v>
+        <v>379869.04761904757</v>
       </c>
     </row>
     <row r="2820" spans="1:7" x14ac:dyDescent="0.2">
@@ -28297,7 +28335,7 @@
       </c>
       <c r="G2820" s="2">
         <f t="shared" si="16"/>
-        <v>528500</v>
+        <v>310000</v>
       </c>
     </row>
     <row r="2821" spans="1:7" x14ac:dyDescent="0.2">
@@ -28311,7 +28349,7 @@
       </c>
       <c r="G2821" s="2">
         <f t="shared" si="16"/>
-        <v>477781.81818181835</v>
+        <v>240130.95238095243</v>
       </c>
     </row>
     <row r="2822" spans="1:7" x14ac:dyDescent="0.2">
@@ -28325,7 +28363,7 @@
       </c>
       <c r="G2822" s="2">
         <f t="shared" si="16"/>
-        <v>427063.63636363647</v>
+        <v>170261.90476190485</v>
       </c>
     </row>
     <row r="2823" spans="1:7" x14ac:dyDescent="0.2">
@@ -28339,7 +28377,7 @@
       </c>
       <c r="G2823" s="2">
         <f t="shared" si="16"/>
-        <v>376345.45454545459</v>
+        <v>100392.85714285728</v>
       </c>
     </row>
     <row r="2824" spans="1:7" x14ac:dyDescent="0.2">
@@ -28353,7 +28391,7 @@
       </c>
       <c r="G2824" s="2">
         <f t="shared" si="16"/>
-        <v>325627.27272727294</v>
+        <v>30523.809523809701</v>
       </c>
     </row>
   </sheetData>

--- a/ICSA.xlsx
+++ b/ICSA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rainy\Documents\GitHub\Economics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57826A06-CC51-4204-A32A-0264E1D05A0F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50D19D8C-6F4C-41CE-A6B8-F6768C5D0759}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -609,47 +609,6 @@
               </c:ext>
             </c:extLst>
           </c:dPt>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="23"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.12013786312161504"/>
-                  <c:y val="-0.1305434979755313"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000015-6AB2-4F29-92B3-FA31E2EB6469}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>'FRED Graph'!$A$2790:$A$2820</c:f>
@@ -828,7 +787,10 @@
                   <c:v>893000</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>860000</c:v>
+                  <c:v>866000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>870000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -844,7 +806,7 @@
           <c:idx val="1"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>Exp. Fit</c:v>
+            <c:v>Fit</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -865,10 +827,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'FRED Graph'!$A$2790:$A$2802</c:f>
+              <c:f>'FRED Graph'!$A$2790:$A$2814</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>43925</c:v>
                 </c:pt>
@@ -908,53 +870,104 @@
                 <c:pt idx="12">
                   <c:v>44009</c:v>
                 </c:pt>
+                <c:pt idx="13">
+                  <c:v>44016</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44023</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44030</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44037</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44044</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44051</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44058</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44065</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44072</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44079</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44086</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44093</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'FRED Graph'!$F$2790:$F$2802</c:f>
+              <c:f>'FRED Graph'!$G$2790:$G$2814</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>6615000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5562529.7869033217</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4677511.3575490126</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3933302.5328714997</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3307500</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2781264.8934516609</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2338755.6787745063</c:v>
-                </c:pt>
+                <c:ptCount val="25"/>
                 <c:pt idx="7">
-                  <c:v>1966651.2664357503</c:v>
+                  <c:v>985200</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1653750</c:v>
+                  <c:v>978300</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1390632.4467258304</c:v>
+                  <c:v>971400</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1169377.8393872532</c:v>
+                  <c:v>964500</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>983325.63321787491</c:v>
+                  <c:v>957600</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>826875.00000000023</c:v>
+                  <c:v>950700</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>943800</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>936900</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>930000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>923100</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>916200</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>909300</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>902400</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>895500</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>888600</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>881700</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>874800</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>867900</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1143,6 +1156,47 @@
               </a:ln>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="24"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-8.8626292466765219E-2"/>
+                  <c:y val="-0.14738782029495476"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000016-1B70-44D5-99FB-0CF4BEF619FE}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>'FRED Graph'!$A$2790:$A$2819</c:f>
@@ -1318,7 +1372,10 @@
                   <c:v>865995</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>790021</c:v>
+                  <c:v>796015</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>824542</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1553,7 +1610,7 @@
         <c:axId val="319767456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="44087"/>
+          <c:max val="44100"/>
           <c:min val="43920"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -2258,10 +2315,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L2824"/>
+  <dimension ref="A1:L2843"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D2786" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G2797" sqref="G2797"/>
+    <sheetView tabSelected="1" topLeftCell="F2783" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="A2843" sqref="A2843:XFD2843"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -27367,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="E2790" s="2">
-        <f t="shared" ref="E2790:E2813" si="0">B2790</f>
+        <f t="shared" ref="E2790:E2814" si="0">B2790</f>
         <v>6615000</v>
       </c>
       <c r="F2790" s="2">
@@ -27531,16 +27588,16 @@
         <v>620000</v>
       </c>
       <c r="K2794">
-        <f t="array" ref="K2794:L2795">LINEST(B2806:B2813,D2806:D2813)</f>
-        <v>-69869.047619047604</v>
+        <f t="array" ref="K2794:L2795">LINEST(B2811:B2814,D2811:D2814)</f>
+        <v>-6899.9999999999991</v>
       </c>
       <c r="L2794">
-        <v>2406071.4285714282</v>
+        <v>1033500</v>
       </c>
     </row>
     <row r="2795" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2795" s="1">
-        <f t="shared" ref="A2795:A2824" si="6">A2794+7</f>
+        <f t="shared" ref="A2795:A2843" si="6">A2794+7</f>
         <v>43960</v>
       </c>
       <c r="B2795">
@@ -27575,10 +27632,10 @@
         <v>602000</v>
       </c>
       <c r="K2795">
-        <v>-69869.047619047604</v>
+        <v>-6899.9999999999991</v>
       </c>
       <c r="L2795">
-        <v>2406071.4285714282</v>
+        <v>1033500</v>
       </c>
     </row>
     <row r="2796" spans="1:12" x14ac:dyDescent="0.2">
@@ -27643,7 +27700,7 @@
       </c>
       <c r="G2797" s="2">
         <f>$L$2794+D2797*$K$2794</f>
-        <v>1916988.0952380949</v>
+        <v>985200</v>
       </c>
       <c r="H2797">
         <f t="shared" si="5"/>
@@ -27683,7 +27740,7 @@
       </c>
       <c r="G2798" s="2">
         <f t="shared" ref="G2798:G2817" si="7">$L$2794+D2798*$K$2794</f>
-        <v>1847119.0476190473</v>
+        <v>978300</v>
       </c>
       <c r="H2798">
         <f t="shared" si="5"/>
@@ -27723,7 +27780,7 @@
       </c>
       <c r="G2799" s="2">
         <f t="shared" si="7"/>
-        <v>1777249.9999999998</v>
+        <v>971400</v>
       </c>
       <c r="H2799">
         <f t="shared" si="5"/>
@@ -27763,7 +27820,7 @@
       </c>
       <c r="G2800" s="2">
         <f t="shared" si="7"/>
-        <v>1707380.9523809522</v>
+        <v>964500</v>
       </c>
       <c r="H2800">
         <f t="shared" si="5"/>
@@ -27803,7 +27860,7 @@
       </c>
       <c r="G2801" s="2">
         <f t="shared" si="7"/>
-        <v>1637511.9047619044</v>
+        <v>957600</v>
       </c>
       <c r="H2801">
         <f t="shared" si="5"/>
@@ -27843,7 +27900,7 @@
       </c>
       <c r="G2802" s="2">
         <f t="shared" si="7"/>
-        <v>1567642.8571428568</v>
+        <v>950700</v>
       </c>
       <c r="H2802">
         <f t="shared" si="5"/>
@@ -27870,7 +27927,7 @@
         <v>1395081</v>
       </c>
       <c r="D2803">
-        <f t="shared" ref="D2803:D2824" si="8">D2802+1</f>
+        <f t="shared" ref="D2803:D2843" si="8">D2802+1</f>
         <v>13</v>
       </c>
       <c r="E2803" s="2">
@@ -27883,7 +27940,7 @@
       </c>
       <c r="G2803" s="2">
         <f t="shared" si="7"/>
-        <v>1497773.8095238092</v>
+        <v>943800</v>
       </c>
       <c r="H2803">
         <f t="shared" si="5"/>
@@ -27923,7 +27980,7 @@
       </c>
       <c r="G2804" s="2">
         <f t="shared" si="7"/>
-        <v>1427904.7619047617</v>
+        <v>936900</v>
       </c>
       <c r="H2804">
         <f t="shared" si="5"/>
@@ -27963,7 +28020,7 @@
       </c>
       <c r="G2805" s="2">
         <f t="shared" si="7"/>
-        <v>1358035.7142857141</v>
+        <v>930000</v>
       </c>
       <c r="H2805">
         <f t="shared" si="5"/>
@@ -28003,7 +28060,7 @@
       </c>
       <c r="G2806" s="2">
         <f t="shared" si="7"/>
-        <v>1288166.6666666665</v>
+        <v>923100</v>
       </c>
       <c r="H2806">
         <f t="shared" si="5"/>
@@ -28043,7 +28100,7 @@
       </c>
       <c r="G2807" s="2">
         <f t="shared" si="7"/>
-        <v>1218297.6190476189</v>
+        <v>916200</v>
       </c>
       <c r="H2807">
         <f t="shared" si="5"/>
@@ -28083,7 +28140,7 @@
       </c>
       <c r="G2808" s="2">
         <f t="shared" si="7"/>
-        <v>1148428.5714285714</v>
+        <v>909300</v>
       </c>
       <c r="H2808">
         <f t="shared" si="5"/>
@@ -28123,7 +28180,7 @@
       </c>
       <c r="G2809" s="2">
         <f t="shared" si="7"/>
-        <v>1078559.5238095238</v>
+        <v>902400</v>
       </c>
       <c r="H2809">
         <f t="shared" si="5"/>
@@ -28160,7 +28217,7 @@
       <c r="F2810" s="2"/>
       <c r="G2810" s="2">
         <f t="shared" si="7"/>
-        <v>1008690.4761904762</v>
+        <v>895500</v>
       </c>
     </row>
     <row r="2811" spans="1:10" x14ac:dyDescent="0.2">
@@ -28185,7 +28242,7 @@
       <c r="F2811" s="2"/>
       <c r="G2811" s="2">
         <f t="shared" si="7"/>
-        <v>938821.42857142841</v>
+        <v>888600</v>
       </c>
     </row>
     <row r="2812" spans="1:10" x14ac:dyDescent="0.2">
@@ -28210,7 +28267,7 @@
       <c r="F2812" s="2"/>
       <c r="G2812" s="2">
         <f t="shared" si="7"/>
-        <v>868952.38095238083</v>
+        <v>881700</v>
       </c>
     </row>
     <row r="2813" spans="1:10" x14ac:dyDescent="0.2">
@@ -28219,10 +28276,10 @@
         <v>44086</v>
       </c>
       <c r="B2813">
-        <v>860000</v>
+        <v>866000</v>
       </c>
       <c r="C2813">
-        <v>790021</v>
+        <v>796015</v>
       </c>
       <c r="D2813">
         <f t="shared" si="8"/>
@@ -28230,12 +28287,12 @@
       </c>
       <c r="E2813" s="2">
         <f t="shared" si="0"/>
-        <v>860000</v>
+        <v>866000</v>
       </c>
       <c r="F2813" s="2"/>
       <c r="G2813" s="2">
         <f t="shared" si="7"/>
-        <v>799083.33333333326</v>
+        <v>874800</v>
       </c>
     </row>
     <row r="2814" spans="1:10" x14ac:dyDescent="0.2">
@@ -28243,14 +28300,24 @@
         <f t="shared" si="6"/>
         <v>44093</v>
       </c>
+      <c r="B2814">
+        <v>870000</v>
+      </c>
+      <c r="C2814">
+        <v>824542</v>
+      </c>
       <c r="D2814">
         <f t="shared" si="8"/>
         <v>24</v>
       </c>
+      <c r="E2814" s="2">
+        <f t="shared" si="0"/>
+        <v>870000</v>
+      </c>
       <c r="F2814" s="2"/>
       <c r="G2814" s="2">
         <f t="shared" si="7"/>
-        <v>729214.28571428568</v>
+        <v>867900</v>
       </c>
     </row>
     <row r="2815" spans="1:10" x14ac:dyDescent="0.2">
@@ -28265,7 +28332,7 @@
       <c r="F2815" s="2"/>
       <c r="G2815" s="2">
         <f t="shared" si="7"/>
-        <v>659345.23809523811</v>
+        <v>861000</v>
       </c>
     </row>
     <row r="2816" spans="1:10" x14ac:dyDescent="0.2">
@@ -28279,7 +28346,7 @@
       </c>
       <c r="G2816" s="2">
         <f t="shared" si="7"/>
-        <v>589476.19047619053</v>
+        <v>854100</v>
       </c>
     </row>
     <row r="2817" spans="1:7" x14ac:dyDescent="0.2">
@@ -28293,7 +28360,7 @@
       </c>
       <c r="G2817" s="2">
         <f t="shared" si="7"/>
-        <v>519607.14285714296</v>
+        <v>847200</v>
       </c>
     </row>
     <row r="2818" spans="1:7" x14ac:dyDescent="0.2">
@@ -28307,7 +28374,7 @@
       </c>
       <c r="G2818" s="2">
         <f t="shared" ref="G2818:G2824" si="16">$L$2794+D2818*$K$2794</f>
-        <v>449738.09523809515</v>
+        <v>840300</v>
       </c>
     </row>
     <row r="2819" spans="1:7" x14ac:dyDescent="0.2">
@@ -28321,7 +28388,7 @@
       </c>
       <c r="G2819" s="2">
         <f t="shared" si="16"/>
-        <v>379869.04761904757</v>
+        <v>833400</v>
       </c>
     </row>
     <row r="2820" spans="1:7" x14ac:dyDescent="0.2">
@@ -28335,7 +28402,7 @@
       </c>
       <c r="G2820" s="2">
         <f t="shared" si="16"/>
-        <v>310000</v>
+        <v>826500</v>
       </c>
     </row>
     <row r="2821" spans="1:7" x14ac:dyDescent="0.2">
@@ -28349,7 +28416,7 @@
       </c>
       <c r="G2821" s="2">
         <f t="shared" si="16"/>
-        <v>240130.95238095243</v>
+        <v>819600</v>
       </c>
     </row>
     <row r="2822" spans="1:7" x14ac:dyDescent="0.2">
@@ -28363,7 +28430,7 @@
       </c>
       <c r="G2822" s="2">
         <f t="shared" si="16"/>
-        <v>170261.90476190485</v>
+        <v>812700</v>
       </c>
     </row>
     <row r="2823" spans="1:7" x14ac:dyDescent="0.2">
@@ -28377,7 +28444,7 @@
       </c>
       <c r="G2823" s="2">
         <f t="shared" si="16"/>
-        <v>100392.85714285728</v>
+        <v>805800</v>
       </c>
     </row>
     <row r="2824" spans="1:7" x14ac:dyDescent="0.2">
@@ -28391,7 +28458,273 @@
       </c>
       <c r="G2824" s="2">
         <f t="shared" si="16"/>
-        <v>30523.809523809701</v>
+        <v>798900</v>
+      </c>
+    </row>
+    <row r="2825" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2825" s="1">
+        <f t="shared" si="6"/>
+        <v>44170</v>
+      </c>
+      <c r="D2825">
+        <f t="shared" si="8"/>
+        <v>35</v>
+      </c>
+      <c r="G2825" s="2">
+        <f t="shared" ref="G2825:G2830" si="17">$L$2794+D2825*$K$2794</f>
+        <v>792000</v>
+      </c>
+    </row>
+    <row r="2826" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2826" s="1">
+        <f t="shared" si="6"/>
+        <v>44177</v>
+      </c>
+      <c r="D2826">
+        <f t="shared" si="8"/>
+        <v>36</v>
+      </c>
+      <c r="G2826" s="2">
+        <f t="shared" si="17"/>
+        <v>785100</v>
+      </c>
+    </row>
+    <row r="2827" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2827" s="1">
+        <f t="shared" si="6"/>
+        <v>44184</v>
+      </c>
+      <c r="D2827">
+        <f t="shared" si="8"/>
+        <v>37</v>
+      </c>
+      <c r="G2827" s="2">
+        <f t="shared" si="17"/>
+        <v>778200</v>
+      </c>
+    </row>
+    <row r="2828" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2828" s="1">
+        <f t="shared" si="6"/>
+        <v>44191</v>
+      </c>
+      <c r="D2828">
+        <f t="shared" si="8"/>
+        <v>38</v>
+      </c>
+      <c r="G2828" s="2">
+        <f t="shared" si="17"/>
+        <v>771300</v>
+      </c>
+    </row>
+    <row r="2829" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2829" s="1">
+        <f t="shared" si="6"/>
+        <v>44198</v>
+      </c>
+      <c r="D2829">
+        <f t="shared" si="8"/>
+        <v>39</v>
+      </c>
+      <c r="G2829" s="2">
+        <f t="shared" si="17"/>
+        <v>764400</v>
+      </c>
+    </row>
+    <row r="2830" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2830" s="1">
+        <f t="shared" si="6"/>
+        <v>44205</v>
+      </c>
+      <c r="D2830">
+        <f t="shared" si="8"/>
+        <v>40</v>
+      </c>
+      <c r="G2830" s="2">
+        <f t="shared" si="17"/>
+        <v>757500</v>
+      </c>
+    </row>
+    <row r="2831" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2831" s="1">
+        <f t="shared" si="6"/>
+        <v>44212</v>
+      </c>
+      <c r="D2831">
+        <f t="shared" si="8"/>
+        <v>41</v>
+      </c>
+      <c r="G2831" s="2">
+        <f t="shared" ref="G2831:G2843" si="18">$L$2794+D2831*$K$2794</f>
+        <v>750600</v>
+      </c>
+    </row>
+    <row r="2832" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2832" s="1">
+        <f t="shared" si="6"/>
+        <v>44219</v>
+      </c>
+      <c r="D2832">
+        <f t="shared" si="8"/>
+        <v>42</v>
+      </c>
+      <c r="G2832" s="2">
+        <f t="shared" si="18"/>
+        <v>743700</v>
+      </c>
+    </row>
+    <row r="2833" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2833" s="1">
+        <f t="shared" si="6"/>
+        <v>44226</v>
+      </c>
+      <c r="D2833">
+        <f t="shared" si="8"/>
+        <v>43</v>
+      </c>
+      <c r="G2833" s="2">
+        <f t="shared" si="18"/>
+        <v>736800</v>
+      </c>
+    </row>
+    <row r="2834" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2834" s="1">
+        <f t="shared" si="6"/>
+        <v>44233</v>
+      </c>
+      <c r="D2834">
+        <f t="shared" si="8"/>
+        <v>44</v>
+      </c>
+      <c r="G2834" s="2">
+        <f t="shared" si="18"/>
+        <v>729900</v>
+      </c>
+    </row>
+    <row r="2835" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2835" s="1">
+        <f t="shared" si="6"/>
+        <v>44240</v>
+      </c>
+      <c r="D2835">
+        <f t="shared" si="8"/>
+        <v>45</v>
+      </c>
+      <c r="G2835" s="2">
+        <f t="shared" si="18"/>
+        <v>723000</v>
+      </c>
+    </row>
+    <row r="2836" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2836" s="1">
+        <f t="shared" si="6"/>
+        <v>44247</v>
+      </c>
+      <c r="D2836">
+        <f t="shared" si="8"/>
+        <v>46</v>
+      </c>
+      <c r="G2836" s="2">
+        <f t="shared" si="18"/>
+        <v>716100</v>
+      </c>
+    </row>
+    <row r="2837" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2837" s="1">
+        <f t="shared" si="6"/>
+        <v>44254</v>
+      </c>
+      <c r="D2837">
+        <f t="shared" si="8"/>
+        <v>47</v>
+      </c>
+      <c r="G2837" s="2">
+        <f t="shared" si="18"/>
+        <v>709200</v>
+      </c>
+    </row>
+    <row r="2838" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2838" s="1">
+        <f t="shared" si="6"/>
+        <v>44261</v>
+      </c>
+      <c r="D2838">
+        <f t="shared" si="8"/>
+        <v>48</v>
+      </c>
+      <c r="G2838" s="2">
+        <f t="shared" si="18"/>
+        <v>702300</v>
+      </c>
+    </row>
+    <row r="2839" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2839" s="1">
+        <f t="shared" si="6"/>
+        <v>44268</v>
+      </c>
+      <c r="D2839">
+        <f t="shared" si="8"/>
+        <v>49</v>
+      </c>
+      <c r="G2839" s="2">
+        <f t="shared" si="18"/>
+        <v>695400</v>
+      </c>
+    </row>
+    <row r="2840" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2840" s="1">
+        <f t="shared" si="6"/>
+        <v>44275</v>
+      </c>
+      <c r="D2840">
+        <f t="shared" si="8"/>
+        <v>50</v>
+      </c>
+      <c r="G2840" s="2">
+        <f t="shared" si="18"/>
+        <v>688500</v>
+      </c>
+    </row>
+    <row r="2841" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2841" s="1">
+        <f t="shared" si="6"/>
+        <v>44282</v>
+      </c>
+      <c r="D2841">
+        <f t="shared" si="8"/>
+        <v>51</v>
+      </c>
+      <c r="G2841" s="2">
+        <f t="shared" si="18"/>
+        <v>681600</v>
+      </c>
+    </row>
+    <row r="2842" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2842" s="1">
+        <f t="shared" si="6"/>
+        <v>44289</v>
+      </c>
+      <c r="D2842">
+        <f t="shared" si="8"/>
+        <v>52</v>
+      </c>
+      <c r="G2842" s="2">
+        <f t="shared" si="18"/>
+        <v>674700</v>
+      </c>
+    </row>
+    <row r="2843" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2843" s="1">
+        <f t="shared" si="6"/>
+        <v>44296</v>
+      </c>
+      <c r="D2843">
+        <f t="shared" si="8"/>
+        <v>53</v>
+      </c>
+      <c r="G2843" s="2">
+        <f t="shared" si="18"/>
+        <v>667800</v>
       </c>
     </row>
   </sheetData>

--- a/ICSA.xlsx
+++ b/ICSA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rainy\Documents\GitHub\Economics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50D19D8C-6F4C-41CE-A6B8-F6768C5D0759}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F2B33F4-04AE-4B62-9BCC-C7506A1E6DEE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -129,6 +129,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF66CC"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -222,19 +227,6 @@
           </c:marker>
           <c:dPt>
             <c:idx val="5"/>
-            <c:marker>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="FFFF00"/>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:ln w="19050">
@@ -249,19 +241,6 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
-            <c:marker>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="FFFF00"/>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:ln w="19050">
@@ -276,19 +255,6 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="7"/>
-            <c:marker>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="FFFF00"/>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:ln w="19050">
@@ -303,19 +269,6 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="8"/>
-            <c:marker>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="FFFF00"/>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
             <c:bubble3D val="0"/>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -325,19 +278,6 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="9"/>
-            <c:marker>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="FFFF00"/>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
             <c:bubble3D val="0"/>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -347,19 +287,6 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="10"/>
-            <c:marker>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="FFFF00"/>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
             <c:bubble3D val="0"/>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -369,19 +296,6 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="11"/>
-            <c:marker>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="FFFF00"/>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
             <c:bubble3D val="0"/>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -391,19 +305,6 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="12"/>
-            <c:marker>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="FFFF00"/>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
             <c:bubble3D val="0"/>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -413,19 +314,6 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="13"/>
-            <c:marker>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="FFFF00"/>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
             <c:bubble3D val="0"/>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -435,19 +323,6 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="14"/>
-            <c:marker>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="FFFF00"/>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
             <c:bubble3D val="0"/>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -457,19 +332,6 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="16"/>
-            <c:marker>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="FFFF00"/>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
             <c:bubble3D val="0"/>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -479,19 +341,6 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="17"/>
-            <c:marker>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="FFFF00"/>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
             <c:bubble3D val="0"/>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -501,19 +350,6 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="18"/>
-            <c:marker>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="FFFF00"/>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
             <c:bubble3D val="0"/>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -523,19 +359,6 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="19"/>
-            <c:marker>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="FFFF00"/>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
             <c:bubble3D val="0"/>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -545,19 +368,6 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="20"/>
-            <c:marker>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="FFFF00"/>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
             <c:bubble3D val="0"/>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -567,19 +377,6 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="21"/>
-            <c:marker>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="FFFF00"/>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
             <c:bubble3D val="0"/>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -589,19 +386,6 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="23"/>
-            <c:marker>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="FFFF00"/>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
             <c:bubble3D val="0"/>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -790,7 +574,22 @@
                   <c:v>866000</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>870000</c:v>
+                  <c:v>873000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>849000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>767000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>842000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>791000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>751000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -827,10 +626,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'FRED Graph'!$A$2790:$A$2814</c:f>
+              <c:f>'FRED Graph'!$A$2790:$A$2820</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43925</c:v>
                 </c:pt>
@@ -906,68 +705,104 @@
                 <c:pt idx="24">
                   <c:v>44093</c:v>
                 </c:pt>
+                <c:pt idx="25">
+                  <c:v>44100</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44107</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>44114</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>44121</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44128</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>44135</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'FRED Graph'!$G$2790:$G$2814</c:f>
+              <c:f>'FRED Graph'!$G$2790:$G$2820</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="7">
-                  <c:v>985200</c:v>
+                  <c:v>1132711.111111111</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>978300</c:v>
+                  <c:v>1116177.7777777775</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>971400</c:v>
+                  <c:v>1099644.4444444443</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>964500</c:v>
+                  <c:v>1083111.111111111</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>957600</c:v>
+                  <c:v>1066577.7777777775</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>950700</c:v>
+                  <c:v>1050044.4444444443</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>943800</c:v>
+                  <c:v>1033511.111111111</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>936900</c:v>
+                  <c:v>1016977.7777777776</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>930000</c:v>
+                  <c:v>1000444.4444444443</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>923100</c:v>
+                  <c:v>983911.11111111101</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>916200</c:v>
+                  <c:v>967377.77777777775</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>909300</c:v>
+                  <c:v>950844.44444444438</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>902400</c:v>
+                  <c:v>934311.11111111101</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>895500</c:v>
+                  <c:v>917777.77777777775</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>888600</c:v>
+                  <c:v>901244.44444444438</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>881700</c:v>
+                  <c:v>884711.11111111101</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>874800</c:v>
+                  <c:v>868177.77777777775</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>867900</c:v>
+                  <c:v>851644.44444444438</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>835111.11111111101</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>818577.77777777775</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>802044.44444444438</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>785511.11111111101</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>768977.77777777775</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>752444.44444444438</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1158,11 +993,11 @@
           </c:marker>
           <c:dLbls>
             <c:dLbl>
-              <c:idx val="24"/>
+              <c:idx val="29"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-8.8626292466765219E-2"/>
-                  <c:y val="-0.14738782029495476"/>
+                  <c:x val="-6.8858904928082332E-2"/>
+                  <c:y val="-0.12847841353797634"/>
                 </c:manualLayout>
               </c:layout>
               <c:showLegendKey val="0"/>
@@ -1174,7 +1009,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000016-1B70-44D5-99FB-0CF4BEF619FE}"/>
+                  <c16:uniqueId val="{00000016-C5BF-4BE3-9BB5-7E89DA8CB275}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1375,7 +1210,22 @@
                   <c:v>796015</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>824542</c:v>
+                  <c:v>827212</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>798996</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>731249</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>829742</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>760577</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>732223</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1418,18 +1268,25 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-2.1691825768522618E-2"/>
-                  <c:y val="-7.0048323285178682E-2"/>
+                  <c:x val="7.8645389652326786E-2"/>
+                  <c:y val="-0.36844978735957767"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
                 <c:rich>
-                  <a:bodyPr/>
+                  <a:bodyPr wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr">
+                    <a:spAutoFit/>
+                  </a:bodyPr>
                   <a:lstStyle/>
                   <a:p>
+                    <a:pPr>
+                      <a:defRPr/>
+                    </a:pPr>
                     <a:fld id="{0D50BB80-047C-4CDD-8951-B204DD96703E}" type="YVALUE">
                       <a:rPr lang="en-US"/>
-                      <a:pPr/>
+                      <a:pPr>
+                        <a:defRPr/>
+                      </a:pPr>
                       <a:t>[Y VALUE]</a:t>
                     </a:fld>
                     <a:r>
@@ -1439,6 +1296,15 @@
                   </a:p>
                 </c:rich>
               </c:tx>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
@@ -1610,7 +1476,7 @@
         <c:axId val="319767456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="44100"/>
+          <c:max val="44150"/>
           <c:min val="43920"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1681,7 +1547,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="0" vert="horz"/>
+          <a:bodyPr rot="-2700000" vert="horz"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -2317,8 +2183,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L2843"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F2783" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A2843" sqref="A2843:XFD2843"/>
+    <sheetView tabSelected="1" topLeftCell="D2766" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="J2783" sqref="J2783"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -27424,7 +27290,7 @@
         <v>0</v>
       </c>
       <c r="E2790" s="2">
-        <f t="shared" ref="E2790:E2814" si="0">B2790</f>
+        <f t="shared" ref="E2790:E2819" si="0">B2790</f>
         <v>6615000</v>
       </c>
       <c r="F2790" s="2">
@@ -27588,11 +27454,11 @@
         <v>620000</v>
       </c>
       <c r="K2794">
-        <f t="array" ref="K2794:L2795">LINEST(B2811:B2814,D2811:D2814)</f>
-        <v>-6899.9999999999991</v>
+        <f t="array" ref="K2794:L2795">LINEST(B2811:B2819,D2811:D2819)</f>
+        <v>-16533.333333333328</v>
       </c>
       <c r="L2794">
-        <v>1033500</v>
+        <v>1248444.4444444443</v>
       </c>
     </row>
     <row r="2795" spans="1:12" x14ac:dyDescent="0.2">
@@ -27632,10 +27498,10 @@
         <v>602000</v>
       </c>
       <c r="K2795">
-        <v>-6899.9999999999991</v>
+        <v>-16533.333333333328</v>
       </c>
       <c r="L2795">
-        <v>1033500</v>
+        <v>1248444.4444444443</v>
       </c>
     </row>
     <row r="2796" spans="1:12" x14ac:dyDescent="0.2">
@@ -27700,7 +27566,7 @@
       </c>
       <c r="G2797" s="2">
         <f>$L$2794+D2797*$K$2794</f>
-        <v>985200</v>
+        <v>1132711.111111111</v>
       </c>
       <c r="H2797">
         <f t="shared" si="5"/>
@@ -27740,7 +27606,7 @@
       </c>
       <c r="G2798" s="2">
         <f t="shared" ref="G2798:G2817" si="7">$L$2794+D2798*$K$2794</f>
-        <v>978300</v>
+        <v>1116177.7777777775</v>
       </c>
       <c r="H2798">
         <f t="shared" si="5"/>
@@ -27780,7 +27646,7 @@
       </c>
       <c r="G2799" s="2">
         <f t="shared" si="7"/>
-        <v>971400</v>
+        <v>1099644.4444444443</v>
       </c>
       <c r="H2799">
         <f t="shared" si="5"/>
@@ -27820,7 +27686,7 @@
       </c>
       <c r="G2800" s="2">
         <f t="shared" si="7"/>
-        <v>964500</v>
+        <v>1083111.111111111</v>
       </c>
       <c r="H2800">
         <f t="shared" si="5"/>
@@ -27860,7 +27726,7 @@
       </c>
       <c r="G2801" s="2">
         <f t="shared" si="7"/>
-        <v>957600</v>
+        <v>1066577.7777777775</v>
       </c>
       <c r="H2801">
         <f t="shared" si="5"/>
@@ -27900,7 +27766,7 @@
       </c>
       <c r="G2802" s="2">
         <f t="shared" si="7"/>
-        <v>950700</v>
+        <v>1050044.4444444443</v>
       </c>
       <c r="H2802">
         <f t="shared" si="5"/>
@@ -27940,7 +27806,7 @@
       </c>
       <c r="G2803" s="2">
         <f t="shared" si="7"/>
-        <v>943800</v>
+        <v>1033511.111111111</v>
       </c>
       <c r="H2803">
         <f t="shared" si="5"/>
@@ -27980,7 +27846,7 @@
       </c>
       <c r="G2804" s="2">
         <f t="shared" si="7"/>
-        <v>936900</v>
+        <v>1016977.7777777776</v>
       </c>
       <c r="H2804">
         <f t="shared" si="5"/>
@@ -28020,7 +27886,7 @@
       </c>
       <c r="G2805" s="2">
         <f t="shared" si="7"/>
-        <v>930000</v>
+        <v>1000444.4444444443</v>
       </c>
       <c r="H2805">
         <f t="shared" si="5"/>
@@ -28060,7 +27926,7 @@
       </c>
       <c r="G2806" s="2">
         <f t="shared" si="7"/>
-        <v>923100</v>
+        <v>983911.11111111101</v>
       </c>
       <c r="H2806">
         <f t="shared" si="5"/>
@@ -28100,7 +27966,7 @@
       </c>
       <c r="G2807" s="2">
         <f t="shared" si="7"/>
-        <v>916200</v>
+        <v>967377.77777777775</v>
       </c>
       <c r="H2807">
         <f t="shared" si="5"/>
@@ -28140,7 +28006,7 @@
       </c>
       <c r="G2808" s="2">
         <f t="shared" si="7"/>
-        <v>909300</v>
+        <v>950844.44444444438</v>
       </c>
       <c r="H2808">
         <f t="shared" si="5"/>
@@ -28180,7 +28046,7 @@
       </c>
       <c r="G2809" s="2">
         <f t="shared" si="7"/>
-        <v>902400</v>
+        <v>934311.11111111101</v>
       </c>
       <c r="H2809">
         <f t="shared" si="5"/>
@@ -28217,7 +28083,7 @@
       <c r="F2810" s="2"/>
       <c r="G2810" s="2">
         <f t="shared" si="7"/>
-        <v>895500</v>
+        <v>917777.77777777775</v>
       </c>
     </row>
     <row r="2811" spans="1:10" x14ac:dyDescent="0.2">
@@ -28242,7 +28108,7 @@
       <c r="F2811" s="2"/>
       <c r="G2811" s="2">
         <f t="shared" si="7"/>
-        <v>888600</v>
+        <v>901244.44444444438</v>
       </c>
     </row>
     <row r="2812" spans="1:10" x14ac:dyDescent="0.2">
@@ -28267,7 +28133,7 @@
       <c r="F2812" s="2"/>
       <c r="G2812" s="2">
         <f t="shared" si="7"/>
-        <v>881700</v>
+        <v>884711.11111111101</v>
       </c>
     </row>
     <row r="2813" spans="1:10" x14ac:dyDescent="0.2">
@@ -28292,7 +28158,7 @@
       <c r="F2813" s="2"/>
       <c r="G2813" s="2">
         <f t="shared" si="7"/>
-        <v>874800</v>
+        <v>868177.77777777775</v>
       </c>
     </row>
     <row r="2814" spans="1:10" x14ac:dyDescent="0.2">
@@ -28301,10 +28167,10 @@
         <v>44093</v>
       </c>
       <c r="B2814">
-        <v>870000</v>
+        <v>873000</v>
       </c>
       <c r="C2814">
-        <v>824542</v>
+        <v>827212</v>
       </c>
       <c r="D2814">
         <f t="shared" si="8"/>
@@ -28312,12 +28178,12 @@
       </c>
       <c r="E2814" s="2">
         <f t="shared" si="0"/>
-        <v>870000</v>
+        <v>873000</v>
       </c>
       <c r="F2814" s="2"/>
       <c r="G2814" s="2">
         <f t="shared" si="7"/>
-        <v>867900</v>
+        <v>851644.44444444438</v>
       </c>
     </row>
     <row r="2815" spans="1:10" x14ac:dyDescent="0.2">
@@ -28325,14 +28191,24 @@
         <f t="shared" si="6"/>
         <v>44100</v>
       </c>
+      <c r="B2815">
+        <v>849000</v>
+      </c>
+      <c r="C2815">
+        <v>798996</v>
+      </c>
       <c r="D2815">
         <f t="shared" si="8"/>
         <v>25</v>
       </c>
+      <c r="E2815" s="2">
+        <f t="shared" si="0"/>
+        <v>849000</v>
+      </c>
       <c r="F2815" s="2"/>
       <c r="G2815" s="2">
         <f t="shared" si="7"/>
-        <v>861000</v>
+        <v>835111.11111111101</v>
       </c>
     </row>
     <row r="2816" spans="1:10" x14ac:dyDescent="0.2">
@@ -28340,13 +28216,23 @@
         <f t="shared" si="6"/>
         <v>44107</v>
       </c>
+      <c r="B2816">
+        <v>767000</v>
+      </c>
+      <c r="C2816">
+        <v>731249</v>
+      </c>
       <c r="D2816">
         <f t="shared" si="8"/>
         <v>26</v>
       </c>
+      <c r="E2816" s="2">
+        <f t="shared" si="0"/>
+        <v>767000</v>
+      </c>
       <c r="G2816" s="2">
         <f t="shared" si="7"/>
-        <v>854100</v>
+        <v>818577.77777777775</v>
       </c>
     </row>
     <row r="2817" spans="1:7" x14ac:dyDescent="0.2">
@@ -28354,13 +28240,23 @@
         <f t="shared" si="6"/>
         <v>44114</v>
       </c>
+      <c r="B2817">
+        <v>842000</v>
+      </c>
+      <c r="C2817">
+        <v>829742</v>
+      </c>
       <c r="D2817">
         <f t="shared" si="8"/>
         <v>27</v>
       </c>
+      <c r="E2817" s="2">
+        <f t="shared" si="0"/>
+        <v>842000</v>
+      </c>
       <c r="G2817" s="2">
         <f t="shared" si="7"/>
-        <v>847200</v>
+        <v>802044.44444444438</v>
       </c>
     </row>
     <row r="2818" spans="1:7" x14ac:dyDescent="0.2">
@@ -28368,13 +28264,23 @@
         <f t="shared" si="6"/>
         <v>44121</v>
       </c>
+      <c r="B2818">
+        <v>791000</v>
+      </c>
+      <c r="C2818">
+        <v>760577</v>
+      </c>
       <c r="D2818">
         <f t="shared" si="8"/>
         <v>28</v>
       </c>
+      <c r="E2818" s="2">
+        <f t="shared" si="0"/>
+        <v>791000</v>
+      </c>
       <c r="G2818" s="2">
         <f t="shared" ref="G2818:G2824" si="16">$L$2794+D2818*$K$2794</f>
-        <v>840300</v>
+        <v>785511.11111111101</v>
       </c>
     </row>
     <row r="2819" spans="1:7" x14ac:dyDescent="0.2">
@@ -28382,13 +28288,23 @@
         <f t="shared" si="6"/>
         <v>44128</v>
       </c>
+      <c r="B2819">
+        <v>751000</v>
+      </c>
+      <c r="C2819">
+        <v>732223</v>
+      </c>
       <c r="D2819">
         <f t="shared" si="8"/>
         <v>29</v>
       </c>
+      <c r="E2819" s="2">
+        <f t="shared" si="0"/>
+        <v>751000</v>
+      </c>
       <c r="G2819" s="2">
         <f t="shared" si="16"/>
-        <v>833400</v>
+        <v>768977.77777777775</v>
       </c>
     </row>
     <row r="2820" spans="1:7" x14ac:dyDescent="0.2">
@@ -28402,7 +28318,7 @@
       </c>
       <c r="G2820" s="2">
         <f t="shared" si="16"/>
-        <v>826500</v>
+        <v>752444.44444444438</v>
       </c>
     </row>
     <row r="2821" spans="1:7" x14ac:dyDescent="0.2">
@@ -28416,7 +28332,7 @@
       </c>
       <c r="G2821" s="2">
         <f t="shared" si="16"/>
-        <v>819600</v>
+        <v>735911.11111111101</v>
       </c>
     </row>
     <row r="2822" spans="1:7" x14ac:dyDescent="0.2">
@@ -28430,7 +28346,7 @@
       </c>
       <c r="G2822" s="2">
         <f t="shared" si="16"/>
-        <v>812700</v>
+        <v>719377.77777777775</v>
       </c>
     </row>
     <row r="2823" spans="1:7" x14ac:dyDescent="0.2">
@@ -28444,7 +28360,7 @@
       </c>
       <c r="G2823" s="2">
         <f t="shared" si="16"/>
-        <v>805800</v>
+        <v>702844.44444444438</v>
       </c>
     </row>
     <row r="2824" spans="1:7" x14ac:dyDescent="0.2">
@@ -28458,7 +28374,7 @@
       </c>
       <c r="G2824" s="2">
         <f t="shared" si="16"/>
-        <v>798900</v>
+        <v>686311.11111111112</v>
       </c>
     </row>
     <row r="2825" spans="1:7" x14ac:dyDescent="0.2">
@@ -28472,7 +28388,7 @@
       </c>
       <c r="G2825" s="2">
         <f t="shared" ref="G2825:G2830" si="17">$L$2794+D2825*$K$2794</f>
-        <v>792000</v>
+        <v>669777.77777777775</v>
       </c>
     </row>
     <row r="2826" spans="1:7" x14ac:dyDescent="0.2">
@@ -28486,7 +28402,7 @@
       </c>
       <c r="G2826" s="2">
         <f t="shared" si="17"/>
-        <v>785100</v>
+        <v>653244.4444444445</v>
       </c>
     </row>
     <row r="2827" spans="1:7" x14ac:dyDescent="0.2">
@@ -28500,7 +28416,7 @@
       </c>
       <c r="G2827" s="2">
         <f t="shared" si="17"/>
-        <v>778200</v>
+        <v>636711.11111111112</v>
       </c>
     </row>
     <row r="2828" spans="1:7" x14ac:dyDescent="0.2">
@@ -28514,7 +28430,7 @@
       </c>
       <c r="G2828" s="2">
         <f t="shared" si="17"/>
-        <v>771300</v>
+        <v>620177.77777777775</v>
       </c>
     </row>
     <row r="2829" spans="1:7" x14ac:dyDescent="0.2">
@@ -28528,7 +28444,7 @@
       </c>
       <c r="G2829" s="2">
         <f t="shared" si="17"/>
-        <v>764400</v>
+        <v>603644.4444444445</v>
       </c>
     </row>
     <row r="2830" spans="1:7" x14ac:dyDescent="0.2">
@@ -28542,7 +28458,7 @@
       </c>
       <c r="G2830" s="2">
         <f t="shared" si="17"/>
-        <v>757500</v>
+        <v>587111.11111111112</v>
       </c>
     </row>
     <row r="2831" spans="1:7" x14ac:dyDescent="0.2">
@@ -28556,7 +28472,7 @@
       </c>
       <c r="G2831" s="2">
         <f t="shared" ref="G2831:G2843" si="18">$L$2794+D2831*$K$2794</f>
-        <v>750600</v>
+        <v>570577.77777777775</v>
       </c>
     </row>
     <row r="2832" spans="1:7" x14ac:dyDescent="0.2">
@@ -28570,7 +28486,7 @@
       </c>
       <c r="G2832" s="2">
         <f t="shared" si="18"/>
-        <v>743700</v>
+        <v>554044.4444444445</v>
       </c>
     </row>
     <row r="2833" spans="1:7" x14ac:dyDescent="0.2">
@@ -28584,7 +28500,7 @@
       </c>
       <c r="G2833" s="2">
         <f t="shared" si="18"/>
-        <v>736800</v>
+        <v>537511.11111111112</v>
       </c>
     </row>
     <row r="2834" spans="1:7" x14ac:dyDescent="0.2">
@@ -28598,7 +28514,7 @@
       </c>
       <c r="G2834" s="2">
         <f t="shared" si="18"/>
-        <v>729900</v>
+        <v>520977.77777777775</v>
       </c>
     </row>
     <row r="2835" spans="1:7" x14ac:dyDescent="0.2">
@@ -28612,7 +28528,7 @@
       </c>
       <c r="G2835" s="2">
         <f t="shared" si="18"/>
-        <v>723000</v>
+        <v>504444.4444444445</v>
       </c>
     </row>
     <row r="2836" spans="1:7" x14ac:dyDescent="0.2">
@@ -28626,7 +28542,7 @@
       </c>
       <c r="G2836" s="2">
         <f t="shared" si="18"/>
-        <v>716100</v>
+        <v>487911.11111111112</v>
       </c>
     </row>
     <row r="2837" spans="1:7" x14ac:dyDescent="0.2">
@@ -28640,7 +28556,7 @@
       </c>
       <c r="G2837" s="2">
         <f t="shared" si="18"/>
-        <v>709200</v>
+        <v>471377.77777777787</v>
       </c>
     </row>
     <row r="2838" spans="1:7" x14ac:dyDescent="0.2">
@@ -28654,7 +28570,7 @@
       </c>
       <c r="G2838" s="2">
         <f t="shared" si="18"/>
-        <v>702300</v>
+        <v>454844.4444444445</v>
       </c>
     </row>
     <row r="2839" spans="1:7" x14ac:dyDescent="0.2">
@@ -28668,7 +28584,7 @@
       </c>
       <c r="G2839" s="2">
         <f t="shared" si="18"/>
-        <v>695400</v>
+        <v>438311.11111111112</v>
       </c>
     </row>
     <row r="2840" spans="1:7" x14ac:dyDescent="0.2">
@@ -28682,7 +28598,7 @@
       </c>
       <c r="G2840" s="2">
         <f t="shared" si="18"/>
-        <v>688500</v>
+        <v>421777.77777777787</v>
       </c>
     </row>
     <row r="2841" spans="1:7" x14ac:dyDescent="0.2">
@@ -28696,7 +28612,7 @@
       </c>
       <c r="G2841" s="2">
         <f t="shared" si="18"/>
-        <v>681600</v>
+        <v>405244.4444444445</v>
       </c>
     </row>
     <row r="2842" spans="1:7" x14ac:dyDescent="0.2">
@@ -28710,7 +28626,7 @@
       </c>
       <c r="G2842" s="2">
         <f t="shared" si="18"/>
-        <v>674700</v>
+        <v>388711.11111111124</v>
       </c>
     </row>
     <row r="2843" spans="1:7" x14ac:dyDescent="0.2">
@@ -28724,7 +28640,7 @@
       </c>
       <c r="G2843" s="2">
         <f t="shared" si="18"/>
-        <v>667800</v>
+        <v>372177.77777777787</v>
       </c>
     </row>
   </sheetData>

--- a/ICSA.xlsx
+++ b/ICSA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rainy\Documents\GitHub\Economics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F2B33F4-04AE-4B62-9BCC-C7506A1E6DEE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C68AC20B-889B-4D8A-9531-9CAF20EE3ABE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -395,10 +395,10 @@
           </c:dPt>
           <c:xVal>
             <c:numRef>
-              <c:f>'FRED Graph'!$A$2790:$A$2820</c:f>
+              <c:f>'FRED Graph'!$A$2790:$A$2834</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>43925</c:v>
                 </c:pt>
@@ -491,16 +491,58 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>44135</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>44142</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>44149</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>44156</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>44163</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>44170</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>44177</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>44184</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>44191</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44198</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>44205</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>44212</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>44219</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44226</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44233</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'FRED Graph'!$E$2790:$E$2820</c:f>
+              <c:f>'FRED Graph'!$E$2790:$E$2834</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>6615000</c:v>
                 </c:pt>
@@ -586,10 +628,22 @@
                   <c:v>842000</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>791000</c:v>
+                  <c:v>797000</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>751000</c:v>
+                  <c:v>758000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>757000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>711000</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>748000</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>778000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -626,10 +680,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'FRED Graph'!$A$2790:$A$2820</c:f>
+              <c:f>'FRED Graph'!$A$2790:$A$2834</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>43925</c:v>
                 </c:pt>
@@ -722,87 +776,171 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>44135</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>44142</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>44149</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>44156</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>44163</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>44170</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>44177</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>44184</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>44191</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44198</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>44205</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>44212</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>44219</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44226</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44233</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'FRED Graph'!$G$2790:$G$2820</c:f>
+              <c:f>'FRED Graph'!$G$2790:$G$2834</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="7">
-                  <c:v>1132711.111111111</c:v>
+                  <c:v>1120355.5555555555</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1116177.7777777775</c:v>
+                  <c:v>1104588.8888888888</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1099644.4444444443</c:v>
+                  <c:v>1088822.222222222</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1083111.111111111</c:v>
+                  <c:v>1073055.5555555555</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1066577.7777777775</c:v>
+                  <c:v>1057288.8888888888</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1050044.4444444443</c:v>
+                  <c:v>1041522.222222222</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1033511.111111111</c:v>
+                  <c:v>1025755.5555555554</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1016977.7777777776</c:v>
+                  <c:v>1009988.8888888888</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1000444.4444444443</c:v>
+                  <c:v>994222.22222222213</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>983911.11111111101</c:v>
+                  <c:v>978455.5555555555</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>967377.77777777775</c:v>
+                  <c:v>962688.88888888876</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>950844.44444444438</c:v>
+                  <c:v>946922.22222222213</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>934311.11111111101</c:v>
+                  <c:v>931155.5555555555</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>917777.77777777775</c:v>
+                  <c:v>915388.88888888876</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>901244.44444444438</c:v>
+                  <c:v>899622.22222222213</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>884711.11111111101</c:v>
+                  <c:v>883855.5555555555</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>868177.77777777775</c:v>
+                  <c:v>868088.88888888876</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>851644.44444444438</c:v>
+                  <c:v>852322.22222222213</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>835111.11111111101</c:v>
+                  <c:v>836555.5555555555</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>818577.77777777775</c:v>
+                  <c:v>820788.88888888876</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>802044.44444444438</c:v>
+                  <c:v>805022.22222222225</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>785511.11111111101</c:v>
+                  <c:v>789255.5555555555</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>768977.77777777775</c:v>
+                  <c:v>773488.88888888888</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>752444.44444444438</c:v>
+                  <c:v>757722.22222222225</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>741955.5555555555</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>726188.88888888888</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>710422.22222222225</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>694655.5555555555</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>678888.88888888888</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>663122.22222222225</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>647355.55555555562</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>631588.88888888888</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>615822.22222222225</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>600055.55555555562</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>584288.88888888888</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>568522.22222222225</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>552755.55555555562</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>536988.88888888899</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -833,10 +971,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'FRED Graph'!$A$2790:$A$2805</c:f>
+              <c:f>'FRED Graph'!$A$2790:$A$2834</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>43925</c:v>
                 </c:pt>
@@ -884,16 +1022,103 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>44030</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44037</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44044</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44051</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44058</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44065</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44072</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44079</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44086</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44093</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>44100</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44107</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>44114</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>44121</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44128</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>44135</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>44142</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>44149</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>44156</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>44163</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>44170</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>44177</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>44184</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>44191</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44198</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>44205</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>44212</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>44219</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44226</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44233</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'FRED Graph'!$H$2790:$H$2805</c:f>
+              <c:f>'FRED Graph'!$H$2790:$H$2834</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>700000</c:v>
                 </c:pt>
@@ -940,6 +1165,75 @@
                   <c:v>700000</c:v>
                 </c:pt>
                 <c:pt idx="15">
+                  <c:v>700000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>700000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>700000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>700000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>700000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>700000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>700000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>700000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>700000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>700000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>700000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>700000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>700000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>700000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>700000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>700000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>700000</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>700000</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>700000</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>700000</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>700000</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>700000</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>700000</c:v>
+                </c:pt>
+                <c:pt idx="38">
                   <c:v>700000</c:v>
                 </c:pt>
               </c:numCache>
@@ -993,11 +1287,11 @@
           </c:marker>
           <c:dLbls>
             <c:dLbl>
-              <c:idx val="29"/>
+              <c:idx val="33"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-6.8858904928082332E-2"/>
-                  <c:y val="-0.12847841353797634"/>
+                  <c:x val="-8.853287776467729E-2"/>
+                  <c:y val="-0.13676734344365224"/>
                 </c:manualLayout>
               </c:layout>
               <c:showLegendKey val="0"/>
@@ -1009,7 +1303,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000016-C5BF-4BE3-9BB5-7E89DA8CB275}"/>
+                  <c16:uniqueId val="{00000016-FA45-49FE-885C-D36DB360161C}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1034,10 +1328,10 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>'FRED Graph'!$A$2790:$A$2819</c:f>
+              <c:f>'FRED Graph'!$A$2790:$A$2834</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>43925</c:v>
                 </c:pt>
@@ -1127,16 +1421,61 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>44128</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>44135</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>44142</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>44149</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>44156</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>44163</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>44170</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>44177</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>44184</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>44191</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44198</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>44205</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>44212</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>44219</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44226</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44233</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'FRED Graph'!$C$2790:$C$2819</c:f>
+              <c:f>'FRED Graph'!$C$2790:$C$2834</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>6211406</c:v>
                 </c:pt>
@@ -1222,10 +1561,22 @@
                   <c:v>829742</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>760577</c:v>
+                  <c:v>766520</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>732223</c:v>
+                  <c:v>738709</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>743904</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>725361</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>749338</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>827710</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1476,7 +1827,7 @@
         <c:axId val="319767456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="44150"/>
+          <c:max val="44164"/>
           <c:min val="43920"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -2183,8 +2534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L2843"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D2766" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="J2783" sqref="J2783"/>
+    <sheetView tabSelected="1" topLeftCell="B2766" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="J2777" sqref="J2777"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -27290,7 +27641,7 @@
         <v>0</v>
       </c>
       <c r="E2790" s="2">
-        <f t="shared" ref="E2790:E2819" si="0">B2790</f>
+        <f t="shared" ref="E2790:E2823" si="0">B2790</f>
         <v>6615000</v>
       </c>
       <c r="F2790" s="2">
@@ -27370,7 +27721,7 @@
       </c>
       <c r="G2792" s="2"/>
       <c r="H2792">
-        <f t="shared" ref="H2792:H2809" si="5">H2791</f>
+        <f t="shared" ref="H2792:H2828" si="5">H2791</f>
         <v>700000</v>
       </c>
       <c r="I2792" s="1">
@@ -27455,10 +27806,10 @@
       </c>
       <c r="K2794">
         <f t="array" ref="K2794:L2795">LINEST(B2811:B2819,D2811:D2819)</f>
-        <v>-16533.333333333328</v>
+        <v>-15766.666666666661</v>
       </c>
       <c r="L2794">
-        <v>1248444.4444444443</v>
+        <v>1230722.222222222</v>
       </c>
     </row>
     <row r="2795" spans="1:12" x14ac:dyDescent="0.2">
@@ -27498,10 +27849,10 @@
         <v>602000</v>
       </c>
       <c r="K2795">
-        <v>-16533.333333333328</v>
+        <v>-15766.666666666661</v>
       </c>
       <c r="L2795">
-        <v>1248444.4444444443</v>
+        <v>1230722.222222222</v>
       </c>
     </row>
     <row r="2796" spans="1:12" x14ac:dyDescent="0.2">
@@ -27566,7 +27917,7 @@
       </c>
       <c r="G2797" s="2">
         <f>$L$2794+D2797*$K$2794</f>
-        <v>1132711.111111111</v>
+        <v>1120355.5555555555</v>
       </c>
       <c r="H2797">
         <f t="shared" si="5"/>
@@ -27606,7 +27957,7 @@
       </c>
       <c r="G2798" s="2">
         <f t="shared" ref="G2798:G2817" si="7">$L$2794+D2798*$K$2794</f>
-        <v>1116177.7777777775</v>
+        <v>1104588.8888888888</v>
       </c>
       <c r="H2798">
         <f t="shared" si="5"/>
@@ -27646,7 +27997,7 @@
       </c>
       <c r="G2799" s="2">
         <f t="shared" si="7"/>
-        <v>1099644.4444444443</v>
+        <v>1088822.222222222</v>
       </c>
       <c r="H2799">
         <f t="shared" si="5"/>
@@ -27686,7 +28037,7 @@
       </c>
       <c r="G2800" s="2">
         <f t="shared" si="7"/>
-        <v>1083111.111111111</v>
+        <v>1073055.5555555555</v>
       </c>
       <c r="H2800">
         <f t="shared" si="5"/>
@@ -27726,7 +28077,7 @@
       </c>
       <c r="G2801" s="2">
         <f t="shared" si="7"/>
-        <v>1066577.7777777775</v>
+        <v>1057288.8888888888</v>
       </c>
       <c r="H2801">
         <f t="shared" si="5"/>
@@ -27766,7 +28117,7 @@
       </c>
       <c r="G2802" s="2">
         <f t="shared" si="7"/>
-        <v>1050044.4444444443</v>
+        <v>1041522.222222222</v>
       </c>
       <c r="H2802">
         <f t="shared" si="5"/>
@@ -27806,7 +28157,7 @@
       </c>
       <c r="G2803" s="2">
         <f t="shared" si="7"/>
-        <v>1033511.111111111</v>
+        <v>1025755.5555555554</v>
       </c>
       <c r="H2803">
         <f t="shared" si="5"/>
@@ -27846,7 +28197,7 @@
       </c>
       <c r="G2804" s="2">
         <f t="shared" si="7"/>
-        <v>1016977.7777777776</v>
+        <v>1009988.8888888888</v>
       </c>
       <c r="H2804">
         <f t="shared" si="5"/>
@@ -27886,7 +28237,7 @@
       </c>
       <c r="G2805" s="2">
         <f t="shared" si="7"/>
-        <v>1000444.4444444443</v>
+        <v>994222.22222222213</v>
       </c>
       <c r="H2805">
         <f t="shared" si="5"/>
@@ -27926,7 +28277,7 @@
       </c>
       <c r="G2806" s="2">
         <f t="shared" si="7"/>
-        <v>983911.11111111101</v>
+        <v>978455.5555555555</v>
       </c>
       <c r="H2806">
         <f t="shared" si="5"/>
@@ -27966,7 +28317,7 @@
       </c>
       <c r="G2807" s="2">
         <f t="shared" si="7"/>
-        <v>967377.77777777775</v>
+        <v>962688.88888888876</v>
       </c>
       <c r="H2807">
         <f t="shared" si="5"/>
@@ -28006,7 +28357,7 @@
       </c>
       <c r="G2808" s="2">
         <f t="shared" si="7"/>
-        <v>950844.44444444438</v>
+        <v>946922.22222222213</v>
       </c>
       <c r="H2808">
         <f t="shared" si="5"/>
@@ -28046,7 +28397,7 @@
       </c>
       <c r="G2809" s="2">
         <f t="shared" si="7"/>
-        <v>934311.11111111101</v>
+        <v>931155.5555555555</v>
       </c>
       <c r="H2809">
         <f t="shared" si="5"/>
@@ -28083,7 +28434,11 @@
       <c r="F2810" s="2"/>
       <c r="G2810" s="2">
         <f t="shared" si="7"/>
-        <v>917777.77777777775</v>
+        <v>915388.88888888876</v>
+      </c>
+      <c r="H2810">
+        <f t="shared" si="5"/>
+        <v>700000</v>
       </c>
     </row>
     <row r="2811" spans="1:10" x14ac:dyDescent="0.2">
@@ -28108,7 +28463,11 @@
       <c r="F2811" s="2"/>
       <c r="G2811" s="2">
         <f t="shared" si="7"/>
-        <v>901244.44444444438</v>
+        <v>899622.22222222213</v>
+      </c>
+      <c r="H2811">
+        <f t="shared" si="5"/>
+        <v>700000</v>
       </c>
     </row>
     <row r="2812" spans="1:10" x14ac:dyDescent="0.2">
@@ -28133,7 +28492,11 @@
       <c r="F2812" s="2"/>
       <c r="G2812" s="2">
         <f t="shared" si="7"/>
-        <v>884711.11111111101</v>
+        <v>883855.5555555555</v>
+      </c>
+      <c r="H2812">
+        <f t="shared" si="5"/>
+        <v>700000</v>
       </c>
     </row>
     <row r="2813" spans="1:10" x14ac:dyDescent="0.2">
@@ -28158,7 +28521,11 @@
       <c r="F2813" s="2"/>
       <c r="G2813" s="2">
         <f t="shared" si="7"/>
-        <v>868177.77777777775</v>
+        <v>868088.88888888876</v>
+      </c>
+      <c r="H2813">
+        <f t="shared" si="5"/>
+        <v>700000</v>
       </c>
     </row>
     <row r="2814" spans="1:10" x14ac:dyDescent="0.2">
@@ -28183,7 +28550,11 @@
       <c r="F2814" s="2"/>
       <c r="G2814" s="2">
         <f t="shared" si="7"/>
-        <v>851644.44444444438</v>
+        <v>852322.22222222213</v>
+      </c>
+      <c r="H2814">
+        <f t="shared" si="5"/>
+        <v>700000</v>
       </c>
     </row>
     <row r="2815" spans="1:10" x14ac:dyDescent="0.2">
@@ -28208,7 +28579,11 @@
       <c r="F2815" s="2"/>
       <c r="G2815" s="2">
         <f t="shared" si="7"/>
-        <v>835111.11111111101</v>
+        <v>836555.5555555555</v>
+      </c>
+      <c r="H2815">
+        <f t="shared" si="5"/>
+        <v>700000</v>
       </c>
     </row>
     <row r="2816" spans="1:10" x14ac:dyDescent="0.2">
@@ -28232,10 +28607,14 @@
       </c>
       <c r="G2816" s="2">
         <f t="shared" si="7"/>
-        <v>818577.77777777775</v>
-      </c>
-    </row>
-    <row r="2817" spans="1:7" x14ac:dyDescent="0.2">
+        <v>820788.88888888876</v>
+      </c>
+      <c r="H2816">
+        <f t="shared" si="5"/>
+        <v>700000</v>
+      </c>
+    </row>
+    <row r="2817" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2817" s="1">
         <f t="shared" si="6"/>
         <v>44114</v>
@@ -28256,19 +28635,23 @@
       </c>
       <c r="G2817" s="2">
         <f t="shared" si="7"/>
-        <v>802044.44444444438</v>
-      </c>
-    </row>
-    <row r="2818" spans="1:7" x14ac:dyDescent="0.2">
+        <v>805022.22222222225</v>
+      </c>
+      <c r="H2817">
+        <f t="shared" si="5"/>
+        <v>700000</v>
+      </c>
+    </row>
+    <row r="2818" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2818" s="1">
         <f t="shared" si="6"/>
         <v>44121</v>
       </c>
       <c r="B2818">
-        <v>791000</v>
+        <v>797000</v>
       </c>
       <c r="C2818">
-        <v>760577</v>
+        <v>766520</v>
       </c>
       <c r="D2818">
         <f t="shared" si="8"/>
@@ -28276,23 +28659,27 @@
       </c>
       <c r="E2818" s="2">
         <f t="shared" si="0"/>
-        <v>791000</v>
+        <v>797000</v>
       </c>
       <c r="G2818" s="2">
         <f t="shared" ref="G2818:G2824" si="16">$L$2794+D2818*$K$2794</f>
-        <v>785511.11111111101</v>
-      </c>
-    </row>
-    <row r="2819" spans="1:7" x14ac:dyDescent="0.2">
+        <v>789255.5555555555</v>
+      </c>
+      <c r="H2818">
+        <f t="shared" si="5"/>
+        <v>700000</v>
+      </c>
+    </row>
+    <row r="2819" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2819" s="1">
         <f t="shared" si="6"/>
         <v>44128</v>
       </c>
       <c r="B2819">
-        <v>751000</v>
+        <v>758000</v>
       </c>
       <c r="C2819">
-        <v>732223</v>
+        <v>738709</v>
       </c>
       <c r="D2819">
         <f t="shared" si="8"/>
@@ -28300,70 +28687,130 @@
       </c>
       <c r="E2819" s="2">
         <f t="shared" si="0"/>
-        <v>751000</v>
+        <v>758000</v>
       </c>
       <c r="G2819" s="2">
         <f t="shared" si="16"/>
-        <v>768977.77777777775</v>
-      </c>
-    </row>
-    <row r="2820" spans="1:7" x14ac:dyDescent="0.2">
+        <v>773488.88888888888</v>
+      </c>
+      <c r="H2819">
+        <f t="shared" si="5"/>
+        <v>700000</v>
+      </c>
+    </row>
+    <row r="2820" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2820" s="1">
         <f t="shared" si="6"/>
         <v>44135</v>
       </c>
+      <c r="B2820">
+        <v>757000</v>
+      </c>
+      <c r="C2820">
+        <v>743904</v>
+      </c>
       <c r="D2820">
         <f t="shared" si="8"/>
         <v>30</v>
       </c>
+      <c r="E2820" s="2">
+        <f t="shared" si="0"/>
+        <v>757000</v>
+      </c>
       <c r="G2820" s="2">
         <f t="shared" si="16"/>
-        <v>752444.44444444438</v>
-      </c>
-    </row>
-    <row r="2821" spans="1:7" x14ac:dyDescent="0.2">
+        <v>757722.22222222225</v>
+      </c>
+      <c r="H2820">
+        <f t="shared" si="5"/>
+        <v>700000</v>
+      </c>
+    </row>
+    <row r="2821" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2821" s="1">
         <f t="shared" si="6"/>
         <v>44142</v>
       </c>
+      <c r="B2821">
+        <v>711000</v>
+      </c>
+      <c r="C2821">
+        <v>725361</v>
+      </c>
       <c r="D2821">
         <f t="shared" si="8"/>
         <v>31</v>
       </c>
+      <c r="E2821" s="2">
+        <f t="shared" si="0"/>
+        <v>711000</v>
+      </c>
       <c r="G2821" s="2">
         <f t="shared" si="16"/>
-        <v>735911.11111111101</v>
-      </c>
-    </row>
-    <row r="2822" spans="1:7" x14ac:dyDescent="0.2">
+        <v>741955.5555555555</v>
+      </c>
+      <c r="H2821">
+        <f t="shared" si="5"/>
+        <v>700000</v>
+      </c>
+    </row>
+    <row r="2822" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2822" s="1">
         <f t="shared" si="6"/>
         <v>44149</v>
       </c>
+      <c r="B2822">
+        <v>748000</v>
+      </c>
+      <c r="C2822">
+        <v>749338</v>
+      </c>
       <c r="D2822">
         <f t="shared" si="8"/>
         <v>32</v>
       </c>
+      <c r="E2822" s="2">
+        <f t="shared" si="0"/>
+        <v>748000</v>
+      </c>
       <c r="G2822" s="2">
         <f t="shared" si="16"/>
-        <v>719377.77777777775</v>
-      </c>
-    </row>
-    <row r="2823" spans="1:7" x14ac:dyDescent="0.2">
+        <v>726188.88888888888</v>
+      </c>
+      <c r="H2822">
+        <f t="shared" si="5"/>
+        <v>700000</v>
+      </c>
+    </row>
+    <row r="2823" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2823" s="1">
         <f t="shared" si="6"/>
         <v>44156</v>
       </c>
+      <c r="B2823">
+        <v>778000</v>
+      </c>
+      <c r="C2823">
+        <v>827710</v>
+      </c>
       <c r="D2823">
         <f t="shared" si="8"/>
         <v>33</v>
       </c>
+      <c r="E2823" s="2">
+        <f t="shared" si="0"/>
+        <v>778000</v>
+      </c>
       <c r="G2823" s="2">
         <f t="shared" si="16"/>
-        <v>702844.44444444438</v>
-      </c>
-    </row>
-    <row r="2824" spans="1:7" x14ac:dyDescent="0.2">
+        <v>710422.22222222225</v>
+      </c>
+      <c r="H2823">
+        <f t="shared" si="5"/>
+        <v>700000</v>
+      </c>
+    </row>
+    <row r="2824" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2824" s="1">
         <f t="shared" si="6"/>
         <v>44163</v>
@@ -28374,10 +28821,14 @@
       </c>
       <c r="G2824" s="2">
         <f t="shared" si="16"/>
-        <v>686311.11111111112</v>
-      </c>
-    </row>
-    <row r="2825" spans="1:7" x14ac:dyDescent="0.2">
+        <v>694655.5555555555</v>
+      </c>
+      <c r="H2824">
+        <f t="shared" si="5"/>
+        <v>700000</v>
+      </c>
+    </row>
+    <row r="2825" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2825" s="1">
         <f t="shared" si="6"/>
         <v>44170</v>
@@ -28388,10 +28839,14 @@
       </c>
       <c r="G2825" s="2">
         <f t="shared" ref="G2825:G2830" si="17">$L$2794+D2825*$K$2794</f>
-        <v>669777.77777777775</v>
-      </c>
-    </row>
-    <row r="2826" spans="1:7" x14ac:dyDescent="0.2">
+        <v>678888.88888888888</v>
+      </c>
+      <c r="H2825">
+        <f t="shared" si="5"/>
+        <v>700000</v>
+      </c>
+    </row>
+    <row r="2826" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2826" s="1">
         <f t="shared" si="6"/>
         <v>44177</v>
@@ -28402,10 +28857,14 @@
       </c>
       <c r="G2826" s="2">
         <f t="shared" si="17"/>
-        <v>653244.4444444445</v>
-      </c>
-    </row>
-    <row r="2827" spans="1:7" x14ac:dyDescent="0.2">
+        <v>663122.22222222225</v>
+      </c>
+      <c r="H2826">
+        <f t="shared" si="5"/>
+        <v>700000</v>
+      </c>
+    </row>
+    <row r="2827" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2827" s="1">
         <f t="shared" si="6"/>
         <v>44184</v>
@@ -28416,10 +28875,14 @@
       </c>
       <c r="G2827" s="2">
         <f t="shared" si="17"/>
-        <v>636711.11111111112</v>
-      </c>
-    </row>
-    <row r="2828" spans="1:7" x14ac:dyDescent="0.2">
+        <v>647355.55555555562</v>
+      </c>
+      <c r="H2827">
+        <f t="shared" si="5"/>
+        <v>700000</v>
+      </c>
+    </row>
+    <row r="2828" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2828" s="1">
         <f t="shared" si="6"/>
         <v>44191</v>
@@ -28430,10 +28893,14 @@
       </c>
       <c r="G2828" s="2">
         <f t="shared" si="17"/>
-        <v>620177.77777777775</v>
-      </c>
-    </row>
-    <row r="2829" spans="1:7" x14ac:dyDescent="0.2">
+        <v>631588.88888888888</v>
+      </c>
+      <c r="H2828">
+        <f t="shared" si="5"/>
+        <v>700000</v>
+      </c>
+    </row>
+    <row r="2829" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2829" s="1">
         <f t="shared" si="6"/>
         <v>44198</v>
@@ -28444,10 +28911,10 @@
       </c>
       <c r="G2829" s="2">
         <f t="shared" si="17"/>
-        <v>603644.4444444445</v>
-      </c>
-    </row>
-    <row r="2830" spans="1:7" x14ac:dyDescent="0.2">
+        <v>615822.22222222225</v>
+      </c>
+    </row>
+    <row r="2830" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2830" s="1">
         <f t="shared" si="6"/>
         <v>44205</v>
@@ -28458,10 +28925,10 @@
       </c>
       <c r="G2830" s="2">
         <f t="shared" si="17"/>
-        <v>587111.11111111112</v>
-      </c>
-    </row>
-    <row r="2831" spans="1:7" x14ac:dyDescent="0.2">
+        <v>600055.55555555562</v>
+      </c>
+    </row>
+    <row r="2831" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2831" s="1">
         <f t="shared" si="6"/>
         <v>44212</v>
@@ -28472,10 +28939,10 @@
       </c>
       <c r="G2831" s="2">
         <f t="shared" ref="G2831:G2843" si="18">$L$2794+D2831*$K$2794</f>
-        <v>570577.77777777775</v>
-      </c>
-    </row>
-    <row r="2832" spans="1:7" x14ac:dyDescent="0.2">
+        <v>584288.88888888888</v>
+      </c>
+    </row>
+    <row r="2832" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2832" s="1">
         <f t="shared" si="6"/>
         <v>44219</v>
@@ -28486,7 +28953,7 @@
       </c>
       <c r="G2832" s="2">
         <f t="shared" si="18"/>
-        <v>554044.4444444445</v>
+        <v>568522.22222222225</v>
       </c>
     </row>
     <row r="2833" spans="1:7" x14ac:dyDescent="0.2">
@@ -28500,7 +28967,7 @@
       </c>
       <c r="G2833" s="2">
         <f t="shared" si="18"/>
-        <v>537511.11111111112</v>
+        <v>552755.55555555562</v>
       </c>
     </row>
     <row r="2834" spans="1:7" x14ac:dyDescent="0.2">
@@ -28514,7 +28981,7 @@
       </c>
       <c r="G2834" s="2">
         <f t="shared" si="18"/>
-        <v>520977.77777777775</v>
+        <v>536988.88888888899</v>
       </c>
     </row>
     <row r="2835" spans="1:7" x14ac:dyDescent="0.2">
@@ -28528,7 +28995,7 @@
       </c>
       <c r="G2835" s="2">
         <f t="shared" si="18"/>
-        <v>504444.4444444445</v>
+        <v>521222.22222222225</v>
       </c>
     </row>
     <row r="2836" spans="1:7" x14ac:dyDescent="0.2">
@@ -28542,7 +29009,7 @@
       </c>
       <c r="G2836" s="2">
         <f t="shared" si="18"/>
-        <v>487911.11111111112</v>
+        <v>505455.55555555562</v>
       </c>
     </row>
     <row r="2837" spans="1:7" x14ac:dyDescent="0.2">
@@ -28556,7 +29023,7 @@
       </c>
       <c r="G2837" s="2">
         <f t="shared" si="18"/>
-        <v>471377.77777777787</v>
+        <v>489688.88888888899</v>
       </c>
     </row>
     <row r="2838" spans="1:7" x14ac:dyDescent="0.2">
@@ -28570,7 +29037,7 @@
       </c>
       <c r="G2838" s="2">
         <f t="shared" si="18"/>
-        <v>454844.4444444445</v>
+        <v>473922.22222222225</v>
       </c>
     </row>
     <row r="2839" spans="1:7" x14ac:dyDescent="0.2">
@@ -28584,7 +29051,7 @@
       </c>
       <c r="G2839" s="2">
         <f t="shared" si="18"/>
-        <v>438311.11111111112</v>
+        <v>458155.55555555562</v>
       </c>
     </row>
     <row r="2840" spans="1:7" x14ac:dyDescent="0.2">
@@ -28598,7 +29065,7 @@
       </c>
       <c r="G2840" s="2">
         <f t="shared" si="18"/>
-        <v>421777.77777777787</v>
+        <v>442388.88888888899</v>
       </c>
     </row>
     <row r="2841" spans="1:7" x14ac:dyDescent="0.2">
@@ -28612,7 +29079,7 @@
       </c>
       <c r="G2841" s="2">
         <f t="shared" si="18"/>
-        <v>405244.4444444445</v>
+        <v>426622.22222222236</v>
       </c>
     </row>
     <row r="2842" spans="1:7" x14ac:dyDescent="0.2">
@@ -28626,7 +29093,7 @@
       </c>
       <c r="G2842" s="2">
         <f t="shared" si="18"/>
-        <v>388711.11111111124</v>
+        <v>410855.55555555562</v>
       </c>
     </row>
     <row r="2843" spans="1:7" x14ac:dyDescent="0.2">
@@ -28640,7 +29107,7 @@
       </c>
       <c r="G2843" s="2">
         <f t="shared" si="18"/>
-        <v>372177.77777777787</v>
+        <v>395088.88888888899</v>
       </c>
     </row>
   </sheetData>

--- a/ICSA.xlsx
+++ b/ICSA.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rainy\Documents\GitHub\Economics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Documents\Hobby\GitHub\Economics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C68AC20B-889B-4D8A-9531-9CAF20EE3ABE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="FRED Graph" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -76,7 +75,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
@@ -146,7 +145,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -185,6 +184,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -233,7 +233,7 @@
                 <a:noFill/>
               </a:ln>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-56E9-43F7-B39A-E50EC1519892}"/>
               </c:ext>
@@ -247,7 +247,7 @@
                 <a:noFill/>
               </a:ln>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000003-56E9-43F7-B39A-E50EC1519892}"/>
               </c:ext>
@@ -261,7 +261,7 @@
                 <a:noFill/>
               </a:ln>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000008-56E9-43F7-B39A-E50EC1519892}"/>
               </c:ext>
@@ -270,7 +270,7 @@
           <c:dPt>
             <c:idx val="8"/>
             <c:bubble3D val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000006-B4B4-49F9-88A6-AD61E14B1813}"/>
               </c:ext>
@@ -279,7 +279,7 @@
           <c:dPt>
             <c:idx val="9"/>
             <c:bubble3D val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000008-A5CB-4AB6-BD38-9E83578F397A}"/>
               </c:ext>
@@ -288,7 +288,7 @@
           <c:dPt>
             <c:idx val="10"/>
             <c:bubble3D val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000009-52C0-4AD5-9C4F-84C6A8D6C45A}"/>
               </c:ext>
@@ -297,7 +297,7 @@
           <c:dPt>
             <c:idx val="11"/>
             <c:bubble3D val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{0000000A-C50B-48F4-A2F4-54F811AB10FD}"/>
               </c:ext>
@@ -306,7 +306,7 @@
           <c:dPt>
             <c:idx val="12"/>
             <c:bubble3D val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{0000000B-3D9A-412C-BCFC-649B06B1B8B3}"/>
               </c:ext>
@@ -315,7 +315,7 @@
           <c:dPt>
             <c:idx val="13"/>
             <c:bubble3D val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{0000000C-3D9A-412C-BCFC-649B06B1B8B3}"/>
               </c:ext>
@@ -324,7 +324,7 @@
           <c:dPt>
             <c:idx val="14"/>
             <c:bubble3D val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{0000000E-B570-48EF-B292-39A76C873821}"/>
               </c:ext>
@@ -333,7 +333,7 @@
           <c:dPt>
             <c:idx val="16"/>
             <c:bubble3D val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{0000000F-DB56-479E-B280-6E91F9186CE7}"/>
               </c:ext>
@@ -342,7 +342,7 @@
           <c:dPt>
             <c:idx val="17"/>
             <c:bubble3D val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000010-97BA-4B6F-856E-560FC725EC0D}"/>
               </c:ext>
@@ -351,7 +351,7 @@
           <c:dPt>
             <c:idx val="18"/>
             <c:bubble3D val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000011-E24E-4EE8-BD0E-05E3087D45DD}"/>
               </c:ext>
@@ -360,7 +360,7 @@
           <c:dPt>
             <c:idx val="19"/>
             <c:bubble3D val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000012-8F2D-476D-A204-FDD45BBF8E81}"/>
               </c:ext>
@@ -369,7 +369,7 @@
           <c:dPt>
             <c:idx val="20"/>
             <c:bubble3D val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000013-4987-4962-8598-9154E7189D26}"/>
               </c:ext>
@@ -378,7 +378,7 @@
           <c:dPt>
             <c:idx val="21"/>
             <c:bubble3D val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000014-675D-481F-8D94-9D15092DBBBF}"/>
               </c:ext>
@@ -387,7 +387,7 @@
           <c:dPt>
             <c:idx val="23"/>
             <c:bubble3D val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000015-6AB2-4F29-92B3-FA31E2EB6469}"/>
               </c:ext>
@@ -643,13 +643,28 @@
                   <c:v>748000</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>778000</c:v>
+                  <c:v>787000</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>716000</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>862000</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>892000</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>806000</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>787000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-56E9-43F7-B39A-E50EC1519892}"/>
             </c:ext>
@@ -946,7 +961,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-56E9-43F7-B39A-E50EC1519892}"/>
             </c:ext>
@@ -1240,7 +1255,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-56E9-43F7-B39A-E50EC1519892}"/>
             </c:ext>
@@ -1254,8 +1269,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="319767456"/>
-        <c:axId val="1"/>
+        <c:axId val="2022590160"/>
+        <c:axId val="2022577648"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -1287,11 +1302,11 @@
           </c:marker>
           <c:dLbls>
             <c:dLbl>
-              <c:idx val="33"/>
+              <c:idx val="38"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-8.853287776467729E-2"/>
-                  <c:y val="-0.13676734344365224"/>
+                  <c:x val="-9.8369864182974692E-2"/>
+                  <c:y val="-0.11604501867946251"/>
                 </c:manualLayout>
               </c:layout>
               <c:showLegendKey val="0"/>
@@ -1301,9 +1316,8 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000016-FA45-49FE-885C-D36DB360161C}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1576,13 +1590,28 @@
                   <c:v>749338</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>827710</c:v>
+                  <c:v>835914</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>718522</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>956473</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>941910</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>872847</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>841111</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000F-B570-48EF-B292-39A76C873821}"/>
             </c:ext>
@@ -1662,13 +1691,14 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-C50B-48F4-A2F4-54F811AB10FD}"/>
+                </c:ext>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000B-C50B-48F4-A2F4-54F811AB10FD}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1685,7 +1715,7 @@
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
               </c:ext>
@@ -1806,7 +1836,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000007-56E9-43F7-B39A-E50EC1519892}"/>
             </c:ext>
@@ -1820,14 +1850,14 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="3"/>
-        <c:axId val="4"/>
+        <c:axId val="2063780704"/>
+        <c:axId val="2063791040"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="319767456"/>
+        <c:axId val="2022590160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="44164"/>
+          <c:max val="44194"/>
           <c:min val="43920"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1872,6 +1902,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1914,13 +1945,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1"/>
+        <c:crossAx val="2022577648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="30"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1"/>
+        <c:axId val="2022577648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1966,6 +1997,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2011,12 +2043,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="319767456"/>
+        <c:crossAx val="2022590160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="3"/>
+        <c:axId val="2063780704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2026,12 +2058,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="4"/>
+        <c:crossAx val="2063791040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="4"/>
+        <c:axId val="2063791040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="7000000"/>
@@ -2065,6 +2097,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2110,7 +2143,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="3"/>
+        <c:crossAx val="2063780704"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2127,6 +2160,7 @@
         <c:idx val="5"/>
         <c:delete val="1"/>
       </c:legendEntry>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2212,7 +2246,7 @@
         <xdr:cNvPr id="1041" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1139446-7452-42CF-AFE8-077EBF68E693}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E1139446-7452-42CF-AFE8-077EBF68E693}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2531,11 +2565,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L2843"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2766" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="J2777" sqref="J2777"/>
+    <sheetView tabSelected="1" topLeftCell="C2766" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="J2778" sqref="J2778"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -27641,7 +27675,7 @@
         <v>0</v>
       </c>
       <c r="E2790" s="2">
-        <f t="shared" ref="E2790:E2823" si="0">B2790</f>
+        <f t="shared" ref="E2790:E2828" si="0">B2790</f>
         <v>6615000</v>
       </c>
       <c r="F2790" s="2">
@@ -28788,10 +28822,10 @@
         <v>44156</v>
       </c>
       <c r="B2823">
-        <v>778000</v>
+        <v>787000</v>
       </c>
       <c r="C2823">
-        <v>827710</v>
+        <v>835914</v>
       </c>
       <c r="D2823">
         <f t="shared" si="8"/>
@@ -28799,7 +28833,7 @@
       </c>
       <c r="E2823" s="2">
         <f t="shared" si="0"/>
-        <v>778000</v>
+        <v>787000</v>
       </c>
       <c r="G2823" s="2">
         <f t="shared" si="16"/>
@@ -28815,9 +28849,19 @@
         <f t="shared" si="6"/>
         <v>44163</v>
       </c>
+      <c r="B2824">
+        <v>716000</v>
+      </c>
+      <c r="C2824">
+        <v>718522</v>
+      </c>
       <c r="D2824">
         <f t="shared" si="8"/>
         <v>34</v>
+      </c>
+      <c r="E2824" s="2">
+        <f t="shared" si="0"/>
+        <v>716000</v>
       </c>
       <c r="G2824" s="2">
         <f t="shared" si="16"/>
@@ -28833,9 +28877,19 @@
         <f t="shared" si="6"/>
         <v>44170</v>
       </c>
+      <c r="B2825">
+        <v>862000</v>
+      </c>
+      <c r="C2825">
+        <v>956473</v>
+      </c>
       <c r="D2825">
         <f t="shared" si="8"/>
         <v>35</v>
+      </c>
+      <c r="E2825" s="2">
+        <f t="shared" si="0"/>
+        <v>862000</v>
       </c>
       <c r="G2825" s="2">
         <f t="shared" ref="G2825:G2830" si="17">$L$2794+D2825*$K$2794</f>
@@ -28851,9 +28905,19 @@
         <f t="shared" si="6"/>
         <v>44177</v>
       </c>
+      <c r="B2826">
+        <v>892000</v>
+      </c>
+      <c r="C2826">
+        <v>941910</v>
+      </c>
       <c r="D2826">
         <f t="shared" si="8"/>
         <v>36</v>
+      </c>
+      <c r="E2826" s="2">
+        <f t="shared" si="0"/>
+        <v>892000</v>
       </c>
       <c r="G2826" s="2">
         <f t="shared" si="17"/>
@@ -28869,9 +28933,19 @@
         <f t="shared" si="6"/>
         <v>44184</v>
       </c>
+      <c r="B2827">
+        <v>806000</v>
+      </c>
+      <c r="C2827">
+        <v>872847</v>
+      </c>
       <c r="D2827">
         <f t="shared" si="8"/>
         <v>37</v>
+      </c>
+      <c r="E2827" s="2">
+        <f t="shared" si="0"/>
+        <v>806000</v>
       </c>
       <c r="G2827" s="2">
         <f t="shared" si="17"/>
@@ -28887,9 +28961,19 @@
         <f t="shared" si="6"/>
         <v>44191</v>
       </c>
+      <c r="B2828">
+        <v>787000</v>
+      </c>
+      <c r="C2828">
+        <v>841111</v>
+      </c>
       <c r="D2828">
         <f t="shared" si="8"/>
         <v>38</v>
+      </c>
+      <c r="E2828" s="2">
+        <f t="shared" si="0"/>
+        <v>787000</v>
       </c>
       <c r="G2828" s="2">
         <f t="shared" si="17"/>

--- a/ICSA.xlsx
+++ b/ICSA.xlsx
@@ -658,6 +658,9 @@
                   <c:v>806000</c:v>
                 </c:pt>
                 <c:pt idx="38">
+                  <c:v>790000</c:v>
+                </c:pt>
+                <c:pt idx="39">
                   <c:v>787000</c:v>
                 </c:pt>
               </c:numCache>
@@ -844,118 +847,118 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="45"/>
                 <c:pt idx="7">
-                  <c:v>1120355.5555555555</c:v>
+                  <c:v>488244.44444444438</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1104588.8888888888</c:v>
+                  <c:v>498977.77777777775</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1088822.222222222</c:v>
+                  <c:v>509711.11111111107</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1073055.5555555555</c:v>
+                  <c:v>520444.44444444438</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1057288.8888888888</c:v>
+                  <c:v>531177.77777777775</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1041522.222222222</c:v>
+                  <c:v>541911.11111111101</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1025755.5555555554</c:v>
+                  <c:v>552644.44444444438</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1009988.8888888888</c:v>
+                  <c:v>563377.77777777775</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>994222.22222222213</c:v>
+                  <c:v>574111.11111111101</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>978455.5555555555</c:v>
+                  <c:v>584844.44444444438</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>962688.88888888876</c:v>
+                  <c:v>595577.77777777775</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>946922.22222222213</c:v>
+                  <c:v>606311.11111111101</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>931155.5555555555</c:v>
+                  <c:v>617044.44444444438</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>915388.88888888876</c:v>
+                  <c:v>627777.77777777775</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>899622.22222222213</c:v>
+                  <c:v>638511.11111111101</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>883855.5555555555</c:v>
+                  <c:v>649244.44444444438</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>868088.88888888876</c:v>
+                  <c:v>659977.77777777775</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>852322.22222222213</c:v>
+                  <c:v>670711.11111111101</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>836555.5555555555</c:v>
+                  <c:v>681444.4444444445</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>820788.88888888876</c:v>
+                  <c:v>692177.77777777775</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>805022.22222222225</c:v>
+                  <c:v>702911.11111111101</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>789255.5555555555</c:v>
+                  <c:v>713644.4444444445</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>773488.88888888888</c:v>
+                  <c:v>724377.77777777775</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>757722.22222222225</c:v>
+                  <c:v>735111.11111111101</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>741955.5555555555</c:v>
+                  <c:v>745844.4444444445</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>726188.88888888888</c:v>
+                  <c:v>756577.77777777775</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>710422.22222222225</c:v>
+                  <c:v>767311.11111111101</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>694655.5555555555</c:v>
+                  <c:v>778044.4444444445</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>678888.88888888888</c:v>
+                  <c:v>788777.77777777775</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>663122.22222222225</c:v>
+                  <c:v>799511.11111111101</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>647355.55555555562</c:v>
+                  <c:v>810244.4444444445</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>631588.88888888888</c:v>
+                  <c:v>820977.77777777775</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>615822.22222222225</c:v>
+                  <c:v>831711.11111111101</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>600055.55555555562</c:v>
+                  <c:v>842444.4444444445</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>584288.88888888888</c:v>
+                  <c:v>853177.77777777775</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>568522.22222222225</c:v>
+                  <c:v>863911.11111111101</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>552755.55555555562</c:v>
+                  <c:v>874644.4444444445</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>536988.88888888899</c:v>
+                  <c:v>885377.77777777775</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1269,8 +1272,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2022590160"/>
-        <c:axId val="2022577648"/>
+        <c:axId val="264731104"/>
+        <c:axId val="264736000"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -1303,12 +1306,42 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="38"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="39"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-9.8369864182974692E-2"/>
-                  <c:y val="-0.11604501867946251"/>
+                  <c:x val="-9.4435069615655773E-2"/>
+                  <c:y val="-0.14505627334932822"/>
                 </c:manualLayout>
               </c:layout>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr/>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
@@ -1602,10 +1635,13 @@
                   <c:v>941910</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>872847</c:v>
+                  <c:v>872941</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>841111</c:v>
+                  <c:v>844672</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>922072</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1850,14 +1886,14 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2063780704"/>
-        <c:axId val="2063791040"/>
+        <c:axId val="36516336"/>
+        <c:axId val="36521776"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2022590160"/>
+        <c:axId val="264731104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="44194"/>
+          <c:max val="44294"/>
           <c:min val="43920"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1945,13 +1981,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2022577648"/>
+        <c:crossAx val="264736000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="30"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2022577648"/>
+        <c:axId val="264736000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2043,12 +2079,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2022590160"/>
+        <c:crossAx val="264731104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2063780704"/>
+        <c:axId val="36516336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2058,12 +2094,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2063791040"/>
+        <c:crossAx val="36521776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2063791040"/>
+        <c:axId val="36521776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="7000000"/>
@@ -2143,7 +2179,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2063780704"/>
+        <c:crossAx val="36516336"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2246,7 +2282,7 @@
         <xdr:cNvPr id="1041" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E1139446-7452-42CF-AFE8-077EBF68E693}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1139446-7452-42CF-AFE8-077EBF68E693}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2568,8 +2604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L2843"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C2766" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="J2778" sqref="J2778"/>
+    <sheetView tabSelected="1" topLeftCell="E2763" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="I2776" sqref="I2776"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -27675,7 +27711,7 @@
         <v>0</v>
       </c>
       <c r="E2790" s="2">
-        <f t="shared" ref="E2790:E2828" si="0">B2790</f>
+        <f t="shared" ref="E2790:E2829" si="0">B2790</f>
         <v>6615000</v>
       </c>
       <c r="F2790" s="2">
@@ -27839,11 +27875,11 @@
         <v>620000</v>
       </c>
       <c r="K2794">
-        <f t="array" ref="K2794:L2795">LINEST(B2811:B2819,D2811:D2819)</f>
-        <v>-15766.666666666661</v>
+        <f t="array" ref="K2794:L2795">LINEST(B2821:B2829,D2821:D2829)</f>
+        <v>10733.333333333334</v>
       </c>
       <c r="L2794">
-        <v>1230722.222222222</v>
+        <v>413111.11111111107</v>
       </c>
     </row>
     <row r="2795" spans="1:12" x14ac:dyDescent="0.2">
@@ -27883,10 +27919,10 @@
         <v>602000</v>
       </c>
       <c r="K2795">
-        <v>-15766.666666666661</v>
+        <v>10733.333333333334</v>
       </c>
       <c r="L2795">
-        <v>1230722.222222222</v>
+        <v>413111.11111111107</v>
       </c>
     </row>
     <row r="2796" spans="1:12" x14ac:dyDescent="0.2">
@@ -27951,7 +27987,7 @@
       </c>
       <c r="G2797" s="2">
         <f>$L$2794+D2797*$K$2794</f>
-        <v>1120355.5555555555</v>
+        <v>488244.44444444438</v>
       </c>
       <c r="H2797">
         <f t="shared" si="5"/>
@@ -27991,7 +28027,7 @@
       </c>
       <c r="G2798" s="2">
         <f t="shared" ref="G2798:G2817" si="7">$L$2794+D2798*$K$2794</f>
-        <v>1104588.8888888888</v>
+        <v>498977.77777777775</v>
       </c>
       <c r="H2798">
         <f t="shared" si="5"/>
@@ -28031,7 +28067,7 @@
       </c>
       <c r="G2799" s="2">
         <f t="shared" si="7"/>
-        <v>1088822.222222222</v>
+        <v>509711.11111111107</v>
       </c>
       <c r="H2799">
         <f t="shared" si="5"/>
@@ -28071,7 +28107,7 @@
       </c>
       <c r="G2800" s="2">
         <f t="shared" si="7"/>
-        <v>1073055.5555555555</v>
+        <v>520444.44444444438</v>
       </c>
       <c r="H2800">
         <f t="shared" si="5"/>
@@ -28111,7 +28147,7 @@
       </c>
       <c r="G2801" s="2">
         <f t="shared" si="7"/>
-        <v>1057288.8888888888</v>
+        <v>531177.77777777775</v>
       </c>
       <c r="H2801">
         <f t="shared" si="5"/>
@@ -28151,7 +28187,7 @@
       </c>
       <c r="G2802" s="2">
         <f t="shared" si="7"/>
-        <v>1041522.222222222</v>
+        <v>541911.11111111101</v>
       </c>
       <c r="H2802">
         <f t="shared" si="5"/>
@@ -28191,7 +28227,7 @@
       </c>
       <c r="G2803" s="2">
         <f t="shared" si="7"/>
-        <v>1025755.5555555554</v>
+        <v>552644.44444444438</v>
       </c>
       <c r="H2803">
         <f t="shared" si="5"/>
@@ -28231,7 +28267,7 @@
       </c>
       <c r="G2804" s="2">
         <f t="shared" si="7"/>
-        <v>1009988.8888888888</v>
+        <v>563377.77777777775</v>
       </c>
       <c r="H2804">
         <f t="shared" si="5"/>
@@ -28271,7 +28307,7 @@
       </c>
       <c r="G2805" s="2">
         <f t="shared" si="7"/>
-        <v>994222.22222222213</v>
+        <v>574111.11111111101</v>
       </c>
       <c r="H2805">
         <f t="shared" si="5"/>
@@ -28311,7 +28347,7 @@
       </c>
       <c r="G2806" s="2">
         <f t="shared" si="7"/>
-        <v>978455.5555555555</v>
+        <v>584844.44444444438</v>
       </c>
       <c r="H2806">
         <f t="shared" si="5"/>
@@ -28351,7 +28387,7 @@
       </c>
       <c r="G2807" s="2">
         <f t="shared" si="7"/>
-        <v>962688.88888888876</v>
+        <v>595577.77777777775</v>
       </c>
       <c r="H2807">
         <f t="shared" si="5"/>
@@ -28391,7 +28427,7 @@
       </c>
       <c r="G2808" s="2">
         <f t="shared" si="7"/>
-        <v>946922.22222222213</v>
+        <v>606311.11111111101</v>
       </c>
       <c r="H2808">
         <f t="shared" si="5"/>
@@ -28431,7 +28467,7 @@
       </c>
       <c r="G2809" s="2">
         <f t="shared" si="7"/>
-        <v>931155.5555555555</v>
+        <v>617044.44444444438</v>
       </c>
       <c r="H2809">
         <f t="shared" si="5"/>
@@ -28468,7 +28504,7 @@
       <c r="F2810" s="2"/>
       <c r="G2810" s="2">
         <f t="shared" si="7"/>
-        <v>915388.88888888876</v>
+        <v>627777.77777777775</v>
       </c>
       <c r="H2810">
         <f t="shared" si="5"/>
@@ -28497,7 +28533,7 @@
       <c r="F2811" s="2"/>
       <c r="G2811" s="2">
         <f t="shared" si="7"/>
-        <v>899622.22222222213</v>
+        <v>638511.11111111101</v>
       </c>
       <c r="H2811">
         <f t="shared" si="5"/>
@@ -28526,7 +28562,7 @@
       <c r="F2812" s="2"/>
       <c r="G2812" s="2">
         <f t="shared" si="7"/>
-        <v>883855.5555555555</v>
+        <v>649244.44444444438</v>
       </c>
       <c r="H2812">
         <f t="shared" si="5"/>
@@ -28555,7 +28591,7 @@
       <c r="F2813" s="2"/>
       <c r="G2813" s="2">
         <f t="shared" si="7"/>
-        <v>868088.88888888876</v>
+        <v>659977.77777777775</v>
       </c>
       <c r="H2813">
         <f t="shared" si="5"/>
@@ -28584,7 +28620,7 @@
       <c r="F2814" s="2"/>
       <c r="G2814" s="2">
         <f t="shared" si="7"/>
-        <v>852322.22222222213</v>
+        <v>670711.11111111101</v>
       </c>
       <c r="H2814">
         <f t="shared" si="5"/>
@@ -28613,7 +28649,7 @@
       <c r="F2815" s="2"/>
       <c r="G2815" s="2">
         <f t="shared" si="7"/>
-        <v>836555.5555555555</v>
+        <v>681444.4444444445</v>
       </c>
       <c r="H2815">
         <f t="shared" si="5"/>
@@ -28641,7 +28677,7 @@
       </c>
       <c r="G2816" s="2">
         <f t="shared" si="7"/>
-        <v>820788.88888888876</v>
+        <v>692177.77777777775</v>
       </c>
       <c r="H2816">
         <f t="shared" si="5"/>
@@ -28669,7 +28705,7 @@
       </c>
       <c r="G2817" s="2">
         <f t="shared" si="7"/>
-        <v>805022.22222222225</v>
+        <v>702911.11111111101</v>
       </c>
       <c r="H2817">
         <f t="shared" si="5"/>
@@ -28697,7 +28733,7 @@
       </c>
       <c r="G2818" s="2">
         <f t="shared" ref="G2818:G2824" si="16">$L$2794+D2818*$K$2794</f>
-        <v>789255.5555555555</v>
+        <v>713644.4444444445</v>
       </c>
       <c r="H2818">
         <f t="shared" si="5"/>
@@ -28725,7 +28761,7 @@
       </c>
       <c r="G2819" s="2">
         <f t="shared" si="16"/>
-        <v>773488.88888888888</v>
+        <v>724377.77777777775</v>
       </c>
       <c r="H2819">
         <f t="shared" si="5"/>
@@ -28753,7 +28789,7 @@
       </c>
       <c r="G2820" s="2">
         <f t="shared" si="16"/>
-        <v>757722.22222222225</v>
+        <v>735111.11111111101</v>
       </c>
       <c r="H2820">
         <f t="shared" si="5"/>
@@ -28781,7 +28817,7 @@
       </c>
       <c r="G2821" s="2">
         <f t="shared" si="16"/>
-        <v>741955.5555555555</v>
+        <v>745844.4444444445</v>
       </c>
       <c r="H2821">
         <f t="shared" si="5"/>
@@ -28809,7 +28845,7 @@
       </c>
       <c r="G2822" s="2">
         <f t="shared" si="16"/>
-        <v>726188.88888888888</v>
+        <v>756577.77777777775</v>
       </c>
       <c r="H2822">
         <f t="shared" si="5"/>
@@ -28837,7 +28873,7 @@
       </c>
       <c r="G2823" s="2">
         <f t="shared" si="16"/>
-        <v>710422.22222222225</v>
+        <v>767311.11111111101</v>
       </c>
       <c r="H2823">
         <f t="shared" si="5"/>
@@ -28865,7 +28901,7 @@
       </c>
       <c r="G2824" s="2">
         <f t="shared" si="16"/>
-        <v>694655.5555555555</v>
+        <v>778044.4444444445</v>
       </c>
       <c r="H2824">
         <f t="shared" si="5"/>
@@ -28893,7 +28929,7 @@
       </c>
       <c r="G2825" s="2">
         <f t="shared" ref="G2825:G2830" si="17">$L$2794+D2825*$K$2794</f>
-        <v>678888.88888888888</v>
+        <v>788777.77777777775</v>
       </c>
       <c r="H2825">
         <f t="shared" si="5"/>
@@ -28921,7 +28957,7 @@
       </c>
       <c r="G2826" s="2">
         <f t="shared" si="17"/>
-        <v>663122.22222222225</v>
+        <v>799511.11111111101</v>
       </c>
       <c r="H2826">
         <f t="shared" si="5"/>
@@ -28937,7 +28973,7 @@
         <v>806000</v>
       </c>
       <c r="C2827">
-        <v>872847</v>
+        <v>872941</v>
       </c>
       <c r="D2827">
         <f t="shared" si="8"/>
@@ -28949,7 +28985,7 @@
       </c>
       <c r="G2827" s="2">
         <f t="shared" si="17"/>
-        <v>647355.55555555562</v>
+        <v>810244.4444444445</v>
       </c>
       <c r="H2827">
         <f t="shared" si="5"/>
@@ -28962,10 +28998,10 @@
         <v>44191</v>
       </c>
       <c r="B2828">
-        <v>787000</v>
+        <v>790000</v>
       </c>
       <c r="C2828">
-        <v>841111</v>
+        <v>844672</v>
       </c>
       <c r="D2828">
         <f t="shared" si="8"/>
@@ -28973,11 +29009,11 @@
       </c>
       <c r="E2828" s="2">
         <f t="shared" si="0"/>
-        <v>787000</v>
+        <v>790000</v>
       </c>
       <c r="G2828" s="2">
         <f t="shared" si="17"/>
-        <v>631588.88888888888</v>
+        <v>820977.77777777775</v>
       </c>
       <c r="H2828">
         <f t="shared" si="5"/>
@@ -28989,13 +29025,23 @@
         <f t="shared" si="6"/>
         <v>44198</v>
       </c>
+      <c r="B2829">
+        <v>787000</v>
+      </c>
+      <c r="C2829">
+        <v>922072</v>
+      </c>
       <c r="D2829">
         <f t="shared" si="8"/>
         <v>39</v>
       </c>
+      <c r="E2829" s="2">
+        <f t="shared" si="0"/>
+        <v>787000</v>
+      </c>
       <c r="G2829" s="2">
         <f t="shared" si="17"/>
-        <v>615822.22222222225</v>
+        <v>831711.11111111101</v>
       </c>
     </row>
     <row r="2830" spans="1:8" x14ac:dyDescent="0.2">
@@ -29009,7 +29055,7 @@
       </c>
       <c r="G2830" s="2">
         <f t="shared" si="17"/>
-        <v>600055.55555555562</v>
+        <v>842444.4444444445</v>
       </c>
     </row>
     <row r="2831" spans="1:8" x14ac:dyDescent="0.2">
@@ -29023,7 +29069,7 @@
       </c>
       <c r="G2831" s="2">
         <f t="shared" ref="G2831:G2843" si="18">$L$2794+D2831*$K$2794</f>
-        <v>584288.88888888888</v>
+        <v>853177.77777777775</v>
       </c>
     </row>
     <row r="2832" spans="1:8" x14ac:dyDescent="0.2">
@@ -29037,7 +29083,7 @@
       </c>
       <c r="G2832" s="2">
         <f t="shared" si="18"/>
-        <v>568522.22222222225</v>
+        <v>863911.11111111101</v>
       </c>
     </row>
     <row r="2833" spans="1:7" x14ac:dyDescent="0.2">
@@ -29051,7 +29097,7 @@
       </c>
       <c r="G2833" s="2">
         <f t="shared" si="18"/>
-        <v>552755.55555555562</v>
+        <v>874644.4444444445</v>
       </c>
     </row>
     <row r="2834" spans="1:7" x14ac:dyDescent="0.2">
@@ -29065,7 +29111,7 @@
       </c>
       <c r="G2834" s="2">
         <f t="shared" si="18"/>
-        <v>536988.88888888899</v>
+        <v>885377.77777777775</v>
       </c>
     </row>
     <row r="2835" spans="1:7" x14ac:dyDescent="0.2">
@@ -29079,7 +29125,7 @@
       </c>
       <c r="G2835" s="2">
         <f t="shared" si="18"/>
-        <v>521222.22222222225</v>
+        <v>896111.11111111101</v>
       </c>
     </row>
     <row r="2836" spans="1:7" x14ac:dyDescent="0.2">
@@ -29093,7 +29139,7 @@
       </c>
       <c r="G2836" s="2">
         <f t="shared" si="18"/>
-        <v>505455.55555555562</v>
+        <v>906844.4444444445</v>
       </c>
     </row>
     <row r="2837" spans="1:7" x14ac:dyDescent="0.2">
@@ -29107,7 +29153,7 @@
       </c>
       <c r="G2837" s="2">
         <f t="shared" si="18"/>
-        <v>489688.88888888899</v>
+        <v>917577.77777777775</v>
       </c>
     </row>
     <row r="2838" spans="1:7" x14ac:dyDescent="0.2">
@@ -29121,7 +29167,7 @@
       </c>
       <c r="G2838" s="2">
         <f t="shared" si="18"/>
-        <v>473922.22222222225</v>
+        <v>928311.11111111101</v>
       </c>
     </row>
     <row r="2839" spans="1:7" x14ac:dyDescent="0.2">
@@ -29135,7 +29181,7 @@
       </c>
       <c r="G2839" s="2">
         <f t="shared" si="18"/>
-        <v>458155.55555555562</v>
+        <v>939044.4444444445</v>
       </c>
     </row>
     <row r="2840" spans="1:7" x14ac:dyDescent="0.2">
@@ -29149,7 +29195,7 @@
       </c>
       <c r="G2840" s="2">
         <f t="shared" si="18"/>
-        <v>442388.88888888899</v>
+        <v>949777.77777777775</v>
       </c>
     </row>
     <row r="2841" spans="1:7" x14ac:dyDescent="0.2">
@@ -29163,7 +29209,7 @@
       </c>
       <c r="G2841" s="2">
         <f t="shared" si="18"/>
-        <v>426622.22222222236</v>
+        <v>960511.11111111101</v>
       </c>
     </row>
     <row r="2842" spans="1:7" x14ac:dyDescent="0.2">
@@ -29177,7 +29223,7 @@
       </c>
       <c r="G2842" s="2">
         <f t="shared" si="18"/>
-        <v>410855.55555555562</v>
+        <v>971244.4444444445</v>
       </c>
     </row>
     <row r="2843" spans="1:7" x14ac:dyDescent="0.2">
@@ -29191,7 +29237,7 @@
       </c>
       <c r="G2843" s="2">
         <f t="shared" si="18"/>
-        <v>395088.88888888899</v>
+        <v>981977.77777777775</v>
       </c>
     </row>
   </sheetData>
